--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,9 @@
     <t>['10', '19', '27', '56', '89']</t>
   </si>
   <si>
+    <t>['24', '90+1']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -863,6 +866,9 @@
   </si>
   <si>
     <t>['78', '83', '84']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1489,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1561,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>0.87</v>
@@ -2513,7 +2519,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2719,7 +2725,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -3131,7 +3137,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3212,7 +3218,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ10">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3955,7 +3961,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4367,7 +4373,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4573,7 +4579,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4779,7 +4785,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4985,7 +4991,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5063,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5397,7 +5403,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5809,7 +5815,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6015,7 +6021,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6096,7 +6102,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ24">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR24">
         <v>0.79</v>
@@ -6221,7 +6227,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6427,7 +6433,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6633,7 +6639,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -7123,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
         <v>1.14</v>
@@ -7457,7 +7463,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7869,7 +7875,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8075,7 +8081,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8487,7 +8493,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8693,7 +8699,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8980,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9311,7 +9317,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9517,7 +9523,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9723,7 +9729,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9801,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42">
         <v>0.33</v>
@@ -9929,7 +9935,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10135,7 +10141,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10547,7 +10553,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10753,7 +10759,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11040,7 +11046,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ48">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -11165,7 +11171,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11783,7 +11789,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11864,7 +11870,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR52">
         <v>2.16</v>
@@ -11989,7 +11995,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12894,7 +12900,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ57">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR57">
         <v>1.16</v>
@@ -13019,7 +13025,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13431,7 +13437,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13509,7 +13515,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60">
         <v>1.73</v>
@@ -13637,7 +13643,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13843,7 +13849,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14049,7 +14055,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14667,7 +14673,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14873,7 +14879,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15079,7 +15085,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15285,7 +15291,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15491,7 +15497,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15697,7 +15703,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15984,7 +15990,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ72">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR72">
         <v>1.43</v>
@@ -16109,7 +16115,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16315,7 +16321,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16727,7 +16733,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16805,7 +16811,7 @@
         <v>2.17</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
         <v>2.47</v>
@@ -17345,7 +17351,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17757,7 +17763,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17963,7 +17969,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18041,7 +18047,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ82">
         <v>0.71</v>
@@ -18581,7 +18587,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19199,7 +19205,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19405,7 +19411,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19692,7 +19698,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR90">
         <v>2.29</v>
@@ -19817,7 +19823,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -20023,7 +20029,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20229,7 +20235,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20513,7 +20519,7 @@
         <v>1.57</v>
       </c>
       <c r="AP94">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ94">
         <v>1.29</v>
@@ -20641,7 +20647,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -21053,7 +21059,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21465,7 +21471,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21671,7 +21677,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21958,7 +21964,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ101">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR101">
         <v>1.39</v>
@@ -22083,7 +22089,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22701,7 +22707,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22985,7 +22991,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ106">
         <v>1.36</v>
@@ -23525,7 +23531,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23731,7 +23737,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23937,7 +23943,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24349,7 +24355,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24761,7 +24767,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24842,7 +24848,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ115">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR115">
         <v>1.81</v>
@@ -24967,7 +24973,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25045,7 +25051,7 @@
         <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ116">
         <v>1.27</v>
@@ -25585,7 +25591,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25791,7 +25797,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25997,7 +26003,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26409,7 +26415,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26821,7 +26827,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -27027,7 +27033,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27439,7 +27445,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27645,7 +27651,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -28135,10 +28141,10 @@
         <v>0.4</v>
       </c>
       <c r="AP131">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ131">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28675,7 +28681,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28881,7 +28887,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29087,7 +29093,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29499,7 +29505,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29992,7 +29998,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ140">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR140">
         <v>1.27</v>
@@ -30195,7 +30201,7 @@
         <v>0.09</v>
       </c>
       <c r="AP141">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ141">
         <v>0.33</v>
@@ -30323,7 +30329,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30529,7 +30535,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30941,7 +30947,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -31147,7 +31153,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31353,7 +31359,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31434,7 +31440,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ147">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR147">
         <v>1.41</v>
@@ -31559,7 +31565,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31637,7 +31643,7 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ148">
         <v>1.27</v>
@@ -31971,7 +31977,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32383,7 +32389,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32795,7 +32801,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q154">
         <v>2.49</v>
@@ -33207,7 +33213,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>3.86</v>
@@ -34109,7 +34115,7 @@
         <v>0.54</v>
       </c>
       <c r="AP160">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ160">
         <v>0.71</v>
@@ -34237,7 +34243,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>2.93</v>
@@ -34649,7 +34655,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q163">
         <v>3.82</v>
@@ -34855,7 +34861,7 @@
         <v>185</v>
       </c>
       <c r="P164" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q164">
         <v>1.89</v>
@@ -34936,7 +34942,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ164">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR164">
         <v>2.01</v>
@@ -35061,7 +35067,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q165">
         <v>3.03</v>
@@ -35679,7 +35685,7 @@
         <v>187</v>
       </c>
       <c r="P168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>2.62</v>
@@ -35885,7 +35891,7 @@
         <v>188</v>
       </c>
       <c r="P169" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q169">
         <v>3.5</v>
@@ -36503,7 +36509,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q172">
         <v>3.93</v>
@@ -36709,7 +36715,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q173">
         <v>2.13</v>
@@ -36915,7 +36921,7 @@
         <v>191</v>
       </c>
       <c r="P174" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q174">
         <v>2.86</v>
@@ -37121,7 +37127,7 @@
         <v>192</v>
       </c>
       <c r="P175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q175">
         <v>3.38</v>
@@ -37278,6 +37284,212 @@
       </c>
       <c r="BP175">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7372753</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45415.52083333334</v>
+      </c>
+      <c r="F176">
+        <v>8</v>
+      </c>
+      <c r="G176" t="s">
+        <v>70</v>
+      </c>
+      <c r="H176" t="s">
+        <v>73</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>193</v>
+      </c>
+      <c r="P176" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q176">
+        <v>2.32</v>
+      </c>
+      <c r="R176">
+        <v>2.26</v>
+      </c>
+      <c r="S176">
+        <v>4.33</v>
+      </c>
+      <c r="T176">
+        <v>1.33</v>
+      </c>
+      <c r="U176">
+        <v>3.15</v>
+      </c>
+      <c r="V176">
+        <v>2.54</v>
+      </c>
+      <c r="W176">
+        <v>1.48</v>
+      </c>
+      <c r="X176">
+        <v>5.84</v>
+      </c>
+      <c r="Y176">
+        <v>1.1</v>
+      </c>
+      <c r="Z176">
+        <v>1.73</v>
+      </c>
+      <c r="AA176">
+        <v>3.8</v>
+      </c>
+      <c r="AB176">
+        <v>3.6</v>
+      </c>
+      <c r="AC176">
+        <v>1.01</v>
+      </c>
+      <c r="AD176">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE176">
+        <v>1.2</v>
+      </c>
+      <c r="AF176">
+        <v>3.84</v>
+      </c>
+      <c r="AG176">
+        <v>1.69</v>
+      </c>
+      <c r="AH176">
+        <v>2.07</v>
+      </c>
+      <c r="AI176">
+        <v>1.65</v>
+      </c>
+      <c r="AJ176">
+        <v>2.11</v>
+      </c>
+      <c r="AK176">
+        <v>1.23</v>
+      </c>
+      <c r="AL176">
+        <v>1.25</v>
+      </c>
+      <c r="AM176">
+        <v>1.94</v>
+      </c>
+      <c r="AN176">
+        <v>1.29</v>
+      </c>
+      <c r="AO176">
+        <v>0.79</v>
+      </c>
+      <c r="AP176">
+        <v>1.4</v>
+      </c>
+      <c r="AQ176">
+        <v>0.73</v>
+      </c>
+      <c r="AR176">
+        <v>1.36</v>
+      </c>
+      <c r="AS176">
+        <v>1.14</v>
+      </c>
+      <c r="AT176">
+        <v>2.5</v>
+      </c>
+      <c r="AU176">
+        <v>4</v>
+      </c>
+      <c r="AV176">
+        <v>3</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>2</v>
+      </c>
+      <c r="AY176">
+        <v>9</v>
+      </c>
+      <c r="AZ176">
+        <v>5</v>
+      </c>
+      <c r="BA176">
+        <v>1</v>
+      </c>
+      <c r="BB176">
+        <v>1</v>
+      </c>
+      <c r="BC176">
+        <v>2</v>
+      </c>
+      <c r="BD176">
+        <v>1.52</v>
+      </c>
+      <c r="BE176">
+        <v>8.6</v>
+      </c>
+      <c r="BF176">
+        <v>3.02</v>
+      </c>
+      <c r="BG176">
+        <v>1.25</v>
+      </c>
+      <c r="BH176">
+        <v>3.56</v>
+      </c>
+      <c r="BI176">
+        <v>1.47</v>
+      </c>
+      <c r="BJ176">
+        <v>2.6</v>
+      </c>
+      <c r="BK176">
+        <v>1.92</v>
+      </c>
+      <c r="BL176">
+        <v>1.88</v>
+      </c>
+      <c r="BM176">
+        <v>2.24</v>
+      </c>
+      <c r="BN176">
+        <v>1.6</v>
+      </c>
+      <c r="BO176">
+        <v>2.9</v>
+      </c>
+      <c r="BP176">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,13 +598,19 @@
     <t>['24', '90+1']</t>
   </si>
   <si>
+    <t>['25', '52']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
     <t>['36', '90+6']</t>
-  </si>
-  <si>
-    <t>['11']</t>
   </si>
   <si>
     <t>['79', '83']</t>
@@ -869,6 +875,9 @@
   </si>
   <si>
     <t>['2']</t>
+  </si>
+  <si>
+    <t>['7', '33', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1489,7 +1498,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2394,7 +2403,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ6">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2519,7 +2528,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2597,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ7">
         <v>1.27</v>
@@ -2725,7 +2734,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -2806,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3009,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ9">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3137,7 +3146,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3421,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11">
         <v>1.93</v>
@@ -3627,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ12">
         <v>1.73</v>
@@ -3836,7 +3845,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3961,7 +3970,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4373,7 +4382,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4579,7 +4588,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4785,7 +4794,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4991,7 +5000,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5072,7 +5081,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -5275,10 +5284,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ20">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR20">
         <v>1.62</v>
@@ -5403,7 +5412,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5484,7 +5493,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ21">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR21">
         <v>0.9</v>
@@ -5687,7 +5696,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ22">
         <v>0.87</v>
@@ -5815,7 +5824,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5893,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ23">
         <v>1.29</v>
@@ -6021,7 +6030,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6227,7 +6236,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6433,7 +6442,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6639,7 +6648,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -7132,7 +7141,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR29">
         <v>1.35</v>
@@ -7463,7 +7472,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7544,7 +7553,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ31">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.13</v>
@@ -7747,7 +7756,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ32">
         <v>1.29</v>
@@ -7875,7 +7884,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7953,10 +7962,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ33">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR33">
         <v>1.7</v>
@@ -8081,7 +8090,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8159,7 +8168,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ34">
         <v>0.87</v>
@@ -8368,7 +8377,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR35">
         <v>2.02</v>
@@ -8493,7 +8502,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8699,7 +8708,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9317,7 +9326,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9395,7 +9404,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ40">
         <v>1.27</v>
@@ -9523,7 +9532,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9729,7 +9738,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9935,7 +9944,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10141,7 +10150,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10425,10 +10434,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ45">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR45">
         <v>1.89</v>
@@ -10553,7 +10562,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10631,10 +10640,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR46">
         <v>1.65</v>
@@ -10759,7 +10768,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11043,7 +11052,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ48">
         <v>0.73</v>
@@ -11171,7 +11180,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11252,7 +11261,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR49">
         <v>2.11</v>
@@ -11455,7 +11464,7 @@
         <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ50">
         <v>1.93</v>
@@ -11664,7 +11673,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>1.18</v>
@@ -11789,7 +11798,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11995,7 +12004,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12073,7 +12082,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ53">
         <v>2.47</v>
@@ -12694,7 +12703,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ56">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR56">
         <v>1.11</v>
@@ -13025,7 +13034,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13309,7 +13318,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ59">
         <v>1.27</v>
@@ -13437,7 +13446,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13643,7 +13652,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13721,10 +13730,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ61">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>1.51</v>
@@ -13849,7 +13858,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14055,7 +14064,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14339,10 +14348,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR64">
         <v>1.87</v>
@@ -14548,7 +14557,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR65">
         <v>2.21</v>
@@ -14673,7 +14682,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14751,7 +14760,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ66">
         <v>2.47</v>
@@ -14879,7 +14888,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15085,7 +15094,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15166,7 +15175,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ68">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR68">
         <v>1.58</v>
@@ -15291,7 +15300,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15369,10 +15378,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR69">
         <v>1.47</v>
@@ -15497,7 +15506,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15578,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="AQ70">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR70">
         <v>1.32</v>
@@ -15703,7 +15712,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15781,7 +15790,7 @@
         <v>2.2</v>
       </c>
       <c r="AP71">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ71">
         <v>1.73</v>
@@ -15987,7 +15996,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ72">
         <v>0.73</v>
@@ -16115,7 +16124,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16193,10 +16202,10 @@
         <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ73">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR73">
         <v>1.57</v>
@@ -16321,7 +16330,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16733,7 +16742,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17020,7 +17029,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ77">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR77">
         <v>1.14</v>
@@ -17223,7 +17232,7 @@
         <v>0.17</v>
       </c>
       <c r="AP78">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ78">
         <v>0.33</v>
@@ -17351,7 +17360,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17635,10 +17644,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ80">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR80">
         <v>1.95</v>
@@ -17763,7 +17772,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17841,7 +17850,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ81">
         <v>0.87</v>
@@ -17969,7 +17978,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18050,7 +18059,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ82">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18256,7 +18265,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ83">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18459,10 +18468,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR84">
         <v>1.57</v>
@@ -18587,7 +18596,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19205,7 +19214,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19411,7 +19420,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19823,7 +19832,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -20029,7 +20038,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20110,7 +20119,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1</v>
@@ -20235,7 +20244,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20313,7 +20322,7 @@
         <v>1.29</v>
       </c>
       <c r="AP93">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ93">
         <v>0.87</v>
@@ -20647,7 +20656,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20725,10 +20734,10 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ95">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -20931,10 +20940,10 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -21059,7 +21068,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21137,10 +21146,10 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ97">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR97">
         <v>1.56</v>
@@ -21471,7 +21480,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21552,7 +21561,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR99">
         <v>1.14</v>
@@ -21677,7 +21686,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21961,7 +21970,7 @@
         <v>0.38</v>
       </c>
       <c r="AP101">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ101">
         <v>0.73</v>
@@ -22089,7 +22098,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22707,7 +22716,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22788,7 +22797,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ105">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR105">
         <v>1.07</v>
@@ -22994,7 +23003,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ106">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR106">
         <v>1.45</v>
@@ -23197,7 +23206,7 @@
         <v>0.13</v>
       </c>
       <c r="AP107">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ107">
         <v>0.33</v>
@@ -23403,10 +23412,10 @@
         <v>0.25</v>
       </c>
       <c r="AP108">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ108">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23531,7 +23540,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23609,7 +23618,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ109">
         <v>1.29</v>
@@ -23737,7 +23746,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23943,7 +23952,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24021,7 +24030,7 @@
         <v>1.89</v>
       </c>
       <c r="AP111">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ111">
         <v>1.93</v>
@@ -24230,7 +24239,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR112">
         <v>1.69</v>
@@ -24355,7 +24364,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24436,7 +24445,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR113">
         <v>1.89</v>
@@ -24767,7 +24776,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24845,7 +24854,7 @@
         <v>0.44</v>
       </c>
       <c r="AP115">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ115">
         <v>0.73</v>
@@ -24973,7 +24982,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25466,7 +25475,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ118">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25591,7 +25600,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25672,7 +25681,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ119">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR119">
         <v>1.19</v>
@@ -25797,7 +25806,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25875,7 +25884,7 @@
         <v>0.11</v>
       </c>
       <c r="AP120">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ120">
         <v>0.33</v>
@@ -26003,7 +26012,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26081,7 +26090,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ121">
         <v>1.29</v>
@@ -26290,7 +26299,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR122">
         <v>1.12</v>
@@ -26415,7 +26424,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26496,7 +26505,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ123">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR123">
         <v>2.14</v>
@@ -26699,7 +26708,7 @@
         <v>2</v>
       </c>
       <c r="AP124">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ124">
         <v>1.93</v>
@@ -26827,7 +26836,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26905,10 +26914,10 @@
         <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ125">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR125">
         <v>1.43</v>
@@ -27033,7 +27042,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27111,7 +27120,7 @@
         <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ126">
         <v>2.47</v>
@@ -27445,7 +27454,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27526,7 +27535,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ128">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR128">
         <v>1.72</v>
@@ -27651,7 +27660,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -28553,7 +28562,7 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ133">
         <v>1.73</v>
@@ -28681,7 +28690,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28887,7 +28896,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28965,10 +28974,10 @@
         <v>0.27</v>
       </c>
       <c r="AP135">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ135">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR135">
         <v>1.43</v>
@@ -29093,7 +29102,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29505,7 +29514,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29789,7 +29798,7 @@
         <v>1.45</v>
       </c>
       <c r="AP139">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ139">
         <v>1.29</v>
@@ -30329,7 +30338,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30410,7 +30419,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ142">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR142">
         <v>1.8</v>
@@ -30535,7 +30544,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30613,10 +30622,10 @@
         <v>0.45</v>
       </c>
       <c r="AP143">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR143">
         <v>1.96</v>
@@ -30822,7 +30831,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ144">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -30947,7 +30956,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -31025,7 +31034,7 @@
         <v>1.82</v>
       </c>
       <c r="AP145">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ145">
         <v>1.73</v>
@@ -31153,7 +31162,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31359,7 +31368,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31437,7 +31446,7 @@
         <v>0.42</v>
       </c>
       <c r="AP147">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ147">
         <v>0.73</v>
@@ -31565,7 +31574,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31852,7 +31861,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ149">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR149">
         <v>1.35</v>
@@ -31977,7 +31986,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32055,7 +32064,7 @@
         <v>1.08</v>
       </c>
       <c r="AP150">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ150">
         <v>0.87</v>
@@ -32261,10 +32270,10 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ151">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR151">
         <v>1.72</v>
@@ -32389,7 +32398,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32801,7 +32810,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q154">
         <v>2.49</v>
@@ -33213,7 +33222,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q156">
         <v>3.86</v>
@@ -33706,7 +33715,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ158">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR158">
         <v>1.99</v>
@@ -33909,7 +33918,7 @@
         <v>1.31</v>
       </c>
       <c r="AP159">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="AQ159">
         <v>1.29</v>
@@ -34118,7 +34127,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ160">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34243,7 +34252,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>2.93</v>
@@ -34324,7 +34333,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -34527,7 +34536,7 @@
         <v>0.15</v>
       </c>
       <c r="AP162">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ162">
         <v>0.33</v>
@@ -34655,7 +34664,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q163">
         <v>3.82</v>
@@ -34861,7 +34870,7 @@
         <v>185</v>
       </c>
       <c r="P164" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q164">
         <v>1.89</v>
@@ -34939,7 +34948,7 @@
         <v>0.62</v>
       </c>
       <c r="AP164">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ164">
         <v>0.73</v>
@@ -35067,7 +35076,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q165">
         <v>3.03</v>
@@ -35148,7 +35157,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AR165">
         <v>1.83</v>
@@ -35354,7 +35363,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ166">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR166">
         <v>1.65</v>
@@ -35557,7 +35566,7 @@
         <v>2</v>
       </c>
       <c r="AP167">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ167">
         <v>1.93</v>
@@ -35685,7 +35694,7 @@
         <v>187</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q168">
         <v>2.62</v>
@@ -35766,7 +35775,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR168">
         <v>1.28</v>
@@ -35891,7 +35900,7 @@
         <v>188</v>
       </c>
       <c r="P169" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q169">
         <v>3.5</v>
@@ -35969,7 +35978,7 @@
         <v>2.62</v>
       </c>
       <c r="AP169">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AQ169">
         <v>2.47</v>
@@ -36509,7 +36518,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q172">
         <v>3.93</v>
@@ -36715,7 +36724,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q173">
         <v>2.13</v>
@@ -36921,7 +36930,7 @@
         <v>191</v>
       </c>
       <c r="P174" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q174">
         <v>2.86</v>
@@ -37127,7 +37136,7 @@
         <v>192</v>
       </c>
       <c r="P175" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q175">
         <v>3.38</v>
@@ -37333,7 +37342,7 @@
         <v>193</v>
       </c>
       <c r="P176" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q176">
         <v>2.32</v>
@@ -37426,31 +37435,31 @@
         <v>2.5</v>
       </c>
       <c r="AU176">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV176">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW176">
         <v>5</v>
       </c>
       <c r="AX176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY176">
+        <v>12</v>
+      </c>
+      <c r="AZ176">
         <v>9</v>
       </c>
-      <c r="AZ176">
-        <v>5</v>
-      </c>
       <c r="BA176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB176">
         <v>1</v>
       </c>
       <c r="BC176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD176">
         <v>1.52</v>
@@ -37489,6 +37498,830 @@
         <v>2.9</v>
       </c>
       <c r="BP176">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7372757</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45416.4375</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177" t="s">
+        <v>75</v>
+      </c>
+      <c r="H177" t="s">
+        <v>76</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>104</v>
+      </c>
+      <c r="P177" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q177">
+        <v>2.06</v>
+      </c>
+      <c r="R177">
+        <v>2.08</v>
+      </c>
+      <c r="S177">
+        <v>7.2</v>
+      </c>
+      <c r="T177">
+        <v>1.48</v>
+      </c>
+      <c r="U177">
+        <v>2.54</v>
+      </c>
+      <c r="V177">
+        <v>3.28</v>
+      </c>
+      <c r="W177">
+        <v>1.31</v>
+      </c>
+      <c r="X177">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="Y177">
+        <v>1.04</v>
+      </c>
+      <c r="Z177">
+        <v>1.49</v>
+      </c>
+      <c r="AA177">
+        <v>3.5</v>
+      </c>
+      <c r="AB177">
+        <v>5.5</v>
+      </c>
+      <c r="AC177">
+        <v>1.04</v>
+      </c>
+      <c r="AD177">
+        <v>7.3</v>
+      </c>
+      <c r="AE177">
+        <v>1.39</v>
+      </c>
+      <c r="AF177">
+        <v>2.67</v>
+      </c>
+      <c r="AG177">
+        <v>2.17</v>
+      </c>
+      <c r="AH177">
+        <v>1.61</v>
+      </c>
+      <c r="AI177">
+        <v>2.34</v>
+      </c>
+      <c r="AJ177">
+        <v>1.53</v>
+      </c>
+      <c r="AK177">
+        <v>1.08</v>
+      </c>
+      <c r="AL177">
+        <v>1.24</v>
+      </c>
+      <c r="AM177">
+        <v>2.46</v>
+      </c>
+      <c r="AN177">
+        <v>1.79</v>
+      </c>
+      <c r="AO177">
+        <v>1.14</v>
+      </c>
+      <c r="AP177">
+        <v>1.87</v>
+      </c>
+      <c r="AQ177">
+        <v>1.07</v>
+      </c>
+      <c r="AR177">
+        <v>1.65</v>
+      </c>
+      <c r="AS177">
+        <v>1.19</v>
+      </c>
+      <c r="AT177">
+        <v>2.84</v>
+      </c>
+      <c r="AU177">
+        <v>5</v>
+      </c>
+      <c r="AV177">
+        <v>4</v>
+      </c>
+      <c r="AW177">
+        <v>7</v>
+      </c>
+      <c r="AX177">
+        <v>1</v>
+      </c>
+      <c r="AY177">
+        <v>12</v>
+      </c>
+      <c r="AZ177">
+        <v>5</v>
+      </c>
+      <c r="BA177">
+        <v>7</v>
+      </c>
+      <c r="BB177">
+        <v>3</v>
+      </c>
+      <c r="BC177">
+        <v>10</v>
+      </c>
+      <c r="BD177">
+        <v>1.38</v>
+      </c>
+      <c r="BE177">
+        <v>9.4</v>
+      </c>
+      <c r="BF177">
+        <v>3.64</v>
+      </c>
+      <c r="BG177">
+        <v>1.31</v>
+      </c>
+      <c r="BH177">
+        <v>3.15</v>
+      </c>
+      <c r="BI177">
+        <v>1.53</v>
+      </c>
+      <c r="BJ177">
+        <v>2.33</v>
+      </c>
+      <c r="BK177">
+        <v>2</v>
+      </c>
+      <c r="BL177">
+        <v>1.8</v>
+      </c>
+      <c r="BM177">
+        <v>2.55</v>
+      </c>
+      <c r="BN177">
+        <v>1.45</v>
+      </c>
+      <c r="BO177">
+        <v>3.27</v>
+      </c>
+      <c r="BP177">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7372755</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F178">
+        <v>8</v>
+      </c>
+      <c r="G178" t="s">
+        <v>79</v>
+      </c>
+      <c r="H178" t="s">
+        <v>74</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>2</v>
+      </c>
+      <c r="K178">
+        <v>3</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
+        <v>5</v>
+      </c>
+      <c r="O178" t="s">
+        <v>194</v>
+      </c>
+      <c r="P178" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q178">
+        <v>2.03</v>
+      </c>
+      <c r="R178">
+        <v>2.66</v>
+      </c>
+      <c r="S178">
+        <v>4.99</v>
+      </c>
+      <c r="T178">
+        <v>1.25</v>
+      </c>
+      <c r="U178">
+        <v>3.5</v>
+      </c>
+      <c r="V178">
+        <v>2.18</v>
+      </c>
+      <c r="W178">
+        <v>1.66</v>
+      </c>
+      <c r="X178">
+        <v>4.4</v>
+      </c>
+      <c r="Y178">
+        <v>1.16</v>
+      </c>
+      <c r="Z178">
+        <v>1.6</v>
+      </c>
+      <c r="AA178">
+        <v>3.8</v>
+      </c>
+      <c r="AB178">
+        <v>4</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>13</v>
+      </c>
+      <c r="AE178">
+        <v>1.11</v>
+      </c>
+      <c r="AF178">
+        <v>5.2</v>
+      </c>
+      <c r="AG178">
+        <v>1.38</v>
+      </c>
+      <c r="AH178">
+        <v>2.54</v>
+      </c>
+      <c r="AI178">
+        <v>1.53</v>
+      </c>
+      <c r="AJ178">
+        <v>2.33</v>
+      </c>
+      <c r="AK178">
+        <v>1.16</v>
+      </c>
+      <c r="AL178">
+        <v>1.15</v>
+      </c>
+      <c r="AM178">
+        <v>2.04</v>
+      </c>
+      <c r="AN178">
+        <v>2.36</v>
+      </c>
+      <c r="AO178">
+        <v>1.36</v>
+      </c>
+      <c r="AP178">
+        <v>2.2</v>
+      </c>
+      <c r="AQ178">
+        <v>1.47</v>
+      </c>
+      <c r="AR178">
+        <v>1.72</v>
+      </c>
+      <c r="AS178">
+        <v>1.25</v>
+      </c>
+      <c r="AT178">
+        <v>2.97</v>
+      </c>
+      <c r="AU178">
+        <v>0</v>
+      </c>
+      <c r="AV178">
+        <v>3</v>
+      </c>
+      <c r="AW178">
+        <v>5</v>
+      </c>
+      <c r="AX178">
+        <v>7</v>
+      </c>
+      <c r="AY178">
+        <v>5</v>
+      </c>
+      <c r="AZ178">
+        <v>10</v>
+      </c>
+      <c r="BA178">
+        <v>2</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>6</v>
+      </c>
+      <c r="BD178">
+        <v>1.56</v>
+      </c>
+      <c r="BE178">
+        <v>9</v>
+      </c>
+      <c r="BF178">
+        <v>2.83</v>
+      </c>
+      <c r="BG178">
+        <v>1.29</v>
+      </c>
+      <c r="BH178">
+        <v>3.27</v>
+      </c>
+      <c r="BI178">
+        <v>1.46</v>
+      </c>
+      <c r="BJ178">
+        <v>2.52</v>
+      </c>
+      <c r="BK178">
+        <v>1.82</v>
+      </c>
+      <c r="BL178">
+        <v>1.88</v>
+      </c>
+      <c r="BM178">
+        <v>2.33</v>
+      </c>
+      <c r="BN178">
+        <v>1.53</v>
+      </c>
+      <c r="BO178">
+        <v>3.14</v>
+      </c>
+      <c r="BP178">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7372754</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F179">
+        <v>8</v>
+      </c>
+      <c r="G179" t="s">
+        <v>80</v>
+      </c>
+      <c r="H179" t="s">
+        <v>71</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>195</v>
+      </c>
+      <c r="P179" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q179">
+        <v>3.56</v>
+      </c>
+      <c r="R179">
+        <v>2.03</v>
+      </c>
+      <c r="S179">
+        <v>3.02</v>
+      </c>
+      <c r="T179">
+        <v>1.44</v>
+      </c>
+      <c r="U179">
+        <v>2.65</v>
+      </c>
+      <c r="V179">
+        <v>3.1</v>
+      </c>
+      <c r="W179">
+        <v>1.34</v>
+      </c>
+      <c r="X179">
+        <v>7.9</v>
+      </c>
+      <c r="Y179">
+        <v>1.05</v>
+      </c>
+      <c r="Z179">
+        <v>2.9</v>
+      </c>
+      <c r="AA179">
+        <v>2.9</v>
+      </c>
+      <c r="AB179">
+        <v>2.28</v>
+      </c>
+      <c r="AC179">
+        <v>1.03</v>
+      </c>
+      <c r="AD179">
+        <v>7.9</v>
+      </c>
+      <c r="AE179">
+        <v>1.33</v>
+      </c>
+      <c r="AF179">
+        <v>2.91</v>
+      </c>
+      <c r="AG179">
+        <v>2.02</v>
+      </c>
+      <c r="AH179">
+        <v>1.72</v>
+      </c>
+      <c r="AI179">
+        <v>1.84</v>
+      </c>
+      <c r="AJ179">
+        <v>1.86</v>
+      </c>
+      <c r="AK179">
+        <v>1.54</v>
+      </c>
+      <c r="AL179">
+        <v>1.32</v>
+      </c>
+      <c r="AM179">
+        <v>1.39</v>
+      </c>
+      <c r="AN179">
+        <v>0.21</v>
+      </c>
+      <c r="AO179">
+        <v>1</v>
+      </c>
+      <c r="AP179">
+        <v>0.4</v>
+      </c>
+      <c r="AQ179">
+        <v>0.93</v>
+      </c>
+      <c r="AR179">
+        <v>1.42</v>
+      </c>
+      <c r="AS179">
+        <v>1.23</v>
+      </c>
+      <c r="AT179">
+        <v>2.65</v>
+      </c>
+      <c r="AU179">
+        <v>2</v>
+      </c>
+      <c r="AV179">
+        <v>6</v>
+      </c>
+      <c r="AW179">
+        <v>2</v>
+      </c>
+      <c r="AX179">
+        <v>9</v>
+      </c>
+      <c r="AY179">
+        <v>4</v>
+      </c>
+      <c r="AZ179">
+        <v>15</v>
+      </c>
+      <c r="BA179">
+        <v>1</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>7</v>
+      </c>
+      <c r="BD179">
+        <v>1.77</v>
+      </c>
+      <c r="BE179">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF179">
+        <v>2.34</v>
+      </c>
+      <c r="BG179">
+        <v>1.24</v>
+      </c>
+      <c r="BH179">
+        <v>3.66</v>
+      </c>
+      <c r="BI179">
+        <v>1.4</v>
+      </c>
+      <c r="BJ179">
+        <v>2.75</v>
+      </c>
+      <c r="BK179">
+        <v>1.88</v>
+      </c>
+      <c r="BL179">
+        <v>1.92</v>
+      </c>
+      <c r="BM179">
+        <v>2.25</v>
+      </c>
+      <c r="BN179">
+        <v>1.57</v>
+      </c>
+      <c r="BO179">
+        <v>3</v>
+      </c>
+      <c r="BP179">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7372752</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F180">
+        <v>8</v>
+      </c>
+      <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="s">
+        <v>72</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>196</v>
+      </c>
+      <c r="P180" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q180">
+        <v>1.98</v>
+      </c>
+      <c r="R180">
+        <v>2.38</v>
+      </c>
+      <c r="S180">
+        <v>5.6</v>
+      </c>
+      <c r="T180">
+        <v>1.32</v>
+      </c>
+      <c r="U180">
+        <v>3.22</v>
+      </c>
+      <c r="V180">
+        <v>2.48</v>
+      </c>
+      <c r="W180">
+        <v>1.5</v>
+      </c>
+      <c r="X180">
+        <v>5.55</v>
+      </c>
+      <c r="Y180">
+        <v>1.11</v>
+      </c>
+      <c r="Z180">
+        <v>1.5</v>
+      </c>
+      <c r="AA180">
+        <v>4</v>
+      </c>
+      <c r="AB180">
+        <v>4.8</v>
+      </c>
+      <c r="AC180">
+        <v>1.01</v>
+      </c>
+      <c r="AD180">
+        <v>11</v>
+      </c>
+      <c r="AE180">
+        <v>1.19</v>
+      </c>
+      <c r="AF180">
+        <v>3.98</v>
+      </c>
+      <c r="AG180">
+        <v>1.64</v>
+      </c>
+      <c r="AH180">
+        <v>2.14</v>
+      </c>
+      <c r="AI180">
+        <v>1.79</v>
+      </c>
+      <c r="AJ180">
+        <v>1.92</v>
+      </c>
+      <c r="AK180">
+        <v>1.11</v>
+      </c>
+      <c r="AL180">
+        <v>1.19</v>
+      </c>
+      <c r="AM180">
+        <v>2.52</v>
+      </c>
+      <c r="AN180">
+        <v>1.64</v>
+      </c>
+      <c r="AO180">
+        <v>0.71</v>
+      </c>
+      <c r="AP180">
+        <v>1.73</v>
+      </c>
+      <c r="AQ180">
+        <v>0.67</v>
+      </c>
+      <c r="AR180">
+        <v>2.03</v>
+      </c>
+      <c r="AS180">
+        <v>1.37</v>
+      </c>
+      <c r="AT180">
+        <v>3.4</v>
+      </c>
+      <c r="AU180">
+        <v>9</v>
+      </c>
+      <c r="AV180">
+        <v>4</v>
+      </c>
+      <c r="AW180">
+        <v>10</v>
+      </c>
+      <c r="AX180">
+        <v>2</v>
+      </c>
+      <c r="AY180">
+        <v>19</v>
+      </c>
+      <c r="AZ180">
+        <v>6</v>
+      </c>
+      <c r="BA180">
+        <v>9</v>
+      </c>
+      <c r="BB180">
+        <v>9</v>
+      </c>
+      <c r="BC180">
+        <v>18</v>
+      </c>
+      <c r="BD180">
+        <v>1.3</v>
+      </c>
+      <c r="BE180">
+        <v>10.5</v>
+      </c>
+      <c r="BF180">
+        <v>4.15</v>
+      </c>
+      <c r="BG180">
+        <v>1.21</v>
+      </c>
+      <c r="BH180">
+        <v>3.96</v>
+      </c>
+      <c r="BI180">
+        <v>1.38</v>
+      </c>
+      <c r="BJ180">
+        <v>2.8</v>
+      </c>
+      <c r="BK180">
+        <v>1.7</v>
+      </c>
+      <c r="BL180">
+        <v>2.03</v>
+      </c>
+      <c r="BM180">
+        <v>2.12</v>
+      </c>
+      <c r="BN180">
+        <v>1.64</v>
+      </c>
+      <c r="BO180">
+        <v>2.8</v>
+      </c>
+      <c r="BP180">
         <v>1.38</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -37847,22 +37847,22 @@
         <v>2.97</v>
       </c>
       <c r="AU178">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV178">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW178">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX178">
         <v>7</v>
       </c>
       <c r="AY178">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ178">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA178">
         <v>2</v>
@@ -38059,13 +38059,13 @@
         <v>6</v>
       </c>
       <c r="AW179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX179">
         <v>9</v>
       </c>
       <c r="AY179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ179">
         <v>15</v>
@@ -38259,19 +38259,19 @@
         <v>3.4</v>
       </c>
       <c r="AU180">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV180">
         <v>4</v>
       </c>
       <c r="AW180">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX180">
         <v>2</v>
       </c>
       <c r="AY180">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ180">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -879,6 +879,9 @@
   <si>
     <t>['7', '33', '90+2']</t>
   </si>
+  <si>
+    <t>['62', '72', '78']</t>
+  </si>
 </sst>
 </file>
 
@@ -1239,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1991,7 +1994,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3842,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>1.47</v>
@@ -4254,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ15">
         <v>0.33</v>
@@ -4875,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -5905,7 +5908,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ23">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>2.11</v>
@@ -6520,7 +6523,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ26">
         <v>1.27</v>
@@ -7759,7 +7762,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ32">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
@@ -8374,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35">
         <v>0.93</v>
@@ -10231,7 +10234,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>1.23</v>
@@ -11876,7 +11879,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
         <v>0.73</v>
@@ -14145,7 +14148,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>2.28</v>
@@ -14554,7 +14557,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ65">
         <v>1.07</v>
@@ -14966,7 +14969,7 @@
         <v>2.17</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
         <v>1.93</v>
@@ -16411,7 +16414,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ74">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR74">
         <v>1.03</v>
@@ -19910,7 +19913,7 @@
         <v>2.43</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ91">
         <v>1.73</v>
@@ -20531,7 +20534,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ94">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR94">
         <v>1.43</v>
@@ -21764,7 +21767,7 @@
         <v>2.38</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ100">
         <v>2.47</v>
@@ -23621,7 +23624,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ109">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -24442,7 +24445,7 @@
         <v>0.22</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ113">
         <v>0.67</v>
@@ -26093,7 +26096,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ121">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR121">
         <v>1.68</v>
@@ -27326,10 +27329,10 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ127">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR127">
         <v>1.85</v>
@@ -29801,7 +29804,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ139">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -30416,7 +30419,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ142">
         <v>1.07</v>
@@ -31243,7 +31246,7 @@
         <v>2</v>
       </c>
       <c r="AQ146">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR146">
         <v>1.19</v>
@@ -33921,7 +33924,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ159">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AR159">
         <v>1.77</v>
@@ -34742,7 +34745,7 @@
         <v>1.77</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ163">
         <v>1.73</v>
@@ -35154,7 +35157,7 @@
         <v>1.23</v>
       </c>
       <c r="AP165">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ165">
         <v>1.47</v>
@@ -38323,6 +38326,212 @@
       </c>
       <c r="BP180">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7372756</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45417.52083333334</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181" t="s">
+        <v>81</v>
+      </c>
+      <c r="H181" t="s">
+        <v>78</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>84</v>
+      </c>
+      <c r="P181" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q181">
+        <v>3.68</v>
+      </c>
+      <c r="R181">
+        <v>2.16</v>
+      </c>
+      <c r="S181">
+        <v>2.7</v>
+      </c>
+      <c r="T181">
+        <v>1.35</v>
+      </c>
+      <c r="U181">
+        <v>3.04</v>
+      </c>
+      <c r="V181">
+        <v>2.57</v>
+      </c>
+      <c r="W181">
+        <v>1.47</v>
+      </c>
+      <c r="X181">
+        <v>5.84</v>
+      </c>
+      <c r="Y181">
+        <v>1.1</v>
+      </c>
+      <c r="Z181">
+        <v>2.83</v>
+      </c>
+      <c r="AA181">
+        <v>3.35</v>
+      </c>
+      <c r="AB181">
+        <v>2.13</v>
+      </c>
+      <c r="AC181">
+        <v>1.01</v>
+      </c>
+      <c r="AD181">
+        <v>9.9</v>
+      </c>
+      <c r="AE181">
+        <v>1.21</v>
+      </c>
+      <c r="AF181">
+        <v>3.74</v>
+      </c>
+      <c r="AG181">
+        <v>1.7</v>
+      </c>
+      <c r="AH181">
+        <v>2</v>
+      </c>
+      <c r="AI181">
+        <v>1.6</v>
+      </c>
+      <c r="AJ181">
+        <v>2.19</v>
+      </c>
+      <c r="AK181">
+        <v>1.65</v>
+      </c>
+      <c r="AL181">
+        <v>1.29</v>
+      </c>
+      <c r="AM181">
+        <v>1.33</v>
+      </c>
+      <c r="AN181">
+        <v>1.5</v>
+      </c>
+      <c r="AO181">
+        <v>1.29</v>
+      </c>
+      <c r="AP181">
+        <v>1.4</v>
+      </c>
+      <c r="AQ181">
+        <v>1.4</v>
+      </c>
+      <c r="AR181">
+        <v>1.9</v>
+      </c>
+      <c r="AS181">
+        <v>1.2</v>
+      </c>
+      <c r="AT181">
+        <v>3.1</v>
+      </c>
+      <c r="AU181">
+        <v>6</v>
+      </c>
+      <c r="AV181">
+        <v>6</v>
+      </c>
+      <c r="AW181">
+        <v>8</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>14</v>
+      </c>
+      <c r="AZ181">
+        <v>11</v>
+      </c>
+      <c r="BA181">
+        <v>9</v>
+      </c>
+      <c r="BB181">
+        <v>6</v>
+      </c>
+      <c r="BC181">
+        <v>15</v>
+      </c>
+      <c r="BD181">
+        <v>1.95</v>
+      </c>
+      <c r="BE181">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF181">
+        <v>2.06</v>
+      </c>
+      <c r="BG181">
+        <v>1.14</v>
+      </c>
+      <c r="BH181">
+        <v>4.94</v>
+      </c>
+      <c r="BI181">
+        <v>1.28</v>
+      </c>
+      <c r="BJ181">
+        <v>3.36</v>
+      </c>
+      <c r="BK181">
+        <v>1.48</v>
+      </c>
+      <c r="BL181">
+        <v>2.47</v>
+      </c>
+      <c r="BM181">
+        <v>1.8</v>
+      </c>
+      <c r="BN181">
+        <v>1.9</v>
+      </c>
+      <c r="BO181">
+        <v>2.32</v>
+      </c>
+      <c r="BP181">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,21 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['7', '83']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['31', '73']</t>
+  </si>
+  <si>
+    <t>['12', '37', '80']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -779,9 +794,6 @@
   </si>
   <si>
     <t>['13', '55']</t>
-  </si>
-  <si>
-    <t>['44']</t>
   </si>
   <si>
     <t>['9', '36', '82', '90+6']</t>
@@ -1242,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1513,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1785,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1991,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ4">
         <v>1.4</v>
@@ -2200,7 +2212,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ5">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2531,7 +2543,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2815,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ8">
         <v>0.93</v>
@@ -3021,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ9">
         <v>0.67</v>
@@ -3149,7 +3161,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3230,7 +3242,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ10">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3436,7 +3448,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ11">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3845,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3973,7 +3985,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4051,10 +4063,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ14">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR14">
         <v>0.55</v>
@@ -4257,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR15">
         <v>2.18</v>
@@ -4385,7 +4397,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4463,10 +4475,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR16">
         <v>1.38</v>
@@ -4591,7 +4603,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4797,7 +4809,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4875,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -5003,7 +5015,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5287,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ20">
         <v>1.07</v>
@@ -5415,7 +5427,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5496,7 +5508,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ21">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR21">
         <v>0.9</v>
@@ -5827,7 +5839,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6033,7 +6045,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6111,10 +6123,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ24">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR24">
         <v>0.79</v>
@@ -6239,7 +6251,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6320,7 +6332,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ25">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR25">
         <v>2.22</v>
@@ -6445,7 +6457,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6523,7 +6535,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.27</v>
@@ -6651,7 +6663,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -6732,7 +6744,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ27">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR27">
         <v>1.94</v>
@@ -6935,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>1.73</v>
@@ -7350,7 +7362,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR30">
         <v>1</v>
@@ -7475,7 +7487,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7553,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7759,7 +7771,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ32">
         <v>1.4</v>
@@ -7887,7 +7899,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7968,7 +7980,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ33">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
         <v>1.7</v>
@@ -8093,7 +8105,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8377,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>0.93</v>
@@ -8505,7 +8517,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8583,7 +8595,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ36">
         <v>1.73</v>
@@ -8711,7 +8723,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8792,7 +8804,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ37">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR37">
         <v>1.94</v>
@@ -8995,10 +9007,10 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9204,7 +9216,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ39">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR39">
         <v>1.78</v>
@@ -9329,7 +9341,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9535,7 +9547,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9741,7 +9753,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9822,7 +9834,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -9947,7 +9959,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10025,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ43">
         <v>0.87</v>
@@ -10153,7 +10165,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10231,7 +10243,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ44">
         <v>1.4</v>
@@ -10440,7 +10452,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ45">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1.89</v>
@@ -10565,7 +10577,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10771,7 +10783,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10849,10 +10861,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ47">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR47">
         <v>1.21</v>
@@ -11058,7 +11070,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ48">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -11183,7 +11195,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11467,10 +11479,10 @@
         <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ50">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11673,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ51">
         <v>0.67</v>
@@ -11801,7 +11813,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11879,10 +11891,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR52">
         <v>2.16</v>
@@ -12007,7 +12019,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12088,7 +12100,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ53">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12497,10 +12509,10 @@
         <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ55">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -12703,10 +12715,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ56">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR56">
         <v>1.11</v>
@@ -12909,10 +12921,10 @@
         <v>0.6</v>
       </c>
       <c r="AP57">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR57">
         <v>1.16</v>
@@ -13037,7 +13049,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13449,7 +13461,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13655,7 +13667,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13861,7 +13873,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13942,7 +13954,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ62">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR62">
         <v>1.08</v>
@@ -14067,7 +14079,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14351,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ64">
         <v>0.93</v>
@@ -14557,7 +14569,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
         <v>1.07</v>
@@ -14685,7 +14697,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14766,7 +14778,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ66">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR66">
         <v>1.65</v>
@@ -14891,7 +14903,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14969,10 +14981,10 @@
         <v>2.17</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR67">
         <v>2.14</v>
@@ -15097,7 +15109,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15303,7 +15315,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15509,7 +15521,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15587,10 +15599,10 @@
         <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ70">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR70">
         <v>1.32</v>
@@ -15715,7 +15727,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15793,7 +15805,7 @@
         <v>2.2</v>
       </c>
       <c r="AP71">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ71">
         <v>1.73</v>
@@ -16002,7 +16014,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ72">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR72">
         <v>1.43</v>
@@ -16127,7 +16139,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16333,7 +16345,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16617,7 +16629,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ75">
         <v>1.27</v>
@@ -16745,7 +16757,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16826,7 +16838,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ76">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -17029,7 +17041,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ77">
         <v>1.07</v>
@@ -17238,7 +17250,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ78">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR78">
         <v>1.51</v>
@@ -17363,7 +17375,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17647,10 +17659,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ80">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.95</v>
@@ -17775,7 +17787,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17981,7 +17993,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18599,7 +18611,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18883,7 +18895,7 @@
         <v>1.57</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ86">
         <v>1.27</v>
@@ -19092,7 +19104,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ87">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR87">
         <v>1.82</v>
@@ -19217,7 +19229,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19295,10 +19307,10 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ88">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -19423,7 +19435,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19501,10 +19513,10 @@
         <v>2.29</v>
       </c>
       <c r="AP89">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ89">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR89">
         <v>1.1</v>
@@ -19710,7 +19722,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR90">
         <v>2.29</v>
@@ -19835,7 +19847,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19913,7 +19925,7 @@
         <v>2.43</v>
       </c>
       <c r="AP91">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
         <v>1.73</v>
@@ -20041,7 +20053,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20247,7 +20259,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20325,7 +20337,7 @@
         <v>1.29</v>
       </c>
       <c r="AP93">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ93">
         <v>0.87</v>
@@ -20659,7 +20671,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20740,7 +20752,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ95">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -21071,7 +21083,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21483,7 +21495,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21561,7 +21573,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ99">
         <v>0.93</v>
@@ -21689,7 +21701,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21767,10 +21779,10 @@
         <v>2.38</v>
       </c>
       <c r="AP100">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR100">
         <v>2.01</v>
@@ -21976,7 +21988,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ101">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
         <v>1.39</v>
@@ -22101,7 +22113,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22179,10 +22191,10 @@
         <v>2.13</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ102">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR102">
         <v>1.29</v>
@@ -22591,7 +22603,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
         <v>0.87</v>
@@ -22719,7 +22731,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -23006,7 +23018,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ106">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR106">
         <v>1.45</v>
@@ -23209,10 +23221,10 @@
         <v>0.13</v>
       </c>
       <c r="AP107">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ107">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR107">
         <v>1.78</v>
@@ -23543,7 +23555,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23749,7 +23761,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23830,7 +23842,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ110">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR110">
         <v>2.27</v>
@@ -23955,7 +23967,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24036,7 +24048,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ111">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR111">
         <v>1.39</v>
@@ -24367,7 +24379,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24445,7 +24457,7 @@
         <v>0.22</v>
       </c>
       <c r="AP113">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>0.67</v>
@@ -24651,7 +24663,7 @@
         <v>2.22</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ114">
         <v>1.73</v>
@@ -24779,7 +24791,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24857,10 +24869,10 @@
         <v>0.44</v>
       </c>
       <c r="AP115">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ115">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR115">
         <v>1.81</v>
@@ -24985,7 +24997,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25475,10 +25487,10 @@
         <v>1.56</v>
       </c>
       <c r="AP118">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ118">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25603,7 +25615,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25681,7 +25693,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP119">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ119">
         <v>1.07</v>
@@ -25809,7 +25821,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25890,7 +25902,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ120">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -26015,7 +26027,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26427,7 +26439,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26714,7 +26726,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ124">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR124">
         <v>1.72</v>
@@ -26839,7 +26851,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -27045,7 +27057,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27123,10 +27135,10 @@
         <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ126">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR126">
         <v>1.96</v>
@@ -27329,7 +27341,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
         <v>1.4</v>
@@ -27457,7 +27469,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27538,7 +27550,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ128">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR128">
         <v>1.72</v>
@@ -27663,7 +27675,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -27741,10 +27753,10 @@
         <v>0.1</v>
       </c>
       <c r="AP129">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ129">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR129">
         <v>1.17</v>
@@ -27947,7 +27959,7 @@
         <v>1.3</v>
       </c>
       <c r="AP130">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ130">
         <v>1.27</v>
@@ -28156,7 +28168,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28359,7 +28371,7 @@
         <v>1.3</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ132">
         <v>0.87</v>
@@ -28693,7 +28705,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28771,10 +28783,10 @@
         <v>2.55</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR134">
         <v>1.19</v>
@@ -28899,7 +28911,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29105,7 +29117,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29183,10 +29195,10 @@
         <v>1.82</v>
       </c>
       <c r="AP136">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29517,7 +29529,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -30007,10 +30019,10 @@
         <v>0.45</v>
       </c>
       <c r="AP140">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ140">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR140">
         <v>1.27</v>
@@ -30216,7 +30228,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ141">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR141">
         <v>1.34</v>
@@ -30341,7 +30353,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30419,7 +30431,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142">
         <v>1.07</v>
@@ -30547,7 +30559,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30625,7 +30637,7 @@
         <v>0.45</v>
       </c>
       <c r="AP143">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ143">
         <v>0.93</v>
@@ -30834,7 +30846,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ144">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -30959,7 +30971,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -31165,7 +31177,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31243,7 +31255,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ146">
         <v>1.4</v>
@@ -31371,7 +31383,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31452,7 +31464,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ147">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR147">
         <v>1.41</v>
@@ -31577,7 +31589,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31861,7 +31873,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ149">
         <v>0.67</v>
@@ -31989,7 +32001,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32276,7 +32288,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ151">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR151">
         <v>1.72</v>
@@ -32401,7 +32413,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32482,7 +32494,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ152">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR152">
         <v>2.04</v>
@@ -32685,7 +32697,7 @@
         <v>1.92</v>
       </c>
       <c r="AP153">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ153">
         <v>1.73</v>
@@ -32813,7 +32825,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q154">
         <v>2.49</v>
@@ -32891,10 +32903,10 @@
         <v>0.17</v>
       </c>
       <c r="AP154">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ154">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR154">
         <v>1.33</v>
@@ -33097,7 +33109,7 @@
         <v>1.15</v>
       </c>
       <c r="AP155">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ155">
         <v>1.27</v>
@@ -33225,7 +33237,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>3.86</v>
@@ -33306,7 +33318,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ156">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR156">
         <v>1.13</v>
@@ -34255,7 +34267,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q161">
         <v>2.93</v>
@@ -34539,10 +34551,10 @@
         <v>0.15</v>
       </c>
       <c r="AP162">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ162">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR162">
         <v>1.97</v>
@@ -34667,7 +34679,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q163">
         <v>3.82</v>
@@ -34745,7 +34757,7 @@
         <v>1.77</v>
       </c>
       <c r="AP163">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163">
         <v>1.73</v>
@@ -34873,7 +34885,7 @@
         <v>185</v>
       </c>
       <c r="P164" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q164">
         <v>1.89</v>
@@ -34951,10 +34963,10 @@
         <v>0.62</v>
       </c>
       <c r="AP164">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ164">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR164">
         <v>2.01</v>
@@ -35079,7 +35091,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q165">
         <v>3.03</v>
@@ -35157,10 +35169,10 @@
         <v>1.23</v>
       </c>
       <c r="AP165">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR165">
         <v>1.83</v>
@@ -35572,7 +35584,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ167">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR167">
         <v>1.41</v>
@@ -35697,7 +35709,7 @@
         <v>187</v>
       </c>
       <c r="P168" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q168">
         <v>2.62</v>
@@ -35775,7 +35787,7 @@
         <v>0.85</v>
       </c>
       <c r="AP168">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ168">
         <v>0.93</v>
@@ -35903,7 +35915,7 @@
         <v>188</v>
       </c>
       <c r="P169" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q169">
         <v>3.5</v>
@@ -35984,7 +35996,7 @@
         <v>1.87</v>
       </c>
       <c r="AQ169">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
@@ -36187,10 +36199,10 @@
         <v>2.07</v>
       </c>
       <c r="AP170">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ170">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR170">
         <v>1.31</v>
@@ -36521,7 +36533,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q172">
         <v>3.93</v>
@@ -36599,7 +36611,7 @@
         <v>1.14</v>
       </c>
       <c r="AP172">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AQ172">
         <v>1.27</v>
@@ -36727,7 +36739,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q173">
         <v>2.13</v>
@@ -36808,7 +36820,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ173">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR173">
         <v>1.26</v>
@@ -36933,7 +36945,7 @@
         <v>191</v>
       </c>
       <c r="P174" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q174">
         <v>2.86</v>
@@ -37011,7 +37023,7 @@
         <v>0.93</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
         <v>0.87</v>
@@ -37139,7 +37151,7 @@
         <v>192</v>
       </c>
       <c r="P175" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q175">
         <v>3.38</v>
@@ -37220,7 +37232,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ175">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AR175">
         <v>1.72</v>
@@ -37345,7 +37357,7 @@
         <v>193</v>
       </c>
       <c r="P176" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q176">
         <v>2.32</v>
@@ -37426,7 +37438,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ176">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR176">
         <v>1.36</v>
@@ -37757,7 +37769,7 @@
         <v>194</v>
       </c>
       <c r="P178" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q178">
         <v>2.03</v>
@@ -37838,7 +37850,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ178">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AR178">
         <v>1.72</v>
@@ -38247,7 +38259,7 @@
         <v>0.71</v>
       </c>
       <c r="AP180">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ180">
         <v>0.67</v>
@@ -38375,7 +38387,7 @@
         <v>84</v>
       </c>
       <c r="P181" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q181">
         <v>3.68</v>
@@ -38453,7 +38465,7 @@
         <v>1.29</v>
       </c>
       <c r="AP181">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AQ181">
         <v>1.4</v>
@@ -38532,6 +38544,1036 @@
       </c>
       <c r="BP181">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7372761</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45423.4375</v>
+      </c>
+      <c r="F182">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>81</v>
+      </c>
+      <c r="H182" t="s">
+        <v>79</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>3</v>
+      </c>
+      <c r="O182" t="s">
+        <v>197</v>
+      </c>
+      <c r="P182" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q182">
+        <v>3.84</v>
+      </c>
+      <c r="R182">
+        <v>2.5</v>
+      </c>
+      <c r="S182">
+        <v>2.25</v>
+      </c>
+      <c r="T182">
+        <v>1.19</v>
+      </c>
+      <c r="U182">
+        <v>4.16</v>
+      </c>
+      <c r="V182">
+        <v>2.05</v>
+      </c>
+      <c r="W182">
+        <v>1.72</v>
+      </c>
+      <c r="X182">
+        <v>4.06</v>
+      </c>
+      <c r="Y182">
+        <v>1.2</v>
+      </c>
+      <c r="Z182">
+        <v>3.5</v>
+      </c>
+      <c r="AA182">
+        <v>3.8</v>
+      </c>
+      <c r="AB182">
+        <v>1.75</v>
+      </c>
+      <c r="AC182">
+        <v>1.01</v>
+      </c>
+      <c r="AD182">
+        <v>9.35</v>
+      </c>
+      <c r="AE182">
+        <v>1.09</v>
+      </c>
+      <c r="AF182">
+        <v>5.65</v>
+      </c>
+      <c r="AG182">
+        <v>1.4</v>
+      </c>
+      <c r="AH182">
+        <v>2.7</v>
+      </c>
+      <c r="AI182">
+        <v>1.41</v>
+      </c>
+      <c r="AJ182">
+        <v>2.69</v>
+      </c>
+      <c r="AK182">
+        <v>1.97</v>
+      </c>
+      <c r="AL182">
+        <v>1.22</v>
+      </c>
+      <c r="AM182">
+        <v>1.25</v>
+      </c>
+      <c r="AN182">
+        <v>1.4</v>
+      </c>
+      <c r="AO182">
+        <v>2.47</v>
+      </c>
+      <c r="AP182">
+        <v>1.5</v>
+      </c>
+      <c r="AQ182">
+        <v>2.31</v>
+      </c>
+      <c r="AR182">
+        <v>1.91</v>
+      </c>
+      <c r="AS182">
+        <v>1.78</v>
+      </c>
+      <c r="AT182">
+        <v>3.69</v>
+      </c>
+      <c r="AU182">
+        <v>3</v>
+      </c>
+      <c r="AV182">
+        <v>4</v>
+      </c>
+      <c r="AW182">
+        <v>4</v>
+      </c>
+      <c r="AX182">
+        <v>4</v>
+      </c>
+      <c r="AY182">
+        <v>7</v>
+      </c>
+      <c r="AZ182">
+        <v>8</v>
+      </c>
+      <c r="BA182">
+        <v>3</v>
+      </c>
+      <c r="BB182">
+        <v>6</v>
+      </c>
+      <c r="BC182">
+        <v>9</v>
+      </c>
+      <c r="BD182">
+        <v>2.04</v>
+      </c>
+      <c r="BE182">
+        <v>8.9</v>
+      </c>
+      <c r="BF182">
+        <v>1.99</v>
+      </c>
+      <c r="BG182">
+        <v>1.19</v>
+      </c>
+      <c r="BH182">
+        <v>4.14</v>
+      </c>
+      <c r="BI182">
+        <v>1.33</v>
+      </c>
+      <c r="BJ182">
+        <v>3.04</v>
+      </c>
+      <c r="BK182">
+        <v>1.67</v>
+      </c>
+      <c r="BL182">
+        <v>2.16</v>
+      </c>
+      <c r="BM182">
+        <v>2.07</v>
+      </c>
+      <c r="BN182">
+        <v>1.74</v>
+      </c>
+      <c r="BO182">
+        <v>2.62</v>
+      </c>
+      <c r="BP182">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7372762</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="F183">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>76</v>
+      </c>
+      <c r="H183" t="s">
+        <v>74</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>198</v>
+      </c>
+      <c r="P183" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q183">
+        <v>4</v>
+      </c>
+      <c r="R183">
+        <v>2.2</v>
+      </c>
+      <c r="S183">
+        <v>2.5</v>
+      </c>
+      <c r="T183">
+        <v>1.36</v>
+      </c>
+      <c r="U183">
+        <v>2.99</v>
+      </c>
+      <c r="V183">
+        <v>2.67</v>
+      </c>
+      <c r="W183">
+        <v>1.44</v>
+      </c>
+      <c r="X183">
+        <v>6.22</v>
+      </c>
+      <c r="Y183">
+        <v>1.09</v>
+      </c>
+      <c r="Z183">
+        <v>3.15</v>
+      </c>
+      <c r="AA183">
+        <v>3.4</v>
+      </c>
+      <c r="AB183">
+        <v>1.93</v>
+      </c>
+      <c r="AC183">
+        <v>1.01</v>
+      </c>
+      <c r="AD183">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE183">
+        <v>1.24</v>
+      </c>
+      <c r="AF183">
+        <v>3.48</v>
+      </c>
+      <c r="AG183">
+        <v>1.58</v>
+      </c>
+      <c r="AH183">
+        <v>2.02</v>
+      </c>
+      <c r="AI183">
+        <v>1.69</v>
+      </c>
+      <c r="AJ183">
+        <v>2.11</v>
+      </c>
+      <c r="AK183">
+        <v>1.8</v>
+      </c>
+      <c r="AL183">
+        <v>1.27</v>
+      </c>
+      <c r="AM183">
+        <v>1.27</v>
+      </c>
+      <c r="AN183">
+        <v>2</v>
+      </c>
+      <c r="AO183">
+        <v>1.47</v>
+      </c>
+      <c r="AP183">
+        <v>1.94</v>
+      </c>
+      <c r="AQ183">
+        <v>1.44</v>
+      </c>
+      <c r="AR183">
+        <v>1.2</v>
+      </c>
+      <c r="AS183">
+        <v>1.29</v>
+      </c>
+      <c r="AT183">
+        <v>2.49</v>
+      </c>
+      <c r="AU183">
+        <v>6</v>
+      </c>
+      <c r="AV183">
+        <v>7</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>7</v>
+      </c>
+      <c r="AY183">
+        <v>9</v>
+      </c>
+      <c r="AZ183">
+        <v>14</v>
+      </c>
+      <c r="BA183">
+        <v>7</v>
+      </c>
+      <c r="BB183">
+        <v>3</v>
+      </c>
+      <c r="BC183">
+        <v>10</v>
+      </c>
+      <c r="BD183">
+        <v>2.77</v>
+      </c>
+      <c r="BE183">
+        <v>9</v>
+      </c>
+      <c r="BF183">
+        <v>1.58</v>
+      </c>
+      <c r="BG183">
+        <v>1.3</v>
+      </c>
+      <c r="BH183">
+        <v>3.18</v>
+      </c>
+      <c r="BI183">
+        <v>1.51</v>
+      </c>
+      <c r="BJ183">
+        <v>2.32</v>
+      </c>
+      <c r="BK183">
+        <v>1.92</v>
+      </c>
+      <c r="BL183">
+        <v>1.88</v>
+      </c>
+      <c r="BM183">
+        <v>2.45</v>
+      </c>
+      <c r="BN183">
+        <v>1.46</v>
+      </c>
+      <c r="BO183">
+        <v>3.18</v>
+      </c>
+      <c r="BP183">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7372758</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="F184">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>77</v>
+      </c>
+      <c r="H184" t="s">
+        <v>70</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>199</v>
+      </c>
+      <c r="P184" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q184">
+        <v>2.03</v>
+      </c>
+      <c r="R184">
+        <v>2.49</v>
+      </c>
+      <c r="S184">
+        <v>5.67</v>
+      </c>
+      <c r="T184">
+        <v>1.31</v>
+      </c>
+      <c r="U184">
+        <v>3.28</v>
+      </c>
+      <c r="V184">
+        <v>2.51</v>
+      </c>
+      <c r="W184">
+        <v>1.51</v>
+      </c>
+      <c r="X184">
+        <v>5.26</v>
+      </c>
+      <c r="Y184">
+        <v>1.12</v>
+      </c>
+      <c r="Z184">
+        <v>1.53</v>
+      </c>
+      <c r="AA184">
+        <v>3.9</v>
+      </c>
+      <c r="AB184">
+        <v>4.75</v>
+      </c>
+      <c r="AC184">
+        <v>1.01</v>
+      </c>
+      <c r="AD184">
+        <v>11</v>
+      </c>
+      <c r="AE184">
+        <v>1.18</v>
+      </c>
+      <c r="AF184">
+        <v>4.05</v>
+      </c>
+      <c r="AG184">
+        <v>1.66</v>
+      </c>
+      <c r="AH184">
+        <v>2.13</v>
+      </c>
+      <c r="AI184">
+        <v>1.73</v>
+      </c>
+      <c r="AJ184">
+        <v>1.99</v>
+      </c>
+      <c r="AK184">
+        <v>1.13</v>
+      </c>
+      <c r="AL184">
+        <v>1.2</v>
+      </c>
+      <c r="AM184">
+        <v>2.39</v>
+      </c>
+      <c r="AN184">
+        <v>1.73</v>
+      </c>
+      <c r="AO184">
+        <v>1.93</v>
+      </c>
+      <c r="AP184">
+        <v>1.81</v>
+      </c>
+      <c r="AQ184">
+        <v>1.81</v>
+      </c>
+      <c r="AR184">
+        <v>2.08</v>
+      </c>
+      <c r="AS184">
+        <v>1.42</v>
+      </c>
+      <c r="AT184">
+        <v>3.5</v>
+      </c>
+      <c r="AU184">
+        <v>5</v>
+      </c>
+      <c r="AV184">
+        <v>7</v>
+      </c>
+      <c r="AW184">
+        <v>8</v>
+      </c>
+      <c r="AX184">
+        <v>2</v>
+      </c>
+      <c r="AY184">
+        <v>13</v>
+      </c>
+      <c r="AZ184">
+        <v>9</v>
+      </c>
+      <c r="BA184">
+        <v>2</v>
+      </c>
+      <c r="BB184">
+        <v>5</v>
+      </c>
+      <c r="BC184">
+        <v>7</v>
+      </c>
+      <c r="BD184">
+        <v>1.33</v>
+      </c>
+      <c r="BE184">
+        <v>10.5</v>
+      </c>
+      <c r="BF184">
+        <v>4.04</v>
+      </c>
+      <c r="BG184">
+        <v>1.19</v>
+      </c>
+      <c r="BH184">
+        <v>4.14</v>
+      </c>
+      <c r="BI184">
+        <v>1.33</v>
+      </c>
+      <c r="BJ184">
+        <v>3.04</v>
+      </c>
+      <c r="BK184">
+        <v>1.65</v>
+      </c>
+      <c r="BL184">
+        <v>2.19</v>
+      </c>
+      <c r="BM184">
+        <v>2.06</v>
+      </c>
+      <c r="BN184">
+        <v>1.74</v>
+      </c>
+      <c r="BO184">
+        <v>2.62</v>
+      </c>
+      <c r="BP184">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7372759</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="F185">
+        <v>9</v>
+      </c>
+      <c r="G185" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" t="s">
+        <v>80</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>200</v>
+      </c>
+      <c r="P185" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q185">
+        <v>1.98</v>
+      </c>
+      <c r="R185">
+        <v>2.34</v>
+      </c>
+      <c r="S185">
+        <v>5.8</v>
+      </c>
+      <c r="T185">
+        <v>1.33</v>
+      </c>
+      <c r="U185">
+        <v>3.15</v>
+      </c>
+      <c r="V185">
+        <v>2.54</v>
+      </c>
+      <c r="W185">
+        <v>1.48</v>
+      </c>
+      <c r="X185">
+        <v>5.84</v>
+      </c>
+      <c r="Y185">
+        <v>1.1</v>
+      </c>
+      <c r="Z185">
+        <v>1.42</v>
+      </c>
+      <c r="AA185">
+        <v>4.15</v>
+      </c>
+      <c r="AB185">
+        <v>5.8</v>
+      </c>
+      <c r="AC185">
+        <v>1.02</v>
+      </c>
+      <c r="AD185">
+        <v>10.25</v>
+      </c>
+      <c r="AE185">
+        <v>1.21</v>
+      </c>
+      <c r="AF185">
+        <v>3.74</v>
+      </c>
+      <c r="AG185">
+        <v>1.7</v>
+      </c>
+      <c r="AH185">
+        <v>2.07</v>
+      </c>
+      <c r="AI185">
+        <v>1.84</v>
+      </c>
+      <c r="AJ185">
+        <v>1.86</v>
+      </c>
+      <c r="AK185">
+        <v>1.1</v>
+      </c>
+      <c r="AL185">
+        <v>1.19</v>
+      </c>
+      <c r="AM185">
+        <v>2.55</v>
+      </c>
+      <c r="AN185">
+        <v>0.93</v>
+      </c>
+      <c r="AO185">
+        <v>0.33</v>
+      </c>
+      <c r="AP185">
+        <v>1.06</v>
+      </c>
+      <c r="AQ185">
+        <v>0.31</v>
+      </c>
+      <c r="AR185">
+        <v>1.32</v>
+      </c>
+      <c r="AS185">
+        <v>1.13</v>
+      </c>
+      <c r="AT185">
+        <v>2.45</v>
+      </c>
+      <c r="AU185">
+        <v>6</v>
+      </c>
+      <c r="AV185">
+        <v>2</v>
+      </c>
+      <c r="AW185">
+        <v>2</v>
+      </c>
+      <c r="AX185">
+        <v>2</v>
+      </c>
+      <c r="AY185">
+        <v>8</v>
+      </c>
+      <c r="AZ185">
+        <v>4</v>
+      </c>
+      <c r="BA185">
+        <v>5</v>
+      </c>
+      <c r="BB185">
+        <v>1</v>
+      </c>
+      <c r="BC185">
+        <v>6</v>
+      </c>
+      <c r="BD185">
+        <v>1.42</v>
+      </c>
+      <c r="BE185">
+        <v>10.2</v>
+      </c>
+      <c r="BF185">
+        <v>3.42</v>
+      </c>
+      <c r="BG185">
+        <v>1.14</v>
+      </c>
+      <c r="BH185">
+        <v>4.83</v>
+      </c>
+      <c r="BI185">
+        <v>1.29</v>
+      </c>
+      <c r="BJ185">
+        <v>3.26</v>
+      </c>
+      <c r="BK185">
+        <v>1.53</v>
+      </c>
+      <c r="BL185">
+        <v>2.42</v>
+      </c>
+      <c r="BM185">
+        <v>1.88</v>
+      </c>
+      <c r="BN185">
+        <v>1.91</v>
+      </c>
+      <c r="BO185">
+        <v>2.37</v>
+      </c>
+      <c r="BP185">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7372760</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>71</v>
+      </c>
+      <c r="H186" t="s">
+        <v>73</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>201</v>
+      </c>
+      <c r="P186" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q186">
+        <v>3.32</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>3.18</v>
+      </c>
+      <c r="T186">
+        <v>1.43</v>
+      </c>
+      <c r="U186">
+        <v>2.7</v>
+      </c>
+      <c r="V186">
+        <v>2.99</v>
+      </c>
+      <c r="W186">
+        <v>1.36</v>
+      </c>
+      <c r="X186">
+        <v>7.6</v>
+      </c>
+      <c r="Y186">
+        <v>1.05</v>
+      </c>
+      <c r="Z186">
+        <v>2.47</v>
+      </c>
+      <c r="AA186">
+        <v>3.2</v>
+      </c>
+      <c r="AB186">
+        <v>2.47</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE186">
+        <v>1.32</v>
+      </c>
+      <c r="AF186">
+        <v>2.98</v>
+      </c>
+      <c r="AG186">
+        <v>2.06</v>
+      </c>
+      <c r="AH186">
+        <v>1.71</v>
+      </c>
+      <c r="AI186">
+        <v>1.8</v>
+      </c>
+      <c r="AJ186">
+        <v>1.9</v>
+      </c>
+      <c r="AK186">
+        <v>1.47</v>
+      </c>
+      <c r="AL186">
+        <v>1.31</v>
+      </c>
+      <c r="AM186">
+        <v>1.45</v>
+      </c>
+      <c r="AN186">
+        <v>1.47</v>
+      </c>
+      <c r="AO186">
+        <v>0.73</v>
+      </c>
+      <c r="AP186">
+        <v>1.56</v>
+      </c>
+      <c r="AQ186">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR186">
+        <v>1.31</v>
+      </c>
+      <c r="AS186">
+        <v>1.15</v>
+      </c>
+      <c r="AT186">
+        <v>2.46</v>
+      </c>
+      <c r="AU186">
+        <v>6</v>
+      </c>
+      <c r="AV186">
+        <v>4</v>
+      </c>
+      <c r="AW186">
+        <v>2</v>
+      </c>
+      <c r="AX186">
+        <v>4</v>
+      </c>
+      <c r="AY186">
+        <v>8</v>
+      </c>
+      <c r="AZ186">
+        <v>8</v>
+      </c>
+      <c r="BA186">
+        <v>7</v>
+      </c>
+      <c r="BB186">
+        <v>6</v>
+      </c>
+      <c r="BC186">
+        <v>13</v>
+      </c>
+      <c r="BD186">
+        <v>1.76</v>
+      </c>
+      <c r="BE186">
+        <v>8.6</v>
+      </c>
+      <c r="BF186">
+        <v>2.51</v>
+      </c>
+      <c r="BG186">
+        <v>1.3</v>
+      </c>
+      <c r="BH186">
+        <v>3.2</v>
+      </c>
+      <c r="BI186">
+        <v>1.66</v>
+      </c>
+      <c r="BJ186">
+        <v>2.16</v>
+      </c>
+      <c r="BK186">
+        <v>2.07</v>
+      </c>
+      <c r="BL186">
+        <v>1.72</v>
+      </c>
+      <c r="BM186">
+        <v>2.7</v>
+      </c>
+      <c r="BN186">
+        <v>1.41</v>
+      </c>
+      <c r="BO186">
+        <v>4.45</v>
+      </c>
+      <c r="BP186">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -39528,13 +39528,13 @@
         <v>8</v>
       </c>
       <c r="BA186">
+        <v>8</v>
+      </c>
+      <c r="BB186">
         <v>7</v>
       </c>
-      <c r="BB186">
-        <v>6</v>
-      </c>
       <c r="BC186">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD186">
         <v>1.76</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1254,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP186"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
         <v>0.6899999999999999</v>
@@ -3654,7 +3654,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ12">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ25">
         <v>1.81</v>
@@ -6950,7 +6950,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR28">
         <v>1.17</v>
@@ -8598,7 +8598,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ36">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
         <v>0.82</v>
@@ -9213,7 +9213,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39">
         <v>2.31</v>
@@ -12303,10 +12303,10 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -13127,7 +13127,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58">
         <v>0.87</v>
@@ -13542,7 +13542,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ60">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -15187,7 +15187,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
         <v>0.67</v>
@@ -15808,7 +15808,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ71">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.94</v>
@@ -18277,7 +18277,7 @@
         <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ83">
         <v>1.07</v>
@@ -18692,7 +18692,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ85">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR85">
         <v>1.01</v>
@@ -19101,7 +19101,7 @@
         <v>0.14</v>
       </c>
       <c r="AP87">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ87">
         <v>0.31</v>
@@ -19928,7 +19928,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
         <v>2.07</v>
@@ -21370,7 +21370,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ98">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR98">
         <v>2.32</v>
@@ -22397,7 +22397,7 @@
         <v>1.38</v>
       </c>
       <c r="AP103">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ103">
         <v>1.27</v>
@@ -24251,7 +24251,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP112">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ112">
         <v>0.93</v>
@@ -24666,7 +24666,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ114">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR114">
         <v>1.25</v>
@@ -27547,7 +27547,7 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ128">
         <v>1.44</v>
@@ -28580,7 +28580,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ133">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR133">
         <v>1.83</v>
@@ -30843,7 +30843,7 @@
         <v>1.45</v>
       </c>
       <c r="AP144">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ144">
         <v>1.44</v>
@@ -31052,7 +31052,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ145">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -32700,7 +32700,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ153">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR153">
         <v>1.19</v>
@@ -33521,7 +33521,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ157">
         <v>0.87</v>
@@ -34760,7 +34760,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR163">
         <v>1.81</v>
@@ -35375,7 +35375,7 @@
         <v>1.15</v>
       </c>
       <c r="AP166">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ166">
         <v>1.07</v>
@@ -36408,7 +36408,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ171">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR171">
         <v>2.07</v>
@@ -37229,7 +37229,7 @@
         <v>2.64</v>
       </c>
       <c r="AP175">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ175">
         <v>2.31</v>
@@ -39574,6 +39574,212 @@
       </c>
       <c r="BP186">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7372763</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="F187">
+        <v>9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>78</v>
+      </c>
+      <c r="H187" t="s">
+        <v>75</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>108</v>
+      </c>
+      <c r="P187" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q187">
+        <v>2.88</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>3.88</v>
+      </c>
+      <c r="T187">
+        <v>1.47</v>
+      </c>
+      <c r="U187">
+        <v>2.57</v>
+      </c>
+      <c r="V187">
+        <v>3.2</v>
+      </c>
+      <c r="W187">
+        <v>1.32</v>
+      </c>
+      <c r="X187">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y187">
+        <v>1.04</v>
+      </c>
+      <c r="Z187">
+        <v>2.2</v>
+      </c>
+      <c r="AA187">
+        <v>3.25</v>
+      </c>
+      <c r="AB187">
+        <v>3.1</v>
+      </c>
+      <c r="AC187">
+        <v>1.04</v>
+      </c>
+      <c r="AD187">
+        <v>7.6</v>
+      </c>
+      <c r="AE187">
+        <v>1.36</v>
+      </c>
+      <c r="AF187">
+        <v>2.79</v>
+      </c>
+      <c r="AG187">
+        <v>1.95</v>
+      </c>
+      <c r="AH187">
+        <v>1.75</v>
+      </c>
+      <c r="AI187">
+        <v>1.89</v>
+      </c>
+      <c r="AJ187">
+        <v>1.81</v>
+      </c>
+      <c r="AK187">
+        <v>1.33</v>
+      </c>
+      <c r="AL187">
+        <v>1.32</v>
+      </c>
+      <c r="AM187">
+        <v>1.61</v>
+      </c>
+      <c r="AN187">
+        <v>2.07</v>
+      </c>
+      <c r="AO187">
+        <v>1.73</v>
+      </c>
+      <c r="AP187">
+        <v>2.13</v>
+      </c>
+      <c r="AQ187">
+        <v>1.63</v>
+      </c>
+      <c r="AR187">
+        <v>1.74</v>
+      </c>
+      <c r="AS187">
+        <v>1.36</v>
+      </c>
+      <c r="AT187">
+        <v>3.1</v>
+      </c>
+      <c r="AU187">
+        <v>3</v>
+      </c>
+      <c r="AV187">
+        <v>5</v>
+      </c>
+      <c r="AW187">
+        <v>1</v>
+      </c>
+      <c r="AX187">
+        <v>7</v>
+      </c>
+      <c r="AY187">
+        <v>4</v>
+      </c>
+      <c r="AZ187">
+        <v>12</v>
+      </c>
+      <c r="BA187">
+        <v>3</v>
+      </c>
+      <c r="BB187">
+        <v>5</v>
+      </c>
+      <c r="BC187">
+        <v>8</v>
+      </c>
+      <c r="BD187">
+        <v>1.73</v>
+      </c>
+      <c r="BE187">
+        <v>8.9</v>
+      </c>
+      <c r="BF187">
+        <v>2.48</v>
+      </c>
+      <c r="BG187">
+        <v>1.39</v>
+      </c>
+      <c r="BH187">
+        <v>2.85</v>
+      </c>
+      <c r="BI187">
+        <v>1.52</v>
+      </c>
+      <c r="BJ187">
+        <v>2.45</v>
+      </c>
+      <c r="BK187">
+        <v>1.88</v>
+      </c>
+      <c r="BL187">
+        <v>1.92</v>
+      </c>
+      <c r="BM187">
+        <v>2.37</v>
+      </c>
+      <c r="BN187">
+        <v>1.56</v>
+      </c>
+      <c r="BO187">
+        <v>3.2</v>
+      </c>
+      <c r="BP187">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,24 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['24', '62', '69', '80', '88']</t>
+  </si>
+  <si>
+    <t>['17', '81']</t>
+  </si>
+  <si>
+    <t>['21', '24', '40', '61', '90']</t>
+  </si>
+  <si>
+    <t>['27', '65']</t>
+  </si>
+  <si>
+    <t>['38', '70']</t>
+  </si>
+  <si>
+    <t>['27', '90+13']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -893,6 +911,15 @@
   </si>
   <si>
     <t>['62', '72', '78']</t>
+  </si>
+  <si>
+    <t>['50', '67']</t>
+  </si>
+  <si>
+    <t>['59', '90+2']</t>
+  </si>
+  <si>
+    <t>['47', '54', '67']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1540,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1591,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2006,7 +2033,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ4">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2209,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>2.31</v>
@@ -2415,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2543,7 +2570,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2621,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ7">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2830,7 +2857,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ8">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3036,7 +3063,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3161,7 +3188,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3445,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
         <v>1.81</v>
@@ -3651,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ12">
         <v>1.63</v>
@@ -3985,7 +4012,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4397,7 +4424,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4603,7 +4630,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4681,10 +4708,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>2.42</v>
@@ -4809,7 +4836,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4890,7 +4917,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -5015,7 +5042,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5093,10 +5120,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -5302,7 +5329,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ20">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.62</v>
@@ -5427,7 +5454,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5505,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.44</v>
@@ -5711,10 +5738,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ22">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5839,7 +5866,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5917,10 +5944,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>2.11</v>
@@ -6045,7 +6072,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6251,7 +6278,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6457,7 +6484,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6538,7 +6565,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR26">
         <v>2.17</v>
@@ -6663,7 +6690,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -6741,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0.31</v>
@@ -7153,10 +7180,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.35</v>
@@ -7359,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>0.31</v>
@@ -7487,7 +7514,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7568,7 +7595,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
         <v>1.13</v>
@@ -7774,7 +7801,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
@@ -7899,7 +7926,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7977,7 +8004,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ33">
         <v>1.44</v>
@@ -8105,7 +8132,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8183,10 +8210,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ34">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR34">
         <v>1.72</v>
@@ -8392,7 +8419,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR35">
         <v>2.02</v>
@@ -8517,7 +8544,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8723,7 +8750,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8801,7 +8828,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>1.81</v>
@@ -9341,7 +9368,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9419,10 +9446,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ40">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>1.92</v>
@@ -9547,7 +9574,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9625,10 +9652,10 @@
         <v>1.75</v>
       </c>
       <c r="AP41">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9753,7 +9780,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9831,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
         <v>0.31</v>
@@ -9959,7 +9986,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10040,7 +10067,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ43">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR43">
         <v>0.92</v>
@@ -10165,7 +10192,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10246,7 +10273,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.23</v>
@@ -10449,7 +10476,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
         <v>1.44</v>
@@ -10577,7 +10604,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10655,10 +10682,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ46">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.65</v>
@@ -10783,7 +10810,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11067,7 +11094,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ48">
         <v>0.6899999999999999</v>
@@ -11195,7 +11222,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11273,10 +11300,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
         <v>2.11</v>
@@ -11688,7 +11715,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR51">
         <v>1.18</v>
@@ -11813,7 +11840,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12019,7 +12046,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12097,7 +12124,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ53">
         <v>2.31</v>
@@ -13049,7 +13076,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13130,7 +13157,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ58">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -13333,10 +13360,10 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ59">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.56</v>
@@ -13461,7 +13488,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13539,7 +13566,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
         <v>1.63</v>
@@ -13667,7 +13694,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13745,10 +13772,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR61">
         <v>1.51</v>
@@ -13873,7 +13900,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13951,7 +13978,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>1.81</v>
@@ -14079,7 +14106,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14157,10 +14184,10 @@
         <v>1.6</v>
       </c>
       <c r="AP63">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>2.28</v>
@@ -14366,7 +14393,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ64">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR64">
         <v>1.87</v>
@@ -14572,7 +14599,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>2.21</v>
@@ -14697,7 +14724,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14775,7 +14802,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ66">
         <v>2.31</v>
@@ -14903,7 +14930,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15109,7 +15136,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15190,7 +15217,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR68">
         <v>1.58</v>
@@ -15315,7 +15342,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15393,10 +15420,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ69">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
         <v>1.47</v>
@@ -15521,7 +15548,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15727,7 +15754,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -16011,7 +16038,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
         <v>0.6899999999999999</v>
@@ -16139,7 +16166,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16217,10 +16244,10 @@
         <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ73">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR73">
         <v>1.57</v>
@@ -16345,7 +16372,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16423,10 +16450,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
         <v>1.03</v>
@@ -16632,7 +16659,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ75">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.13</v>
@@ -16757,7 +16784,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16835,7 +16862,7 @@
         <v>2.17</v>
       </c>
       <c r="AP76">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
         <v>2.31</v>
@@ -17044,7 +17071,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ77">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.14</v>
@@ -17247,7 +17274,7 @@
         <v>0.17</v>
       </c>
       <c r="AP78">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ78">
         <v>0.31</v>
@@ -17375,7 +17402,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17453,10 +17480,10 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR79">
         <v>2.38</v>
@@ -17787,7 +17814,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17865,10 +17892,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ81">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR81">
         <v>1.48</v>
@@ -17993,7 +18020,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18071,10 +18098,10 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18280,7 +18307,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ83">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18483,10 +18510,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ84">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
         <v>1.57</v>
@@ -18611,7 +18638,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18689,7 +18716,7 @@
         <v>2.33</v>
       </c>
       <c r="AP85">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>1.63</v>
@@ -18898,7 +18925,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ86">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
         <v>1.32</v>
@@ -19229,7 +19256,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19435,7 +19462,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19719,7 +19746,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>0.6899999999999999</v>
@@ -19847,7 +19874,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -20053,7 +20080,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20131,10 +20158,10 @@
         <v>0.29</v>
       </c>
       <c r="AP92">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR92">
         <v>1</v>
@@ -20259,7 +20286,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20340,7 +20367,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ93">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR93">
         <v>1.85</v>
@@ -20543,10 +20570,10 @@
         <v>1.57</v>
       </c>
       <c r="AP94">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.43</v>
@@ -20671,7 +20698,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20749,7 +20776,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ95">
         <v>1.44</v>
@@ -20955,10 +20982,10 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ96">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -21083,7 +21110,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21161,10 +21188,10 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ97">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.56</v>
@@ -21367,7 +21394,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>1.63</v>
@@ -21495,7 +21522,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21576,7 +21603,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ99">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR99">
         <v>1.14</v>
@@ -21701,7 +21728,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21985,7 +22012,7 @@
         <v>0.38</v>
       </c>
       <c r="AP101">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ101">
         <v>0.6899999999999999</v>
@@ -22113,7 +22140,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22400,7 +22427,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ103">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22606,7 +22633,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -22731,7 +22758,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22809,10 +22836,10 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.07</v>
@@ -23015,7 +23042,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
         <v>1.44</v>
@@ -23427,10 +23454,10 @@
         <v>0.25</v>
       </c>
       <c r="AP108">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ108">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23633,10 +23660,10 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ109">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -23761,7 +23788,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23839,7 +23866,7 @@
         <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
         <v>2.31</v>
@@ -23967,7 +23994,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24045,7 +24072,7 @@
         <v>1.89</v>
       </c>
       <c r="AP111">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ111">
         <v>1.81</v>
@@ -24254,7 +24281,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ112">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR112">
         <v>1.69</v>
@@ -24379,7 +24406,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24460,7 +24487,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR113">
         <v>1.89</v>
@@ -24791,7 +24818,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24997,7 +25024,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25075,10 +25102,10 @@
         <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25281,10 +25308,10 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ117">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR117">
         <v>1.1</v>
@@ -25615,7 +25642,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25696,7 +25723,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ119">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.19</v>
@@ -25821,7 +25848,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25899,7 +25926,7 @@
         <v>0.11</v>
       </c>
       <c r="AP120">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ120">
         <v>0.31</v>
@@ -26027,7 +26054,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26105,10 +26132,10 @@
         <v>1.33</v>
       </c>
       <c r="AP121">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ121">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.68</v>
@@ -26311,10 +26338,10 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR122">
         <v>1.12</v>
@@ -26439,7 +26466,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26517,10 +26544,10 @@
         <v>0.2</v>
       </c>
       <c r="AP123">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR123">
         <v>2.14</v>
@@ -26723,7 +26750,7 @@
         <v>2</v>
       </c>
       <c r="AP124">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124">
         <v>1.81</v>
@@ -26851,7 +26878,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26929,10 +26956,10 @@
         <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ125">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.43</v>
@@ -27057,7 +27084,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27344,7 +27371,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ127">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.85</v>
@@ -27469,7 +27496,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27675,7 +27702,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -27962,7 +27989,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ130">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR130">
         <v>1.35</v>
@@ -28165,7 +28192,7 @@
         <v>0.4</v>
       </c>
       <c r="AP131">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
         <v>0.6899999999999999</v>
@@ -28374,7 +28401,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ132">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR132">
         <v>1.21</v>
@@ -28577,7 +28604,7 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ133">
         <v>1.63</v>
@@ -28705,7 +28732,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28911,7 +28938,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28989,10 +29016,10 @@
         <v>0.27</v>
       </c>
       <c r="AP135">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ135">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR135">
         <v>1.43</v>
@@ -29117,7 +29144,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29401,10 +29428,10 @@
         <v>1.27</v>
       </c>
       <c r="AP137">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR137">
         <v>1.14</v>
@@ -29529,7 +29556,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29607,10 +29634,10 @@
         <v>1.18</v>
       </c>
       <c r="AP138">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR138">
         <v>2.1</v>
@@ -29813,10 +29840,10 @@
         <v>1.45</v>
       </c>
       <c r="AP139">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ139">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -30225,7 +30252,7 @@
         <v>0.09</v>
       </c>
       <c r="AP141">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ141">
         <v>0.31</v>
@@ -30353,7 +30380,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30434,7 +30461,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ142">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.8</v>
@@ -30559,7 +30586,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30640,7 +30667,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ143">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR143">
         <v>1.96</v>
@@ -30971,7 +30998,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -31049,7 +31076,7 @@
         <v>1.82</v>
       </c>
       <c r="AP145">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ145">
         <v>1.63</v>
@@ -31177,7 +31204,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31258,7 +31285,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ146">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR146">
         <v>1.19</v>
@@ -31383,7 +31410,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31461,7 +31488,7 @@
         <v>0.42</v>
       </c>
       <c r="AP147">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ147">
         <v>0.6899999999999999</v>
@@ -31589,7 +31616,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31667,10 +31694,10 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR148">
         <v>1.34</v>
@@ -31876,7 +31903,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ149">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
         <v>1.35</v>
@@ -32001,7 +32028,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32079,10 +32106,10 @@
         <v>1.08</v>
       </c>
       <c r="AP150">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ150">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR150">
         <v>1.77</v>
@@ -32285,7 +32312,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
         <v>1.44</v>
@@ -32413,7 +32440,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32491,7 +32518,7 @@
         <v>2.58</v>
       </c>
       <c r="AP152">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ152">
         <v>2.31</v>
@@ -32825,7 +32852,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q154">
         <v>2.49</v>
@@ -33112,7 +33139,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ155">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR155">
         <v>1.29</v>
@@ -33237,7 +33264,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>3.86</v>
@@ -33315,7 +33342,7 @@
         <v>1.92</v>
       </c>
       <c r="AP156">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
         <v>1.81</v>
@@ -33524,7 +33551,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ157">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR157">
         <v>1.66</v>
@@ -33727,10 +33754,10 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.99</v>
@@ -33933,10 +33960,10 @@
         <v>1.31</v>
       </c>
       <c r="AP159">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ159">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR159">
         <v>1.77</v>
@@ -34139,10 +34166,10 @@
         <v>0.54</v>
       </c>
       <c r="AP160">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ160">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR160">
         <v>1.36</v>
@@ -34267,7 +34294,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q161">
         <v>2.93</v>
@@ -34345,10 +34372,10 @@
         <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ161">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -34679,7 +34706,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>3.82</v>
@@ -34885,7 +34912,7 @@
         <v>185</v>
       </c>
       <c r="P164" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q164">
         <v>1.89</v>
@@ -35091,7 +35118,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>3.03</v>
@@ -35378,7 +35405,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ166">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR166">
         <v>1.65</v>
@@ -35581,7 +35608,7 @@
         <v>2</v>
       </c>
       <c r="AP167">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ167">
         <v>1.81</v>
@@ -35709,7 +35736,7 @@
         <v>187</v>
       </c>
       <c r="P168" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q168">
         <v>2.62</v>
@@ -35790,7 +35817,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ168">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR168">
         <v>1.28</v>
@@ -35915,7 +35942,7 @@
         <v>188</v>
       </c>
       <c r="P169" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>3.5</v>
@@ -35993,7 +36020,7 @@
         <v>2.62</v>
       </c>
       <c r="AP169">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ169">
         <v>2.31</v>
@@ -36405,7 +36432,7 @@
         <v>1.86</v>
       </c>
       <c r="AP171">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
         <v>1.63</v>
@@ -36533,7 +36560,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q172">
         <v>3.93</v>
@@ -36614,7 +36641,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ172">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR172">
         <v>1.35</v>
@@ -36739,7 +36766,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q173">
         <v>2.13</v>
@@ -36817,7 +36844,7 @@
         <v>0.14</v>
       </c>
       <c r="AP173">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
         <v>0.31</v>
@@ -36945,7 +36972,7 @@
         <v>191</v>
       </c>
       <c r="P174" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q174">
         <v>2.86</v>
@@ -37026,7 +37053,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ174">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR174">
         <v>1.2</v>
@@ -37151,7 +37178,7 @@
         <v>192</v>
       </c>
       <c r="P175" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q175">
         <v>3.38</v>
@@ -37357,7 +37384,7 @@
         <v>193</v>
       </c>
       <c r="P176" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q176">
         <v>2.32</v>
@@ -37435,7 +37462,7 @@
         <v>0.79</v>
       </c>
       <c r="AP176">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AQ176">
         <v>0.6899999999999999</v>
@@ -37641,10 +37668,10 @@
         <v>1.14</v>
       </c>
       <c r="AP177">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AQ177">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR177">
         <v>1.65</v>
@@ -37769,7 +37796,7 @@
         <v>194</v>
       </c>
       <c r="P178" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q178">
         <v>2.03</v>
@@ -37847,7 +37874,7 @@
         <v>1.36</v>
       </c>
       <c r="AP178">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ178">
         <v>1.44</v>
@@ -38053,10 +38080,10 @@
         <v>1</v>
       </c>
       <c r="AP179">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AQ179">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR179">
         <v>1.42</v>
@@ -38262,7 +38289,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ180">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR180">
         <v>2.03</v>
@@ -38387,7 +38414,7 @@
         <v>84</v>
       </c>
       <c r="P181" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q181">
         <v>3.68</v>
@@ -38468,7 +38495,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ181">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR181">
         <v>1.9</v>
@@ -39780,6 +39807,1242 @@
       </c>
       <c r="BP187">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7372767</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+      <c r="G188" t="s">
+        <v>75</v>
+      </c>
+      <c r="H188" t="s">
+        <v>81</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>5</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>5</v>
+      </c>
+      <c r="O188" t="s">
+        <v>202</v>
+      </c>
+      <c r="P188" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q188">
+        <v>1.83</v>
+      </c>
+      <c r="R188">
+        <v>2.45</v>
+      </c>
+      <c r="S188">
+        <v>6.6</v>
+      </c>
+      <c r="T188">
+        <v>1.31</v>
+      </c>
+      <c r="U188">
+        <v>3.28</v>
+      </c>
+      <c r="V188">
+        <v>2.46</v>
+      </c>
+      <c r="W188">
+        <v>1.51</v>
+      </c>
+      <c r="X188">
+        <v>5.42</v>
+      </c>
+      <c r="Y188">
+        <v>1.12</v>
+      </c>
+      <c r="Z188">
+        <v>1.56</v>
+      </c>
+      <c r="AA188">
+        <v>4.6</v>
+      </c>
+      <c r="AB188">
+        <v>4.8</v>
+      </c>
+      <c r="AC188">
+        <v>1.01</v>
+      </c>
+      <c r="AD188">
+        <v>10.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.18</v>
+      </c>
+      <c r="AF188">
+        <v>4.05</v>
+      </c>
+      <c r="AG188">
+        <v>1.67</v>
+      </c>
+      <c r="AH188">
+        <v>2.1</v>
+      </c>
+      <c r="AI188">
+        <v>1.89</v>
+      </c>
+      <c r="AJ188">
+        <v>1.81</v>
+      </c>
+      <c r="AK188">
+        <v>1.08</v>
+      </c>
+      <c r="AL188">
+        <v>1.13</v>
+      </c>
+      <c r="AM188">
+        <v>2.45</v>
+      </c>
+      <c r="AN188">
+        <v>1.87</v>
+      </c>
+      <c r="AO188">
+        <v>0.87</v>
+      </c>
+      <c r="AP188">
+        <v>1.94</v>
+      </c>
+      <c r="AQ188">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR188">
+        <v>1.63</v>
+      </c>
+      <c r="AS188">
+        <v>1.71</v>
+      </c>
+      <c r="AT188">
+        <v>3.34</v>
+      </c>
+      <c r="AU188">
+        <v>4</v>
+      </c>
+      <c r="AV188">
+        <v>3</v>
+      </c>
+      <c r="AW188">
+        <v>6</v>
+      </c>
+      <c r="AX188">
+        <v>3</v>
+      </c>
+      <c r="AY188">
+        <v>10</v>
+      </c>
+      <c r="AZ188">
+        <v>6</v>
+      </c>
+      <c r="BA188">
+        <v>4</v>
+      </c>
+      <c r="BB188">
+        <v>1</v>
+      </c>
+      <c r="BC188">
+        <v>5</v>
+      </c>
+      <c r="BD188">
+        <v>1.47</v>
+      </c>
+      <c r="BE188">
+        <v>9.5</v>
+      </c>
+      <c r="BF188">
+        <v>3.12</v>
+      </c>
+      <c r="BG188">
+        <v>1.21</v>
+      </c>
+      <c r="BH188">
+        <v>3.9</v>
+      </c>
+      <c r="BI188">
+        <v>1.37</v>
+      </c>
+      <c r="BJ188">
+        <v>2.85</v>
+      </c>
+      <c r="BK188">
+        <v>1.71</v>
+      </c>
+      <c r="BL188">
+        <v>2.11</v>
+      </c>
+      <c r="BM188">
+        <v>2.13</v>
+      </c>
+      <c r="BN188">
+        <v>1.69</v>
+      </c>
+      <c r="BO188">
+        <v>2.75</v>
+      </c>
+      <c r="BP188">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7372766</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189" t="s">
+        <v>73</v>
+      </c>
+      <c r="H189" t="s">
+        <v>72</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>203</v>
+      </c>
+      <c r="P189" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q189">
+        <v>2.75</v>
+      </c>
+      <c r="R189">
+        <v>2.1</v>
+      </c>
+      <c r="S189">
+        <v>3.78</v>
+      </c>
+      <c r="T189">
+        <v>1.4</v>
+      </c>
+      <c r="U189">
+        <v>2.82</v>
+      </c>
+      <c r="V189">
+        <v>2.86</v>
+      </c>
+      <c r="W189">
+        <v>1.39</v>
+      </c>
+      <c r="X189">
+        <v>6.74</v>
+      </c>
+      <c r="Y189">
+        <v>1.07</v>
+      </c>
+      <c r="Z189">
+        <v>2.14</v>
+      </c>
+      <c r="AA189">
+        <v>3.3</v>
+      </c>
+      <c r="AB189">
+        <v>3.2</v>
+      </c>
+      <c r="AC189">
+        <v>1.02</v>
+      </c>
+      <c r="AD189">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE189">
+        <v>1.28</v>
+      </c>
+      <c r="AF189">
+        <v>3.2</v>
+      </c>
+      <c r="AG189">
+        <v>1.94</v>
+      </c>
+      <c r="AH189">
+        <v>1.83</v>
+      </c>
+      <c r="AI189">
+        <v>1.75</v>
+      </c>
+      <c r="AJ189">
+        <v>1.96</v>
+      </c>
+      <c r="AK189">
+        <v>1.33</v>
+      </c>
+      <c r="AL189">
+        <v>1.3</v>
+      </c>
+      <c r="AM189">
+        <v>1.64</v>
+      </c>
+      <c r="AN189">
+        <v>0.87</v>
+      </c>
+      <c r="AO189">
+        <v>0.67</v>
+      </c>
+      <c r="AP189">
+        <v>1</v>
+      </c>
+      <c r="AQ189">
+        <v>0.63</v>
+      </c>
+      <c r="AR189">
+        <v>1.28</v>
+      </c>
+      <c r="AS189">
+        <v>1.35</v>
+      </c>
+      <c r="AT189">
+        <v>2.63</v>
+      </c>
+      <c r="AU189">
+        <v>2</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+      <c r="AW189">
+        <v>3</v>
+      </c>
+      <c r="AX189">
+        <v>9</v>
+      </c>
+      <c r="AY189">
+        <v>5</v>
+      </c>
+      <c r="AZ189">
+        <v>11</v>
+      </c>
+      <c r="BA189">
+        <v>2</v>
+      </c>
+      <c r="BB189">
+        <v>5</v>
+      </c>
+      <c r="BC189">
+        <v>7</v>
+      </c>
+      <c r="BD189">
+        <v>1.73</v>
+      </c>
+      <c r="BE189">
+        <v>9</v>
+      </c>
+      <c r="BF189">
+        <v>2.41</v>
+      </c>
+      <c r="BG189">
+        <v>1.23</v>
+      </c>
+      <c r="BH189">
+        <v>3.7</v>
+      </c>
+      <c r="BI189">
+        <v>1.39</v>
+      </c>
+      <c r="BJ189">
+        <v>2.77</v>
+      </c>
+      <c r="BK189">
+        <v>1.9</v>
+      </c>
+      <c r="BL189">
+        <v>1.9</v>
+      </c>
+      <c r="BM189">
+        <v>2.2</v>
+      </c>
+      <c r="BN189">
+        <v>1.65</v>
+      </c>
+      <c r="BO189">
+        <v>2.95</v>
+      </c>
+      <c r="BP189">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7372768</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+      <c r="G190" t="s">
+        <v>79</v>
+      </c>
+      <c r="H190" t="s">
+        <v>76</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>4</v>
+      </c>
+      <c r="L190">
+        <v>5</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>6</v>
+      </c>
+      <c r="O190" t="s">
+        <v>204</v>
+      </c>
+      <c r="P190" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q190">
+        <v>1.81</v>
+      </c>
+      <c r="R190">
+        <v>2.55</v>
+      </c>
+      <c r="S190">
+        <v>7.8</v>
+      </c>
+      <c r="T190">
+        <v>1.31</v>
+      </c>
+      <c r="U190">
+        <v>3.28</v>
+      </c>
+      <c r="V190">
+        <v>2.6</v>
+      </c>
+      <c r="W190">
+        <v>1.48</v>
+      </c>
+      <c r="X190">
+        <v>5.14</v>
+      </c>
+      <c r="Y190">
+        <v>1.13</v>
+      </c>
+      <c r="Z190">
+        <v>1.28</v>
+      </c>
+      <c r="AA190">
+        <v>5</v>
+      </c>
+      <c r="AB190">
+        <v>7.5</v>
+      </c>
+      <c r="AC190">
+        <v>1.01</v>
+      </c>
+      <c r="AD190">
+        <v>11</v>
+      </c>
+      <c r="AE190">
+        <v>1.18</v>
+      </c>
+      <c r="AF190">
+        <v>4.05</v>
+      </c>
+      <c r="AG190">
+        <v>1.6</v>
+      </c>
+      <c r="AH190">
+        <v>2.2</v>
+      </c>
+      <c r="AI190">
+        <v>2.03</v>
+      </c>
+      <c r="AJ190">
+        <v>1.7</v>
+      </c>
+      <c r="AK190">
+        <v>1.04</v>
+      </c>
+      <c r="AL190">
+        <v>1.14</v>
+      </c>
+      <c r="AM190">
+        <v>3.34</v>
+      </c>
+      <c r="AN190">
+        <v>2.2</v>
+      </c>
+      <c r="AO190">
+        <v>1.07</v>
+      </c>
+      <c r="AP190">
+        <v>2.25</v>
+      </c>
+      <c r="AQ190">
+        <v>1</v>
+      </c>
+      <c r="AR190">
+        <v>1.69</v>
+      </c>
+      <c r="AS190">
+        <v>1.16</v>
+      </c>
+      <c r="AT190">
+        <v>2.85</v>
+      </c>
+      <c r="AU190">
+        <v>7</v>
+      </c>
+      <c r="AV190">
+        <v>4</v>
+      </c>
+      <c r="AW190">
+        <v>0</v>
+      </c>
+      <c r="AX190">
+        <v>3</v>
+      </c>
+      <c r="AY190">
+        <v>7</v>
+      </c>
+      <c r="AZ190">
+        <v>7</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>2</v>
+      </c>
+      <c r="BC190">
+        <v>6</v>
+      </c>
+      <c r="BD190">
+        <v>1.3</v>
+      </c>
+      <c r="BE190">
+        <v>9.9</v>
+      </c>
+      <c r="BF190">
+        <v>4.25</v>
+      </c>
+      <c r="BG190">
+        <v>1.32</v>
+      </c>
+      <c r="BH190">
+        <v>3.1</v>
+      </c>
+      <c r="BI190">
+        <v>1.69</v>
+      </c>
+      <c r="BJ190">
+        <v>2.14</v>
+      </c>
+      <c r="BK190">
+        <v>2.13</v>
+      </c>
+      <c r="BL190">
+        <v>1.69</v>
+      </c>
+      <c r="BM190">
+        <v>2.75</v>
+      </c>
+      <c r="BN190">
+        <v>1.4</v>
+      </c>
+      <c r="BO190">
+        <v>3.76</v>
+      </c>
+      <c r="BP190">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7372764</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191" t="s">
+        <v>80</v>
+      </c>
+      <c r="H191" t="s">
+        <v>77</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>205</v>
+      </c>
+      <c r="P191" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q191">
+        <v>5.05</v>
+      </c>
+      <c r="R191">
+        <v>2.32</v>
+      </c>
+      <c r="S191">
+        <v>2.1</v>
+      </c>
+      <c r="T191">
+        <v>1.32</v>
+      </c>
+      <c r="U191">
+        <v>3.22</v>
+      </c>
+      <c r="V191">
+        <v>2.48</v>
+      </c>
+      <c r="W191">
+        <v>1.5</v>
+      </c>
+      <c r="X191">
+        <v>5.71</v>
+      </c>
+      <c r="Y191">
+        <v>1.1</v>
+      </c>
+      <c r="Z191">
+        <v>4.8</v>
+      </c>
+      <c r="AA191">
+        <v>4.3</v>
+      </c>
+      <c r="AB191">
+        <v>1.57</v>
+      </c>
+      <c r="AC191">
+        <v>1.01</v>
+      </c>
+      <c r="AD191">
+        <v>11</v>
+      </c>
+      <c r="AE191">
+        <v>1.19</v>
+      </c>
+      <c r="AF191">
+        <v>3.96</v>
+      </c>
+      <c r="AG191">
+        <v>1.67</v>
+      </c>
+      <c r="AH191">
+        <v>2.1</v>
+      </c>
+      <c r="AI191">
+        <v>1.72</v>
+      </c>
+      <c r="AJ191">
+        <v>2</v>
+      </c>
+      <c r="AK191">
+        <v>2.28</v>
+      </c>
+      <c r="AL191">
+        <v>1.22</v>
+      </c>
+      <c r="AM191">
+        <v>1.15</v>
+      </c>
+      <c r="AN191">
+        <v>0.4</v>
+      </c>
+      <c r="AO191">
+        <v>1.27</v>
+      </c>
+      <c r="AP191">
+        <v>0.44</v>
+      </c>
+      <c r="AQ191">
+        <v>1.25</v>
+      </c>
+      <c r="AR191">
+        <v>1.36</v>
+      </c>
+      <c r="AS191">
+        <v>1.7</v>
+      </c>
+      <c r="AT191">
+        <v>3.06</v>
+      </c>
+      <c r="AU191">
+        <v>5</v>
+      </c>
+      <c r="AV191">
+        <v>6</v>
+      </c>
+      <c r="AW191">
+        <v>1</v>
+      </c>
+      <c r="AX191">
+        <v>8</v>
+      </c>
+      <c r="AY191">
+        <v>6</v>
+      </c>
+      <c r="AZ191">
+        <v>14</v>
+      </c>
+      <c r="BA191">
+        <v>1</v>
+      </c>
+      <c r="BB191">
+        <v>5</v>
+      </c>
+      <c r="BC191">
+        <v>6</v>
+      </c>
+      <c r="BD191">
+        <v>3.84</v>
+      </c>
+      <c r="BE191">
+        <v>10.75</v>
+      </c>
+      <c r="BF191">
+        <v>1.33</v>
+      </c>
+      <c r="BG191">
+        <v>1.18</v>
+      </c>
+      <c r="BH191">
+        <v>4.22</v>
+      </c>
+      <c r="BI191">
+        <v>1.3</v>
+      </c>
+      <c r="BJ191">
+        <v>3.2</v>
+      </c>
+      <c r="BK191">
+        <v>1.8</v>
+      </c>
+      <c r="BL191">
+        <v>2</v>
+      </c>
+      <c r="BM191">
+        <v>2</v>
+      </c>
+      <c r="BN191">
+        <v>1.78</v>
+      </c>
+      <c r="BO191">
+        <v>2.52</v>
+      </c>
+      <c r="BP191">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7372765</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192" t="s">
+        <v>70</v>
+      </c>
+      <c r="H192" t="s">
+        <v>71</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192">
+        <v>4</v>
+      </c>
+      <c r="O192" t="s">
+        <v>206</v>
+      </c>
+      <c r="P192" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q192">
+        <v>2.43</v>
+      </c>
+      <c r="R192">
+        <v>2.15</v>
+      </c>
+      <c r="S192">
+        <v>4.4</v>
+      </c>
+      <c r="T192">
+        <v>1.38</v>
+      </c>
+      <c r="U192">
+        <v>2.9</v>
+      </c>
+      <c r="V192">
+        <v>2.78</v>
+      </c>
+      <c r="W192">
+        <v>1.41</v>
+      </c>
+      <c r="X192">
+        <v>6.61</v>
+      </c>
+      <c r="Y192">
+        <v>1.08</v>
+      </c>
+      <c r="Z192">
+        <v>1.83</v>
+      </c>
+      <c r="AA192">
+        <v>3.4</v>
+      </c>
+      <c r="AB192">
+        <v>3.5</v>
+      </c>
+      <c r="AC192">
+        <v>1.01</v>
+      </c>
+      <c r="AD192">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE192">
+        <v>1.26</v>
+      </c>
+      <c r="AF192">
+        <v>3.34</v>
+      </c>
+      <c r="AG192">
+        <v>1.83</v>
+      </c>
+      <c r="AH192">
+        <v>1.85</v>
+      </c>
+      <c r="AI192">
+        <v>1.76</v>
+      </c>
+      <c r="AJ192">
+        <v>1.95</v>
+      </c>
+      <c r="AK192">
+        <v>1.24</v>
+      </c>
+      <c r="AL192">
+        <v>1.27</v>
+      </c>
+      <c r="AM192">
+        <v>1.87</v>
+      </c>
+      <c r="AN192">
+        <v>1.4</v>
+      </c>
+      <c r="AO192">
+        <v>0.93</v>
+      </c>
+      <c r="AP192">
+        <v>1.38</v>
+      </c>
+      <c r="AQ192">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR192">
+        <v>1.38</v>
+      </c>
+      <c r="AS192">
+        <v>1.26</v>
+      </c>
+      <c r="AT192">
+        <v>2.64</v>
+      </c>
+      <c r="AU192">
+        <v>7</v>
+      </c>
+      <c r="AV192">
+        <v>6</v>
+      </c>
+      <c r="AW192">
+        <v>9</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>16</v>
+      </c>
+      <c r="AZ192">
+        <v>11</v>
+      </c>
+      <c r="BA192">
+        <v>6</v>
+      </c>
+      <c r="BB192">
+        <v>6</v>
+      </c>
+      <c r="BC192">
+        <v>12</v>
+      </c>
+      <c r="BD192">
+        <v>1.5</v>
+      </c>
+      <c r="BE192">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF192">
+        <v>3.02</v>
+      </c>
+      <c r="BG192">
+        <v>1.24</v>
+      </c>
+      <c r="BH192">
+        <v>3.61</v>
+      </c>
+      <c r="BI192">
+        <v>1.42</v>
+      </c>
+      <c r="BJ192">
+        <v>2.65</v>
+      </c>
+      <c r="BK192">
+        <v>1.98</v>
+      </c>
+      <c r="BL192">
+        <v>1.82</v>
+      </c>
+      <c r="BM192">
+        <v>2.22</v>
+      </c>
+      <c r="BN192">
+        <v>1.64</v>
+      </c>
+      <c r="BO192">
+        <v>3</v>
+      </c>
+      <c r="BP192">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7372769</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45430.5</v>
+      </c>
+      <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193" t="s">
+        <v>74</v>
+      </c>
+      <c r="H193" t="s">
+        <v>78</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>3</v>
+      </c>
+      <c r="N193">
+        <v>5</v>
+      </c>
+      <c r="O193" t="s">
+        <v>207</v>
+      </c>
+      <c r="P193" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q193">
+        <v>3.05</v>
+      </c>
+      <c r="R193">
+        <v>2.36</v>
+      </c>
+      <c r="S193">
+        <v>3.18</v>
+      </c>
+      <c r="T193">
+        <v>1.33</v>
+      </c>
+      <c r="U193">
+        <v>3.14</v>
+      </c>
+      <c r="V193">
+        <v>2.5</v>
+      </c>
+      <c r="W193">
+        <v>1.51</v>
+      </c>
+      <c r="X193">
+        <v>5.63</v>
+      </c>
+      <c r="Y193">
+        <v>1.11</v>
+      </c>
+      <c r="Z193">
+        <v>2.28</v>
+      </c>
+      <c r="AA193">
+        <v>3.4</v>
+      </c>
+      <c r="AB193">
+        <v>2.59</v>
+      </c>
+      <c r="AC193">
+        <v>1.02</v>
+      </c>
+      <c r="AD193">
+        <v>10.5</v>
+      </c>
+      <c r="AE193">
+        <v>1.19</v>
+      </c>
+      <c r="AF193">
+        <v>3.98</v>
+      </c>
+      <c r="AG193">
+        <v>1.58</v>
+      </c>
+      <c r="AH193">
+        <v>2.02</v>
+      </c>
+      <c r="AI193">
+        <v>1.55</v>
+      </c>
+      <c r="AJ193">
+        <v>2.29</v>
+      </c>
+      <c r="AK193">
+        <v>1.44</v>
+      </c>
+      <c r="AL193">
+        <v>1.28</v>
+      </c>
+      <c r="AM193">
+        <v>1.51</v>
+      </c>
+      <c r="AN193">
+        <v>2.13</v>
+      </c>
+      <c r="AO193">
+        <v>1.4</v>
+      </c>
+      <c r="AP193">
+        <v>2</v>
+      </c>
+      <c r="AQ193">
+        <v>1.5</v>
+      </c>
+      <c r="AR193">
+        <v>2.01</v>
+      </c>
+      <c r="AS193">
+        <v>1.23</v>
+      </c>
+      <c r="AT193">
+        <v>3.24</v>
+      </c>
+      <c r="AU193">
+        <v>0</v>
+      </c>
+      <c r="AV193">
+        <v>5</v>
+      </c>
+      <c r="AW193">
+        <v>7</v>
+      </c>
+      <c r="AX193">
+        <v>4</v>
+      </c>
+      <c r="AY193">
+        <v>7</v>
+      </c>
+      <c r="AZ193">
+        <v>9</v>
+      </c>
+      <c r="BA193">
+        <v>2</v>
+      </c>
+      <c r="BB193">
+        <v>3</v>
+      </c>
+      <c r="BC193">
+        <v>5</v>
+      </c>
+      <c r="BD193">
+        <v>1.73</v>
+      </c>
+      <c r="BE193">
+        <v>9.1</v>
+      </c>
+      <c r="BF193">
+        <v>2.4</v>
+      </c>
+      <c r="BG193">
+        <v>1.2</v>
+      </c>
+      <c r="BH193">
+        <v>4</v>
+      </c>
+      <c r="BI193">
+        <v>1.33</v>
+      </c>
+      <c r="BJ193">
+        <v>3.04</v>
+      </c>
+      <c r="BK193">
+        <v>1.68</v>
+      </c>
+      <c r="BL193">
+        <v>2.14</v>
+      </c>
+      <c r="BM193">
+        <v>2.08</v>
+      </c>
+      <c r="BN193">
+        <v>1.71</v>
+      </c>
+      <c r="BO193">
+        <v>2.7</v>
+      </c>
+      <c r="BP193">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -39949,31 +39949,31 @@
         <v>3.34</v>
       </c>
       <c r="AU188">
+        <v>7</v>
+      </c>
+      <c r="AV188">
         <v>4</v>
       </c>
-      <c r="AV188">
+      <c r="AW188">
+        <v>7</v>
+      </c>
+      <c r="AX188">
+        <v>4</v>
+      </c>
+      <c r="AY188">
+        <v>14</v>
+      </c>
+      <c r="AZ188">
+        <v>8</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
         <v>3</v>
       </c>
-      <c r="AW188">
-        <v>6</v>
-      </c>
-      <c r="AX188">
-        <v>3</v>
-      </c>
-      <c r="AY188">
-        <v>10</v>
-      </c>
-      <c r="AZ188">
-        <v>6</v>
-      </c>
-      <c r="BA188">
-        <v>4</v>
-      </c>
-      <c r="BB188">
-        <v>1</v>
-      </c>
       <c r="BC188">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD188">
         <v>1.47</v>
@@ -40155,22 +40155,22 @@
         <v>2.63</v>
       </c>
       <c r="AU189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV189">
         <v>2</v>
       </c>
       <c r="AW189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX189">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AY189">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ189">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA189">
         <v>2</v>
@@ -40361,22 +40361,22 @@
         <v>2.85</v>
       </c>
       <c r="AU190">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AV190">
         <v>4</v>
       </c>
       <c r="AW190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX190">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY190">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ190">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA190">
         <v>4</v>
@@ -40567,22 +40567,22 @@
         <v>3.06</v>
       </c>
       <c r="AU191">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV191">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX191">
         <v>8</v>
       </c>
       <c r="AY191">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ191">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA191">
         <v>1</v>
@@ -40773,22 +40773,22 @@
         <v>2.64</v>
       </c>
       <c r="AU192">
+        <v>8</v>
+      </c>
+      <c r="AV192">
         <v>7</v>
       </c>
-      <c r="AV192">
+      <c r="AW192">
+        <v>15</v>
+      </c>
+      <c r="AX192">
         <v>6</v>
       </c>
-      <c r="AW192">
-        <v>9</v>
-      </c>
-      <c r="AX192">
-        <v>5</v>
-      </c>
       <c r="AY192">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ192">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA192">
         <v>6</v>
@@ -40979,22 +40979,22 @@
         <v>3.24</v>
       </c>
       <c r="AU193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV193">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW193">
+        <v>12</v>
+      </c>
+      <c r="AX193">
         <v>7</v>
       </c>
-      <c r="AX193">
-        <v>4</v>
-      </c>
       <c r="AY193">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AZ193">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA193">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ2">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2030,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ5">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2851,22 +2851,22 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AU8">
         <v>8</v>
@@ -3054,25 +3054,25 @@
         <v>2</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ9">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3260,25 +3260,25 @@
         <v>2.7</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
+        <v>1.81</v>
+      </c>
+      <c r="AQ10">
+        <v>0.84</v>
+      </c>
+      <c r="AR10">
+        <v>1.23</v>
+      </c>
+      <c r="AS10">
+        <v>0.9</v>
+      </c>
+      <c r="AT10">
         <v>2.13</v>
-      </c>
-      <c r="AQ10">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
       </c>
       <c r="AU10">
         <v>10</v>
@@ -3466,25 +3466,25 @@
         <v>3.68</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ11">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="AU11">
         <v>7</v>
@@ -3678,19 +3678,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ12">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AU12">
         <v>8</v>
@@ -3878,25 +3878,25 @@
         <v>1.65</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>4.53</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -4084,25 +4084,25 @@
         <v>1.47</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ14">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR14">
-        <v>0.55</v>
+        <v>0.79</v>
       </c>
       <c r="AS14">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AT14">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4293,22 +4293,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ15">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR15">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AS15">
-        <v>1.28</v>
+        <v>1.69</v>
       </c>
       <c r="AT15">
-        <v>3.46</v>
+        <v>3.84</v>
       </c>
       <c r="AU15">
         <v>9</v>
@@ -4496,25 +4496,25 @@
         <v>1.18</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO16">
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR16">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AS16">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="AT16">
-        <v>3.34</v>
+        <v>3.06</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4702,25 +4702,25 @@
         <v>1.7</v>
       </c>
       <c r="AN17">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR17">
-        <v>2.42</v>
+        <v>1.74</v>
       </c>
       <c r="AS17">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AT17">
-        <v>3.9</v>
+        <v>3.29</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4908,25 +4908,25 @@
         <v>1.28</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP18">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR18">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="AS18">
-        <v>1.23</v>
+        <v>1.72</v>
       </c>
       <c r="AT18">
-        <v>2.89</v>
+        <v>3.12</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5114,25 +5114,25 @@
         <v>1.57</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ19">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AS19">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AT19">
-        <v>2.33</v>
+        <v>2.53</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -5320,25 +5320,25 @@
         <v>1.7</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP20">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR20">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AS20">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="AT20">
-        <v>2.77</v>
+        <v>2.91</v>
       </c>
       <c r="AU20">
         <v>5</v>
@@ -5526,25 +5526,25 @@
         <v>1.47</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ21">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR21">
-        <v>0.9</v>
+        <v>1.27</v>
       </c>
       <c r="AS21">
-        <v>1.06</v>
+        <v>1.65</v>
       </c>
       <c r="AT21">
-        <v>1.96</v>
+        <v>2.92</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5732,25 +5732,25 @@
         <v>1.78</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ22">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR22">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
       <c r="AS22">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT22">
-        <v>3.39</v>
+        <v>3.78</v>
       </c>
       <c r="AU22">
         <v>9</v>
@@ -5938,25 +5938,25 @@
         <v>1.15</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP23">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR23">
-        <v>2.11</v>
+        <v>1.45</v>
       </c>
       <c r="AS23">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AT23">
-        <v>3.71</v>
+        <v>3.25</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -6144,25 +6144,25 @@
         <v>1.44</v>
       </c>
       <c r="AN24">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP24">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ24">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR24">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="AS24">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="AT24">
-        <v>2.44</v>
+        <v>2.09</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6350,25 +6350,25 @@
         <v>2.65</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP25">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ25">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR25">
-        <v>2.22</v>
+        <v>1.71</v>
       </c>
       <c r="AS25">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="AT25">
-        <v>3.69</v>
+        <v>3.12</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6556,25 +6556,25 @@
         <v>1.95</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO26">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ26">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR26">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="AS26">
         <v>1.6</v>
       </c>
       <c r="AT26">
-        <v>3.77</v>
+        <v>3.57</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6762,25 +6762,25 @@
         <v>2.25</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ27">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR27">
-        <v>1.94</v>
+        <v>1.39</v>
       </c>
       <c r="AS27">
-        <v>1.13</v>
+        <v>1.52</v>
       </c>
       <c r="AT27">
-        <v>3.07</v>
+        <v>2.91</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -6968,25 +6968,25 @@
         <v>1.37</v>
       </c>
       <c r="AN28">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR28">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AS28">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="AT28">
-        <v>3.16</v>
+        <v>2.92</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7174,25 +7174,25 @@
         <v>1.83</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR29">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AS29">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="AT29">
-        <v>2.5</v>
+        <v>2.71</v>
       </c>
       <c r="AU29">
         <v>3</v>
@@ -7380,25 +7380,25 @@
         <v>1.83</v>
       </c>
       <c r="AN30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ30">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR30">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AS30">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="AT30">
-        <v>2.26</v>
+        <v>2.89</v>
       </c>
       <c r="AU30">
         <v>5</v>
@@ -7586,25 +7586,25 @@
         <v>2</v>
       </c>
       <c r="AN31">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP31">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR31">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AS31">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="AT31">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7792,25 +7792,25 @@
         <v>1.3</v>
       </c>
       <c r="AN32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP32">
+        <v>1.53</v>
+      </c>
+      <c r="AQ32">
         <v>1.81</v>
-      </c>
-      <c r="AQ32">
-        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
       </c>
       <c r="AS32">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AT32">
-        <v>3.16</v>
+        <v>3.25</v>
       </c>
       <c r="AU32">
         <v>7</v>
@@ -7998,25 +7998,25 @@
         <v>1.96</v>
       </c>
       <c r="AN33">
+        <v>1.25</v>
+      </c>
+      <c r="AO33">
+        <v>2.4</v>
+      </c>
+      <c r="AP33">
+        <v>1.78</v>
+      </c>
+      <c r="AQ33">
+        <v>1.72</v>
+      </c>
+      <c r="AR33">
+        <v>1.75</v>
+      </c>
+      <c r="AS33">
         <v>1.5</v>
       </c>
-      <c r="AO33">
-        <v>1.5</v>
-      </c>
-      <c r="AP33">
-        <v>1.94</v>
-      </c>
-      <c r="AQ33">
-        <v>1.44</v>
-      </c>
-      <c r="AR33">
-        <v>1.7</v>
-      </c>
-      <c r="AS33">
-        <v>0.84</v>
-      </c>
       <c r="AT33">
-        <v>2.54</v>
+        <v>3.25</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8204,25 +8204,25 @@
         <v>2.43</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ34">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR34">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="AS34">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="AT34">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8410,25 +8410,25 @@
         <v>2.05</v>
       </c>
       <c r="AN35">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ35">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AT35">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8616,25 +8616,25 @@
         <v>1.2</v>
       </c>
       <c r="AN36">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="AO36">
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ36">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR36">
-        <v>0.82</v>
+        <v>1.03</v>
       </c>
       <c r="AS36">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AT36">
-        <v>2.61</v>
+        <v>2.74</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -8822,25 +8822,25 @@
         <v>1.61</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO37">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ37">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR37">
-        <v>1.94</v>
+        <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT37">
-        <v>3.38</v>
+        <v>2.85</v>
       </c>
       <c r="AU37">
         <v>13</v>
@@ -9028,25 +9028,25 @@
         <v>1.7</v>
       </c>
       <c r="AN38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP38">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ38">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR38">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AS38">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="AT38">
-        <v>3.12</v>
+        <v>2.65</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9234,25 +9234,25 @@
         <v>1.45</v>
       </c>
       <c r="AN39">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO39">
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ39">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR39">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="AS39">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AT39">
-        <v>3.51</v>
+        <v>3.23</v>
       </c>
       <c r="AU39">
         <v>7</v>
@@ -9440,25 +9440,25 @@
         <v>1.33</v>
       </c>
       <c r="AN40">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AO40">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP40">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR40">
-        <v>1.92</v>
+        <v>1.51</v>
       </c>
       <c r="AS40">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AT40">
-        <v>3.54</v>
+        <v>3.25</v>
       </c>
       <c r="AU40">
         <v>2</v>
@@ -9646,25 +9646,25 @@
         <v>1.47</v>
       </c>
       <c r="AN41">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AO41">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR41">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AT41">
-        <v>2.64</v>
+        <v>2.95</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9852,25 +9852,25 @@
         <v>2.05</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AP42">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ42">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR42">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AS42">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AT42">
-        <v>2.57</v>
+        <v>2.83</v>
       </c>
       <c r="AU42">
         <v>9</v>
@@ -10058,25 +10058,25 @@
         <v>1.28</v>
       </c>
       <c r="AN43">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AP43">
+        <v>0.84</v>
+      </c>
+      <c r="AQ43">
+        <v>1.16</v>
+      </c>
+      <c r="AR43">
         <v>1.06</v>
       </c>
-      <c r="AQ43">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AR43">
-        <v>0.92</v>
-      </c>
       <c r="AS43">
-        <v>1.78</v>
+        <v>1.99</v>
       </c>
       <c r="AT43">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -10264,25 +10264,25 @@
         <v>1.2</v>
       </c>
       <c r="AN44">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO44">
+        <v>1.57</v>
+      </c>
+      <c r="AP44">
         <v>1.25</v>
       </c>
-      <c r="AP44">
-        <v>1.56</v>
-      </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR44">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AS44">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AT44">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -10470,25 +10470,25 @@
         <v>2.7</v>
       </c>
       <c r="AN45">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO45">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AP45">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ45">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR45">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="AS45">
-        <v>1.07</v>
+        <v>1.66</v>
       </c>
       <c r="AT45">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10676,25 +10676,25 @@
         <v>2.05</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO46">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR46">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AS46">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AT46">
-        <v>2.81</v>
+        <v>2.97</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10882,25 +10882,25 @@
         <v>1.25</v>
       </c>
       <c r="AN47">
-        <v>2.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO47">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP47">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ47">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR47">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AT47">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11088,25 +11088,25 @@
         <v>2.05</v>
       </c>
       <c r="AN48">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AO48">
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ48">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR48">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="AS48">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="AT48">
-        <v>3.12</v>
+        <v>3.01</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11294,25 +11294,25 @@
         <v>2.1</v>
       </c>
       <c r="AN49">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ49">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR49">
-        <v>2.11</v>
+        <v>1.56</v>
       </c>
       <c r="AS49">
-        <v>0.9399999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="AT49">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="AU49">
         <v>16</v>
@@ -11500,25 +11500,25 @@
         <v>1.66</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="AO50">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AP50">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ50">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR50">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="AS50">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AT50">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11706,25 +11706,25 @@
         <v>2.2</v>
       </c>
       <c r="AN51">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AP51">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ51">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR51">
+        <v>1.14</v>
+      </c>
+      <c r="AS51">
         <v>1.18</v>
       </c>
-      <c r="AS51">
-        <v>1.34</v>
-      </c>
       <c r="AT51">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11912,25 +11912,25 @@
         <v>2.2</v>
       </c>
       <c r="AN52">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO52">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ52">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR52">
-        <v>2.16</v>
+        <v>2.03</v>
       </c>
       <c r="AS52">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AT52">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="AU52">
         <v>12</v>
@@ -12118,25 +12118,25 @@
         <v>1.12</v>
       </c>
       <c r="AN53">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AO53">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ53">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR53">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="AS53">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="AT53">
-        <v>3.41</v>
+        <v>3.09</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12324,25 +12324,25 @@
         <v>1.75</v>
       </c>
       <c r="AN54">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO54">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ54">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR54">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="AS54">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="AT54">
-        <v>3.61</v>
+        <v>3.16</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12530,25 +12530,25 @@
         <v>1.94</v>
       </c>
       <c r="AN55">
-        <v>1.6</v>
+        <v>1.11</v>
       </c>
       <c r="AO55">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AP55">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ55">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR55">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AS55">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AT55">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU55">
         <v>5</v>
@@ -12736,25 +12736,25 @@
         <v>1.25</v>
       </c>
       <c r="AN56">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AO56">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ56">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR56">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AS56">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="AT56">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12942,25 +12942,25 @@
         <v>1.63</v>
       </c>
       <c r="AN57">
-        <v>1.4</v>
+        <v>0.78</v>
       </c>
       <c r="AO57">
-        <v>0.6</v>
+        <v>0.78</v>
       </c>
       <c r="AP57">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR57">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AS57">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="AT57">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13148,25 +13148,25 @@
         <v>1.8</v>
       </c>
       <c r="AN58">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AO58">
-        <v>1.5</v>
+        <v>2.11</v>
       </c>
       <c r="AP58">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ58">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR58">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AS58">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="AT58">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13354,25 +13354,25 @@
         <v>2.4</v>
       </c>
       <c r="AN59">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AO59">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="AP59">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR59">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AS59">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AT59">
-        <v>3.1</v>
+        <v>3.32</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13560,25 +13560,25 @@
         <v>1.42</v>
       </c>
       <c r="AN60">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AO60">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ60">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR60">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AS60">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="AT60">
-        <v>3.22</v>
+        <v>3.04</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -13766,25 +13766,25 @@
         <v>1.8</v>
       </c>
       <c r="AN61">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AO61">
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ61">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR61">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="AS61">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT61">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="AU61">
         <v>5</v>
@@ -13972,25 +13972,25 @@
         <v>1.42</v>
       </c>
       <c r="AN62">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AO62">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ62">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR62">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="AS62">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AT62">
-        <v>2.33</v>
+        <v>2.61</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -14178,25 +14178,25 @@
         <v>1.38</v>
       </c>
       <c r="AN63">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AO63">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR63">
-        <v>2.28</v>
+        <v>1.68</v>
       </c>
       <c r="AS63">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="AT63">
-        <v>3.53</v>
+        <v>3.09</v>
       </c>
       <c r="AU63">
         <v>15</v>
@@ -14384,25 +14384,25 @@
         <v>2.5</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ64">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="AS64">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AT64">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14590,25 +14590,25 @@
         <v>2.3</v>
       </c>
       <c r="AN65">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="AO65">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR65">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AS65">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="AT65">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="AU65">
         <v>8</v>
@@ -14796,25 +14796,25 @@
         <v>1.5</v>
       </c>
       <c r="AN66">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AO66">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AP66">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ66">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR66">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AS66">
-        <v>1.71</v>
+        <v>1.58</v>
       </c>
       <c r="AT66">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="AU66">
         <v>2</v>
@@ -15002,22 +15002,22 @@
         <v>1.95</v>
       </c>
       <c r="AN67">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AO67">
-        <v>2.17</v>
+        <v>1.64</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ67">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR67">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="AS67">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AT67">
         <v>3.44</v>
@@ -15208,25 +15208,25 @@
         <v>3.1</v>
       </c>
       <c r="AN68">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AO68">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP68">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ68">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR68">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="AS68">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AT68">
-        <v>2.84</v>
+        <v>2.57</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15414,25 +15414,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AO69">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ69">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AS69">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AT69">
-        <v>2.53</v>
+        <v>2.46</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15620,25 +15620,25 @@
         <v>1.47</v>
       </c>
       <c r="AN70">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="AO70">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AP70">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ70">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR70">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AS70">
-        <v>1.07</v>
+        <v>1.79</v>
       </c>
       <c r="AT70">
-        <v>2.39</v>
+        <v>3.05</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15826,25 +15826,25 @@
         <v>1.43</v>
       </c>
       <c r="AN71">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="AO71">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ71">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR71">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="AS71">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AT71">
-        <v>3.7</v>
+        <v>3.32</v>
       </c>
       <c r="AU71">
         <v>9</v>
@@ -16032,25 +16032,25 @@
         <v>3.6</v>
       </c>
       <c r="AN72">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AO72">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AP72">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ72">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR72">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AS72">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AT72">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU72">
         <v>9</v>
@@ -16238,25 +16238,25 @@
         <v>3.5</v>
       </c>
       <c r="AN73">
-        <v>2.6</v>
+        <v>2.36</v>
       </c>
       <c r="AO73">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AP73">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ73">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR73">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AS73">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AT73">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16444,25 +16444,25 @@
         <v>1.2</v>
       </c>
       <c r="AN74">
-        <v>0.8</v>
+        <v>0.58</v>
       </c>
       <c r="AO74">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ74">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR74">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="AS74">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="AT74">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16653,22 +16653,22 @@
         <v>0.33</v>
       </c>
       <c r="AO75">
-        <v>1.67</v>
+        <v>1.92</v>
       </c>
       <c r="AP75">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR75">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AS75">
-        <v>1.54</v>
+        <v>1.72</v>
       </c>
       <c r="AT75">
-        <v>2.67</v>
+        <v>2.91</v>
       </c>
       <c r="AU75">
         <v>2</v>
@@ -16856,25 +16856,25 @@
         <v>1.2</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AO76">
-        <v>2.17</v>
+        <v>2.42</v>
       </c>
       <c r="AP76">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ76">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR76">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="AS76">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>3.17</v>
+        <v>2.97</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17062,25 +17062,25 @@
         <v>1.45</v>
       </c>
       <c r="AN77">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO77">
-        <v>0.4</v>
+        <v>1.08</v>
       </c>
       <c r="AP77">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR77">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AS77">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AT77">
-        <v>2.31</v>
+        <v>2.38</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17268,25 +17268,25 @@
         <v>3.1</v>
       </c>
       <c r="AN78">
-        <v>1.17</v>
+        <v>1.75</v>
       </c>
       <c r="AO78">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AP78">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ78">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR78">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="AS78">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AT78">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="AU78">
         <v>5</v>
@@ -17474,25 +17474,25 @@
         <v>1.55</v>
       </c>
       <c r="AN79">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="AO79">
-        <v>1.2</v>
+        <v>1.92</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ79">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR79">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="AS79">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="AT79">
-        <v>4.3</v>
+        <v>3.76</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17680,25 +17680,25 @@
         <v>1.68</v>
       </c>
       <c r="AN80">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="AO80">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="AP80">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ80">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR80">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="AS80">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="AT80">
-        <v>3.07</v>
+        <v>3.46</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17886,25 +17886,25 @@
         <v>1.2</v>
       </c>
       <c r="AN81">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="AO81">
-        <v>1</v>
+        <v>1.77</v>
       </c>
       <c r="AP81">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ81">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR81">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AS81">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AT81">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -18092,25 +18092,25 @@
         <v>2.42</v>
       </c>
       <c r="AN82">
-        <v>0.83</v>
+        <v>1.46</v>
       </c>
       <c r="AO82">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ82">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR82">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AS82">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AT82">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18298,25 +18298,25 @@
         <v>2.84</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AO83">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR83">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AS83">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AT83">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="AU83">
         <v>9</v>
@@ -18504,25 +18504,25 @@
         <v>3.25</v>
       </c>
       <c r="AN84">
-        <v>2.67</v>
+        <v>2.46</v>
       </c>
       <c r="AO84">
-        <v>0.67</v>
+        <v>1.31</v>
       </c>
       <c r="AP84">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ84">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR84">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AS84">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="AT84">
-        <v>2.65</v>
+        <v>2.79</v>
       </c>
       <c r="AU84">
         <v>5</v>
@@ -18710,25 +18710,25 @@
         <v>1.22</v>
       </c>
       <c r="AN85">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="AO85">
-        <v>2.33</v>
+        <v>1.85</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ85">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR85">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AS85">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AT85">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="AU85">
         <v>3</v>
@@ -18916,25 +18916,25 @@
         <v>1.2</v>
       </c>
       <c r="AN86">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AO86">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AP86">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR86">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS86">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="AT86">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -19122,25 +19122,25 @@
         <v>3.4</v>
       </c>
       <c r="AN87">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="AO87">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="AP87">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ87">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR87">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="AS87">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AT87">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19328,25 +19328,25 @@
         <v>1.44</v>
       </c>
       <c r="AN88">
-        <v>1.86</v>
+        <v>1.21</v>
       </c>
       <c r="AO88">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AP88">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR88">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AS88">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AT88">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19534,25 +19534,25 @@
         <v>1.08</v>
       </c>
       <c r="AN89">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="AO89">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AP89">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ89">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR89">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AS89">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="AT89">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19740,25 +19740,25 @@
         <v>3.2</v>
       </c>
       <c r="AN90">
-        <v>2.57</v>
+        <v>2.07</v>
       </c>
       <c r="AO90">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ90">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR90">
-        <v>2.29</v>
+        <v>1.68</v>
       </c>
       <c r="AS90">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
       <c r="AT90">
-        <v>3.51</v>
+        <v>2.79</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -19946,25 +19946,25 @@
         <v>1.83</v>
       </c>
       <c r="AN91">
-        <v>2.43</v>
+        <v>1.86</v>
       </c>
       <c r="AO91">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ91">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR91">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AS91">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="AT91">
-        <v>3.72</v>
+        <v>3.59</v>
       </c>
       <c r="AU91">
         <v>7</v>
@@ -20152,25 +20152,25 @@
         <v>1.75</v>
       </c>
       <c r="AN92">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="AO92">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ92">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR92">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AS92">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT92">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20358,25 +20358,25 @@
         <v>1.55</v>
       </c>
       <c r="AN93">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO93">
-        <v>1.29</v>
+        <v>1.73</v>
       </c>
       <c r="AP93">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ93">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR93">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AS93">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="AT93">
-        <v>3.78</v>
+        <v>3.65</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20564,25 +20564,25 @@
         <v>1.3</v>
       </c>
       <c r="AN94">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="AO94">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AP94">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR94">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AS94">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="AT94">
-        <v>2.69</v>
+        <v>2.86</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20770,25 +20770,25 @@
         <v>1.22</v>
       </c>
       <c r="AN95">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="AO95">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AP95">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ95">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR95">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AS95">
-        <v>1.06</v>
+        <v>1.73</v>
       </c>
       <c r="AT95">
-        <v>2.54</v>
+        <v>3.03</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -20976,25 +20976,25 @@
         <v>2.75</v>
       </c>
       <c r="AN96">
-        <v>1.43</v>
+        <v>2</v>
       </c>
       <c r="AO96">
-        <v>0.57</v>
+        <v>1.13</v>
       </c>
       <c r="AP96">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ96">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR96">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AS96">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT96">
-        <v>2.66</v>
+        <v>2.77</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21182,25 +21182,25 @@
         <v>3.4</v>
       </c>
       <c r="AN97">
-        <v>2.71</v>
+        <v>2.53</v>
       </c>
       <c r="AO97">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="AP97">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR97">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AS97">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AT97">
-        <v>2.81</v>
+        <v>2.93</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21388,25 +21388,25 @@
         <v>1.45</v>
       </c>
       <c r="AN98">
-        <v>2.63</v>
+        <v>2.19</v>
       </c>
       <c r="AO98">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ98">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR98">
-        <v>2.32</v>
+        <v>1.73</v>
       </c>
       <c r="AS98">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AT98">
-        <v>3.89</v>
+        <v>3.33</v>
       </c>
       <c r="AU98">
         <v>10</v>
@@ -21594,25 +21594,25 @@
         <v>1.44</v>
       </c>
       <c r="AN99">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AO99">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AP99">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ99">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AS99">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AT99">
-        <v>2.27</v>
+        <v>2.45</v>
       </c>
       <c r="AU99">
         <v>5</v>
@@ -21800,25 +21800,25 @@
         <v>1.28</v>
       </c>
       <c r="AN100">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AO100">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ100">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR100">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="AS100">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AT100">
-        <v>3.76</v>
+        <v>3.68</v>
       </c>
       <c r="AU100">
         <v>2</v>
@@ -22006,25 +22006,25 @@
         <v>1.56</v>
       </c>
       <c r="AN101">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="AO101">
+        <v>0.63</v>
+      </c>
+      <c r="AP101">
         <v>0.38</v>
       </c>
-      <c r="AP101">
-        <v>0.44</v>
-      </c>
       <c r="AQ101">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR101">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AS101">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AT101">
-        <v>2.53</v>
+        <v>2.38</v>
       </c>
       <c r="AU101">
         <v>4</v>
@@ -22212,25 +22212,25 @@
         <v>1.47</v>
       </c>
       <c r="AN102">
-        <v>1.75</v>
+        <v>1.13</v>
       </c>
       <c r="AO102">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="AP102">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ102">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR102">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AS102">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AT102">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -22418,25 +22418,25 @@
         <v>2.1</v>
       </c>
       <c r="AN103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO103">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AP103">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR103">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="AS103">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="AT103">
-        <v>3.36</v>
+        <v>3.17</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -22624,25 +22624,25 @@
         <v>1.29</v>
       </c>
       <c r="AN104">
-        <v>1.63</v>
+        <v>1.06</v>
       </c>
       <c r="AO104">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AP104">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ104">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR104">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AS104">
         <v>1.89</v>
       </c>
       <c r="AT104">
-        <v>3.17</v>
+        <v>3.13</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22830,25 +22830,25 @@
         <v>1.47</v>
       </c>
       <c r="AN105">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="AO105">
-        <v>0.5</v>
+        <v>1.24</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR105">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="AS105">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AT105">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="AU105">
         <v>5</v>
@@ -23036,25 +23036,25 @@
         <v>1.53</v>
       </c>
       <c r="AN106">
-        <v>1.13</v>
+        <v>1.53</v>
       </c>
       <c r="AO106">
-        <v>1.75</v>
+        <v>2.24</v>
       </c>
       <c r="AP106">
+        <v>1.59</v>
+      </c>
+      <c r="AQ106">
+        <v>1.72</v>
+      </c>
+      <c r="AR106">
         <v>1.38</v>
       </c>
-      <c r="AQ106">
-        <v>1.44</v>
-      </c>
-      <c r="AR106">
-        <v>1.45</v>
-      </c>
       <c r="AS106">
-        <v>1.14</v>
+        <v>1.74</v>
       </c>
       <c r="AT106">
-        <v>2.59</v>
+        <v>3.12</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -23242,25 +23242,25 @@
         <v>2.75</v>
       </c>
       <c r="AN107">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AO107">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="AP107">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ107">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR107">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AS107">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AT107">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="AU107">
         <v>10</v>
@@ -23448,25 +23448,25 @@
         <v>3.2</v>
       </c>
       <c r="AN108">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AO108">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="AP108">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ108">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR108">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AS108">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT108">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="AU108">
         <v>6</v>
@@ -23654,25 +23654,25 @@
         <v>2.38</v>
       </c>
       <c r="AN109">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AO109">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR109">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AS109">
-        <v>1.21</v>
+        <v>1.47</v>
       </c>
       <c r="AT109">
-        <v>2.92</v>
+        <v>3.22</v>
       </c>
       <c r="AU109">
         <v>8</v>
@@ -23860,25 +23860,25 @@
         <v>1.3</v>
       </c>
       <c r="AN110">
-        <v>2.67</v>
+        <v>2.11</v>
       </c>
       <c r="AO110">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ110">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR110">
-        <v>2.27</v>
+        <v>1.67</v>
       </c>
       <c r="AS110">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AT110">
-        <v>4.06</v>
+        <v>3.45</v>
       </c>
       <c r="AU110">
         <v>2</v>
@@ -24066,25 +24066,25 @@
         <v>1.27</v>
       </c>
       <c r="AN111">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="AO111">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AP111">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ111">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR111">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AS111">
         <v>1.32</v>
       </c>
       <c r="AT111">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24272,25 +24272,25 @@
         <v>2.5</v>
       </c>
       <c r="AN112">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AO112">
-        <v>0.5600000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ112">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="AS112">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AT112">
-        <v>2.9</v>
+        <v>2.73</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24478,25 +24478,25 @@
         <v>2.65</v>
       </c>
       <c r="AN113">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AO113">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="AP113">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ113">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR113">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AS113">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AT113">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="AU113">
         <v>7</v>
@@ -24684,25 +24684,25 @@
         <v>1.25</v>
       </c>
       <c r="AN114">
-        <v>1.89</v>
+        <v>1.22</v>
       </c>
       <c r="AO114">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AP114">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ114">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR114">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AS114">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AT114">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -24890,25 +24890,25 @@
         <v>2.58</v>
       </c>
       <c r="AN115">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="AO115">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
       <c r="AP115">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ115">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR115">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="AS115">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AT115">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="AU115">
         <v>12</v>
@@ -25096,25 +25096,25 @@
         <v>1.5</v>
       </c>
       <c r="AN116">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="AO116">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="AP116">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR116">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AS116">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AT116">
-        <v>2.97</v>
+        <v>3.17</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25302,25 +25302,25 @@
         <v>1.3</v>
       </c>
       <c r="AN117">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="AO117">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ117">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR117">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AS117">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AT117">
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25508,25 +25508,25 @@
         <v>1.35</v>
       </c>
       <c r="AN118">
-        <v>1.78</v>
+        <v>1.11</v>
       </c>
       <c r="AO118">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR118">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AS118">
-        <v>1.07</v>
+        <v>1.63</v>
       </c>
       <c r="AT118">
-        <v>2.45</v>
+        <v>2.91</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -25714,25 +25714,25 @@
         <v>1.57</v>
       </c>
       <c r="AN119">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="AO119">
-        <v>0.5600000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="AP119">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR119">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AS119">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AT119">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25920,25 +25920,25 @@
         <v>4.75</v>
       </c>
       <c r="AN120">
-        <v>2.56</v>
+        <v>2.53</v>
       </c>
       <c r="AO120">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="AP120">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ120">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR120">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="AS120">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AT120">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="AU120">
         <v>8</v>
@@ -26126,25 +26126,25 @@
         <v>1.83</v>
       </c>
       <c r="AN121">
+        <v>1.89</v>
+      </c>
+      <c r="AO121">
+        <v>1.68</v>
+      </c>
+      <c r="AP121">
         <v>1.78</v>
       </c>
-      <c r="AO121">
-        <v>1.33</v>
-      </c>
-      <c r="AP121">
-        <v>1.94</v>
-      </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR121">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="AS121">
-        <v>1.19</v>
+        <v>1.47</v>
       </c>
       <c r="AT121">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26332,25 +26332,25 @@
         <v>1.55</v>
       </c>
       <c r="AN122">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="AO122">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ122">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR122">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AS122">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>2.31</v>
+        <v>2.42</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26538,25 +26538,25 @@
         <v>2.46</v>
       </c>
       <c r="AN123">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="AO123">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ123">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR123">
-        <v>2.14</v>
+        <v>1.64</v>
       </c>
       <c r="AS123">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AT123">
-        <v>3.49</v>
+        <v>2.9</v>
       </c>
       <c r="AU123">
         <v>4</v>
@@ -26744,25 +26744,25 @@
         <v>2.15</v>
       </c>
       <c r="AN124">
+        <v>1.8</v>
+      </c>
+      <c r="AO124">
+        <v>1.65</v>
+      </c>
+      <c r="AP124">
+        <v>1.78</v>
+      </c>
+      <c r="AQ124">
+        <v>1.59</v>
+      </c>
+      <c r="AR124">
         <v>1.6</v>
       </c>
-      <c r="AO124">
-        <v>2</v>
-      </c>
-      <c r="AP124">
-        <v>1.94</v>
-      </c>
-      <c r="AQ124">
-        <v>1.81</v>
-      </c>
-      <c r="AR124">
-        <v>1.72</v>
-      </c>
       <c r="AS124">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT124">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="AU124">
         <v>7</v>
@@ -26950,25 +26950,25 @@
         <v>1.4</v>
       </c>
       <c r="AN125">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AO125">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AP125">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR125">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AS125">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AT125">
-        <v>2.69</v>
+        <v>2.52</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -27156,25 +27156,25 @@
         <v>1.22</v>
       </c>
       <c r="AN126">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AO126">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AP126">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ126">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR126">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="AS126">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="AT126">
-        <v>3.81</v>
+        <v>3.66</v>
       </c>
       <c r="AU126">
         <v>6</v>
@@ -27362,25 +27362,25 @@
         <v>1.57</v>
       </c>
       <c r="AN127">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AO127">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP127">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR127">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AS127">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AT127">
-        <v>3.04</v>
+        <v>3.27</v>
       </c>
       <c r="AU127">
         <v>2</v>
@@ -27568,25 +27568,25 @@
         <v>2.05</v>
       </c>
       <c r="AN128">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO128">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AP128">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ128">
+        <v>1.72</v>
+      </c>
+      <c r="AR128">
         <v>1.44</v>
       </c>
-      <c r="AR128">
-        <v>1.72</v>
-      </c>
       <c r="AS128">
-        <v>1.15</v>
+        <v>1.64</v>
       </c>
       <c r="AT128">
-        <v>2.87</v>
+        <v>3.08</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27774,25 +27774,25 @@
         <v>1.85</v>
       </c>
       <c r="AN129">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AO129">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="AP129">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ129">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR129">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AS129">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT129">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="AU129">
         <v>9</v>
@@ -27980,25 +27980,25 @@
         <v>1.16</v>
       </c>
       <c r="AN130">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="AO130">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AP130">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR130">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AS130">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AT130">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="AU130">
         <v>2</v>
@@ -28186,25 +28186,25 @@
         <v>2.34</v>
       </c>
       <c r="AN131">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AO131">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="AP131">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ131">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR131">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AS131">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AT131">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28392,25 +28392,25 @@
         <v>1.38</v>
       </c>
       <c r="AN132">
-        <v>2</v>
+        <v>1.48</v>
       </c>
       <c r="AO132">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="AP132">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ132">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR132">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AS132">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AT132">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28598,25 +28598,25 @@
         <v>2.44</v>
       </c>
       <c r="AN133">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AO133">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AP133">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ133">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR133">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AS133">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AT133">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -28804,25 +28804,25 @@
         <v>1.14</v>
       </c>
       <c r="AN134">
-        <v>2.09</v>
+        <v>1.55</v>
       </c>
       <c r="AO134">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="AP134">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR134">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AS134">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AT134">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29010,25 +29010,25 @@
         <v>1.5</v>
       </c>
       <c r="AN135">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="AO135">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
       <c r="AP135">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ135">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR135">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AS135">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AT135">
-        <v>2.78</v>
+        <v>2.59</v>
       </c>
       <c r="AU135">
         <v>3</v>
@@ -29216,25 +29216,25 @@
         <v>1.42</v>
       </c>
       <c r="AN136">
-        <v>1.64</v>
+        <v>1.05</v>
       </c>
       <c r="AO136">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AP136">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ136">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR136">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AS136">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT136">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="AU136">
         <v>9</v>
@@ -29422,25 +29422,25 @@
         <v>1.18</v>
       </c>
       <c r="AN137">
-        <v>1.09</v>
+        <v>0.77</v>
       </c>
       <c r="AO137">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR137">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AS137">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AT137">
-        <v>2.85</v>
+        <v>3.03</v>
       </c>
       <c r="AU137">
         <v>3</v>
@@ -29628,25 +29628,25 @@
         <v>1.63</v>
       </c>
       <c r="AN138">
-        <v>2.27</v>
+        <v>1.86</v>
       </c>
       <c r="AO138">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ138">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR138">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="AS138">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AT138">
-        <v>3.88</v>
+        <v>3.45</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29834,25 +29834,25 @@
         <v>1.76</v>
       </c>
       <c r="AN139">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AO139">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AP139">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR139">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="AS139">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="AT139">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -30040,25 +30040,25 @@
         <v>1.7</v>
       </c>
       <c r="AN140">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="AO140">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
       <c r="AP140">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ140">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR140">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AS140">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT140">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU140">
         <v>4</v>
@@ -30246,25 +30246,25 @@
         <v>2.45</v>
       </c>
       <c r="AN141">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="AO141">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AP141">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ141">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR141">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS141">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AT141">
-        <v>2.47</v>
+        <v>2.67</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30452,25 +30452,25 @@
         <v>1.91</v>
       </c>
       <c r="AN142">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="AO142">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AP142">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR142">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS142">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AT142">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="AU142">
         <v>7</v>
@@ -30658,25 +30658,25 @@
         <v>2.65</v>
       </c>
       <c r="AN143">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="AO143">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AP143">
+        <v>1.53</v>
+      </c>
+      <c r="AQ143">
+        <v>1.25</v>
+      </c>
+      <c r="AR143">
         <v>1.81</v>
       </c>
-      <c r="AQ143">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR143">
-        <v>1.96</v>
-      </c>
       <c r="AS143">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT143">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30864,25 +30864,25 @@
         <v>1.91</v>
       </c>
       <c r="AN144">
+        <v>1.61</v>
+      </c>
+      <c r="AO144">
         <v>1.91</v>
       </c>
-      <c r="AO144">
-        <v>1.45</v>
-      </c>
       <c r="AP144">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ144">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR144">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="AS144">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="AT144">
-        <v>2.89</v>
+        <v>3.06</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31070,25 +31070,25 @@
         <v>2.4</v>
       </c>
       <c r="AN145">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="AO145">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AP145">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ145">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR145">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AS145">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AT145">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31276,25 +31276,25 @@
         <v>1.3</v>
       </c>
       <c r="AN146">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="AO146">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR146">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AS146">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AT146">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AU146">
         <v>5</v>
@@ -31482,25 +31482,25 @@
         <v>1.42</v>
       </c>
       <c r="AN147">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="AO147">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ147">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR147">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AS147">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AT147">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31688,25 +31688,25 @@
         <v>1.38</v>
       </c>
       <c r="AN148">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="AO148">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ148">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR148">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS148">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AT148">
-        <v>3.02</v>
+        <v>3.21</v>
       </c>
       <c r="AU148">
         <v>9</v>
@@ -31894,25 +31894,25 @@
         <v>1.57</v>
       </c>
       <c r="AN149">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AO149">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ149">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR149">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AS149">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT149">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AU149">
         <v>3</v>
@@ -32100,25 +32100,25 @@
         <v>3</v>
       </c>
       <c r="AN150">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AO150">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AP150">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ150">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR150">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AS150">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AT150">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AU150">
         <v>6</v>
@@ -32306,25 +32306,25 @@
         <v>2.35</v>
       </c>
       <c r="AN151">
+        <v>1.88</v>
+      </c>
+      <c r="AO151">
         <v>1.83</v>
       </c>
-      <c r="AO151">
-        <v>1.33</v>
-      </c>
       <c r="AP151">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ151">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR151">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="AS151">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="AT151">
-        <v>2.97</v>
+        <v>3.2</v>
       </c>
       <c r="AU151">
         <v>4</v>
@@ -32512,25 +32512,25 @@
         <v>1.11</v>
       </c>
       <c r="AN152">
-        <v>2.33</v>
+        <v>1.76</v>
       </c>
       <c r="AO152">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ152">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR152">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="AS152">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AT152">
-        <v>3.84</v>
+        <v>3.42</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32718,25 +32718,25 @@
         <v>1.21</v>
       </c>
       <c r="AN153">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="AO153">
         <v>1.92</v>
       </c>
       <c r="AP153">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ153">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR153">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS153">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AT153">
-        <v>2.57</v>
+        <v>2.76</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -32924,25 +32924,25 @@
         <v>1.86</v>
       </c>
       <c r="AN154">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="AO154">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AP154">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ154">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR154">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AS154">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AT154">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="AU154">
         <v>7</v>
@@ -33130,25 +33130,25 @@
         <v>1.4</v>
       </c>
       <c r="AN155">
-        <v>0.83</v>
+        <v>0.68</v>
       </c>
       <c r="AO155">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AP155">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ155">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR155">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS155">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AT155">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33336,25 +33336,25 @@
         <v>1.31</v>
       </c>
       <c r="AN156">
-        <v>1.08</v>
+        <v>0.84</v>
       </c>
       <c r="AO156">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="AP156">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ156">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR156">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS156">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT156">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33542,25 +33542,25 @@
         <v>1.89</v>
       </c>
       <c r="AN157">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AO157">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AP157">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ157">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR157">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AS157">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AT157">
-        <v>3.41</v>
+        <v>3.22</v>
       </c>
       <c r="AU157">
         <v>7</v>
@@ -33748,25 +33748,25 @@
         <v>1.9</v>
       </c>
       <c r="AN158">
-        <v>2.15</v>
+        <v>1.69</v>
       </c>
       <c r="AO158">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR158">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="AS158">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT158">
-        <v>3.26</v>
+        <v>2.85</v>
       </c>
       <c r="AU158">
         <v>11</v>
@@ -33954,25 +33954,25 @@
         <v>2.38</v>
       </c>
       <c r="AN159">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="AO159">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AP159">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR159">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AS159">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AT159">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34160,25 +34160,25 @@
         <v>2.03</v>
       </c>
       <c r="AN160">
+        <v>1.69</v>
+      </c>
+      <c r="AO160">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP160">
+        <v>1.59</v>
+      </c>
+      <c r="AQ160">
+        <v>0.84</v>
+      </c>
+      <c r="AR160">
         <v>1.38</v>
       </c>
-      <c r="AO160">
-        <v>0.54</v>
-      </c>
-      <c r="AP160">
-        <v>1.38</v>
-      </c>
-      <c r="AQ160">
-        <v>0.63</v>
-      </c>
-      <c r="AR160">
-        <v>1.36</v>
-      </c>
       <c r="AS160">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AT160">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="AU160">
         <v>3</v>
@@ -34366,25 +34366,25 @@
         <v>1.58</v>
       </c>
       <c r="AN161">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO161">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ161">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
       </c>
       <c r="AS161">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT161">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="AU161">
         <v>9</v>
@@ -34572,25 +34572,25 @@
         <v>3.05</v>
       </c>
       <c r="AN162">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AO162">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AP162">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ162">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR162">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="AS162">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AT162">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="AU162">
         <v>11</v>
@@ -34778,25 +34778,25 @@
         <v>1.32</v>
       </c>
       <c r="AN163">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="AO163">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ163">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR163">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AS163">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AT163">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -34984,25 +34984,25 @@
         <v>2.79</v>
       </c>
       <c r="AN164">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="AO164">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
       <c r="AP164">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ164">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR164">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="AS164">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AT164">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35190,25 +35190,25 @@
         <v>1.51</v>
       </c>
       <c r="AN165">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="AO165">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="AP165">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ165">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR165">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AS165">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="AT165">
-        <v>3.08</v>
+        <v>3.45</v>
       </c>
       <c r="AU165">
         <v>12</v>
@@ -35396,25 +35396,25 @@
         <v>1.95</v>
       </c>
       <c r="AN166">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="AO166">
-        <v>1.15</v>
+        <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR166">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AS166">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT166">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="AU166">
         <v>10</v>
@@ -35602,25 +35602,25 @@
         <v>1.25</v>
       </c>
       <c r="AN167">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="AO167">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP167">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ167">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR167">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AS167">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT167">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="AU167">
         <v>4</v>
@@ -35808,25 +35808,25 @@
         <v>1.76</v>
       </c>
       <c r="AN168">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="AO168">
-        <v>0.85</v>
+        <v>1.22</v>
       </c>
       <c r="AP168">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ168">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR168">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AS168">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AT168">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36014,25 +36014,25 @@
         <v>1.33</v>
       </c>
       <c r="AN169">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="AO169">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="AP169">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ169">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR169">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="AS169">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AT169">
-        <v>3.48</v>
+        <v>3.27</v>
       </c>
       <c r="AU169">
         <v>2</v>
@@ -36220,25 +36220,25 @@
         <v>1.59</v>
       </c>
       <c r="AN170">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AO170">
-        <v>2.07</v>
+        <v>1.68</v>
       </c>
       <c r="AP170">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ170">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR170">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AS170">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT170">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU170">
         <v>5</v>
@@ -36426,25 +36426,25 @@
         <v>1.39</v>
       </c>
       <c r="AN171">
-        <v>2.07</v>
+        <v>1.71</v>
       </c>
       <c r="AO171">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ171">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR171">
-        <v>2.07</v>
+        <v>1.66</v>
       </c>
       <c r="AS171">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AT171">
-        <v>3.41</v>
+        <v>3.16</v>
       </c>
       <c r="AU171">
         <v>3</v>
@@ -36632,25 +36632,25 @@
         <v>1.4</v>
       </c>
       <c r="AN172">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AO172">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AP172">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ172">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR172">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS172">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="AT172">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AU172">
         <v>0</v>
@@ -36838,25 +36838,25 @@
         <v>2</v>
       </c>
       <c r="AN173">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AO173">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ173">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR173">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AS173">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AT173">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AU173">
         <v>3</v>
@@ -37044,25 +37044,25 @@
         <v>1.59</v>
       </c>
       <c r="AN174">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="AO174">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
       <c r="AP174">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ174">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR174">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AS174">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT174">
-        <v>2.91</v>
+        <v>2.99</v>
       </c>
       <c r="AU174">
         <v>-1</v>
@@ -37250,25 +37250,25 @@
         <v>1.42</v>
       </c>
       <c r="AN175">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AO175">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AP175">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ175">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR175">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="AS175">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AT175">
-        <v>3.51</v>
+        <v>3.22</v>
       </c>
       <c r="AU175">
         <v>8</v>
@@ -37456,25 +37456,25 @@
         <v>1.94</v>
       </c>
       <c r="AN176">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="AO176">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="AP176">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ176">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR176">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS176">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT176">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU176">
         <v>7</v>
@@ -37662,25 +37662,25 @@
         <v>2.46</v>
       </c>
       <c r="AN177">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AO177">
-        <v>1.14</v>
+        <v>1.59</v>
       </c>
       <c r="AP177">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ177">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR177">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AS177">
         <v>1.19</v>
       </c>
       <c r="AT177">
-        <v>2.84</v>
+        <v>2.69</v>
       </c>
       <c r="AU177">
         <v>5</v>
@@ -37868,25 +37868,25 @@
         <v>2.04</v>
       </c>
       <c r="AN178">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
       <c r="AO178">
-        <v>1.36</v>
+        <v>1.76</v>
       </c>
       <c r="AP178">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ178">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR178">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AS178">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="AT178">
-        <v>2.97</v>
+        <v>3.39</v>
       </c>
       <c r="AU178">
         <v>3</v>
@@ -38074,25 +38074,25 @@
         <v>1.39</v>
       </c>
       <c r="AN179">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="AO179">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AP179">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ179">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR179">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AS179">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT179">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="AU179">
         <v>2</v>
@@ -38280,25 +38280,25 @@
         <v>2.52</v>
       </c>
       <c r="AN180">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AO180">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AP180">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ180">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR180">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="AS180">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AT180">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AU180">
         <v>11</v>
@@ -38486,25 +38486,25 @@
         <v>1.33</v>
       </c>
       <c r="AN181">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO181">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AP181">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ181">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR181">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS181">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="AT181">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -38692,25 +38692,25 @@
         <v>1.25</v>
       </c>
       <c r="AN182">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AO182">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AP182">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ182">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR182">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AS182">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AT182">
-        <v>3.69</v>
+        <v>3.55</v>
       </c>
       <c r="AU182">
         <v>3</v>
@@ -38898,25 +38898,25 @@
         <v>1.27</v>
       </c>
       <c r="AN183">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AO183">
+        <v>1.8</v>
+      </c>
+      <c r="AP183">
         <v>1.47</v>
       </c>
-      <c r="AP183">
-        <v>1.94</v>
-      </c>
       <c r="AQ183">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR183">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AS183">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="AT183">
-        <v>2.49</v>
+        <v>2.83</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39104,25 +39104,25 @@
         <v>2.39</v>
       </c>
       <c r="AN184">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AO184">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AP184">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ184">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR184">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AS184">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AT184">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="AU184">
         <v>5</v>
@@ -39310,25 +39310,25 @@
         <v>2.55</v>
       </c>
       <c r="AN185">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="AO185">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AP185">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ185">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR185">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AS185">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT185">
-        <v>2.45</v>
+        <v>2.59</v>
       </c>
       <c r="AU185">
         <v>6</v>
@@ -39516,25 +39516,25 @@
         <v>1.45</v>
       </c>
       <c r="AN186">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AO186">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AP186">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ186">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR186">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AS186">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AT186">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU186">
         <v>6</v>
@@ -39722,25 +39722,25 @@
         <v>1.61</v>
       </c>
       <c r="AN187">
-        <v>2.07</v>
+        <v>1.73</v>
       </c>
       <c r="AO187">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AP187">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ187">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR187">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="AS187">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT187">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="AU187">
         <v>3</v>
@@ -39928,25 +39928,25 @@
         <v>2.45</v>
       </c>
       <c r="AN188">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="AO188">
-        <v>0.87</v>
+        <v>1.19</v>
       </c>
       <c r="AP188">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ188">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR188">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AS188">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AT188">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="AU188">
         <v>7</v>
@@ -40134,25 +40134,25 @@
         <v>1.64</v>
       </c>
       <c r="AN189">
+        <v>0.77</v>
+      </c>
+      <c r="AO189">
         <v>0.87</v>
       </c>
-      <c r="AO189">
-        <v>0.67</v>
-      </c>
       <c r="AP189">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ189">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR189">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AS189">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT189">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="AU189">
         <v>4</v>
@@ -40340,25 +40340,25 @@
         <v>3.34</v>
       </c>
       <c r="AN190">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="AO190">
-        <v>1.07</v>
+        <v>1.52</v>
       </c>
       <c r="AP190">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR190">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AS190">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AT190">
-        <v>2.85</v>
+        <v>2.91</v>
       </c>
       <c r="AU190">
         <v>13</v>
@@ -40546,25 +40546,25 @@
         <v>1.15</v>
       </c>
       <c r="AN191">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AO191">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AP191">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ191">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR191">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AS191">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AT191">
-        <v>3.06</v>
+        <v>3.11</v>
       </c>
       <c r="AU191">
         <v>8</v>
@@ -40752,25 +40752,25 @@
         <v>1.87</v>
       </c>
       <c r="AN192">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="AO192">
-        <v>0.93</v>
+        <v>1.26</v>
       </c>
       <c r="AP192">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ192">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR192">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AS192">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AT192">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="AU192">
         <v>8</v>
@@ -40958,25 +40958,25 @@
         <v>1.51</v>
       </c>
       <c r="AN193">
-        <v>2.13</v>
+        <v>1.77</v>
       </c>
       <c r="AO193">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="AP193">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ193">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR193">
-        <v>2.01</v>
+        <v>1.65</v>
       </c>
       <c r="AS193">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="AT193">
-        <v>3.24</v>
+        <v>3.11</v>
       </c>
       <c r="AU193">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2030,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ4">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ7">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2851,22 +2851,22 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>8</v>
@@ -3054,25 +3054,25 @@
         <v>2</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ9">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR9">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3260,25 +3260,25 @@
         <v>2.7</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR10">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>10</v>
@@ -3466,25 +3466,25 @@
         <v>3.68</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR11">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>7</v>
@@ -3678,19 +3678,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ12">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>8</v>
@@ -3878,25 +3878,25 @@
         <v>1.65</v>
       </c>
       <c r="AN13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -4084,25 +4084,25 @@
         <v>1.47</v>
       </c>
       <c r="AN14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ14">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR14">
-        <v>0.79</v>
+        <v>0.55</v>
       </c>
       <c r="AS14">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT14">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4293,22 +4293,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR15">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AS15">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
       <c r="AT15">
-        <v>3.84</v>
+        <v>3.46</v>
       </c>
       <c r="AU15">
         <v>9</v>
@@ -4496,25 +4496,25 @@
         <v>1.18</v>
       </c>
       <c r="AN16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR16">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AS16">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="AT16">
-        <v>3.06</v>
+        <v>3.34</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4702,25 +4702,25 @@
         <v>1.7</v>
       </c>
       <c r="AN17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
-        <v>1.74</v>
+        <v>2.42</v>
       </c>
       <c r="AS17">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT17">
-        <v>3.29</v>
+        <v>3.9</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4908,25 +4908,25 @@
         <v>1.28</v>
       </c>
       <c r="AN18">
+        <v>3</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1.94</v>
+      </c>
+      <c r="AQ18">
         <v>1.5</v>
       </c>
-      <c r="AO18">
-        <v>2</v>
-      </c>
-      <c r="AP18">
-        <v>1.47</v>
-      </c>
-      <c r="AQ18">
-        <v>1.81</v>
-      </c>
       <c r="AR18">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="AS18">
-        <v>1.72</v>
+        <v>1.23</v>
       </c>
       <c r="AT18">
-        <v>3.12</v>
+        <v>2.89</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5114,25 +5114,25 @@
         <v>1.57</v>
       </c>
       <c r="AN19">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AS19">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT19">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -5320,25 +5320,25 @@
         <v>1.7</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ20">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AS20">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="AT20">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
       <c r="AU20">
         <v>5</v>
@@ -5526,25 +5526,25 @@
         <v>1.47</v>
       </c>
       <c r="AN21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR21">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AS21">
-        <v>1.65</v>
+        <v>1.06</v>
       </c>
       <c r="AT21">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5732,25 +5732,25 @@
         <v>1.78</v>
       </c>
       <c r="AN22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ22">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR22">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="AS22">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AT22">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="AU22">
         <v>9</v>
@@ -5938,25 +5938,25 @@
         <v>1.15</v>
       </c>
       <c r="AN23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ23">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
-        <v>1.45</v>
+        <v>2.11</v>
       </c>
       <c r="AS23">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AT23">
-        <v>3.25</v>
+        <v>3.71</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -6144,25 +6144,25 @@
         <v>1.44</v>
       </c>
       <c r="AN24">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO24">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ24">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR24">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="AS24">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AT24">
-        <v>2.09</v>
+        <v>2.44</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6350,25 +6350,25 @@
         <v>2.65</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP25">
+        <v>2.13</v>
+      </c>
+      <c r="AQ25">
         <v>1.81</v>
       </c>
-      <c r="AQ25">
-        <v>1.59</v>
-      </c>
       <c r="AR25">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="AS25">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>3.12</v>
+        <v>3.69</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6556,25 +6556,25 @@
         <v>1.95</v>
       </c>
       <c r="AN26">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR26">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="AS26">
         <v>1.6</v>
       </c>
       <c r="AT26">
-        <v>3.57</v>
+        <v>3.77</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6762,25 +6762,25 @@
         <v>2.25</v>
       </c>
       <c r="AN27">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR27">
-        <v>1.39</v>
+        <v>1.94</v>
       </c>
       <c r="AS27">
-        <v>1.52</v>
+        <v>1.13</v>
       </c>
       <c r="AT27">
-        <v>2.91</v>
+        <v>3.07</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -6968,25 +6968,25 @@
         <v>1.37</v>
       </c>
       <c r="AN28">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO28">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR28">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AS28">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="AT28">
-        <v>2.92</v>
+        <v>3.16</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7174,25 +7174,25 @@
         <v>1.83</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AS29">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="AT29">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU29">
         <v>3</v>
@@ -7380,25 +7380,25 @@
         <v>1.83</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO30">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR30">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="AT30">
-        <v>2.89</v>
+        <v>2.26</v>
       </c>
       <c r="AU30">
         <v>5</v>
@@ -7586,25 +7586,25 @@
         <v>2</v>
       </c>
       <c r="AN31">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AS31">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="AT31">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7792,25 +7792,25 @@
         <v>1.3</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO32">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ32">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
       </c>
       <c r="AS32">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="AT32">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="AU32">
         <v>7</v>
@@ -7998,25 +7998,25 @@
         <v>1.96</v>
       </c>
       <c r="AN33">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ33">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>0.84</v>
       </c>
       <c r="AT33">
-        <v>3.25</v>
+        <v>2.54</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8204,25 +8204,25 @@
         <v>2.43</v>
       </c>
       <c r="AN34">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO34">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ34">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR34">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="AS34">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT34">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8410,25 +8410,25 @@
         <v>2.05</v>
       </c>
       <c r="AN35">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO35">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR35">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AS35">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT35">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8616,25 +8616,25 @@
         <v>1.2</v>
       </c>
       <c r="AN36">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AO36">
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ36">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
-        <v>1.03</v>
+        <v>0.82</v>
       </c>
       <c r="AS36">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AT36">
-        <v>2.74</v>
+        <v>2.61</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -8822,25 +8822,25 @@
         <v>1.61</v>
       </c>
       <c r="AN37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR37">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="AS37">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT37">
-        <v>2.85</v>
+        <v>3.38</v>
       </c>
       <c r="AU37">
         <v>13</v>
@@ -9028,25 +9028,25 @@
         <v>1.7</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO38">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR38">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AS38">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="AT38">
-        <v>2.65</v>
+        <v>3.12</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9234,25 +9234,25 @@
         <v>1.45</v>
       </c>
       <c r="AN39">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR39">
-        <v>1.42</v>
+        <v>1.78</v>
       </c>
       <c r="AS39">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AT39">
-        <v>3.23</v>
+        <v>3.51</v>
       </c>
       <c r="AU39">
         <v>7</v>
@@ -9440,25 +9440,25 @@
         <v>1.33</v>
       </c>
       <c r="AN40">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AO40">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ40">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
-        <v>1.51</v>
+        <v>1.92</v>
       </c>
       <c r="AS40">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="AT40">
-        <v>3.25</v>
+        <v>3.54</v>
       </c>
       <c r="AU40">
         <v>2</v>
@@ -9646,25 +9646,25 @@
         <v>1.47</v>
       </c>
       <c r="AN41">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO41">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="AP41">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR41">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AS41">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>2.95</v>
+        <v>2.64</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9852,25 +9852,25 @@
         <v>2.05</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR42">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AS42">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>2.83</v>
+        <v>2.57</v>
       </c>
       <c r="AU42">
         <v>9</v>
@@ -10058,25 +10058,25 @@
         <v>1.28</v>
       </c>
       <c r="AN43">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AO43">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ43">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR43">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="AS43">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="AT43">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -10264,25 +10264,25 @@
         <v>1.2</v>
       </c>
       <c r="AN44">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO44">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ44">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AS44">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AT44">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -10470,25 +10470,25 @@
         <v>2.7</v>
       </c>
       <c r="AN45">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AS45">
-        <v>1.66</v>
+        <v>1.07</v>
       </c>
       <c r="AT45">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10676,25 +10676,25 @@
         <v>2.05</v>
       </c>
       <c r="AN46">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ46">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR46">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AS46">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AT46">
-        <v>2.97</v>
+        <v>2.81</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10882,25 +10882,25 @@
         <v>1.25</v>
       </c>
       <c r="AN47">
-        <v>1.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO47">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ47">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR47">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AS47">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11088,25 +11088,25 @@
         <v>2.05</v>
       </c>
       <c r="AN48">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO48">
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ48">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR48">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="AS48">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="AT48">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11294,25 +11294,25 @@
         <v>2.1</v>
       </c>
       <c r="AN49">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AO49">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="AS49">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT49">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="AU49">
         <v>16</v>
@@ -11500,25 +11500,25 @@
         <v>1.66</v>
       </c>
       <c r="AN50">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="AO50">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ50">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR50">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="AS50">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT50">
-        <v>3.11</v>
+        <v>3.37</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11706,25 +11706,25 @@
         <v>2.2</v>
       </c>
       <c r="AN51">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AO51">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ51">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR51">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AS51">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="AT51">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11912,25 +11912,25 @@
         <v>2.2</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO52">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR52">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="AS52">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AT52">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="AU52">
         <v>12</v>
@@ -12118,25 +12118,25 @@
         <v>1.12</v>
       </c>
       <c r="AN53">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ53">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR53">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="AS53">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="AT53">
-        <v>3.09</v>
+        <v>3.41</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12324,25 +12324,25 @@
         <v>1.75</v>
       </c>
       <c r="AN54">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="AS54">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="AT54">
-        <v>3.16</v>
+        <v>3.61</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12530,25 +12530,25 @@
         <v>1.94</v>
       </c>
       <c r="AN55">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AO55">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ55">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR55">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AS55">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AT55">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="AU55">
         <v>5</v>
@@ -12736,25 +12736,25 @@
         <v>1.25</v>
       </c>
       <c r="AN56">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AO56">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ56">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR56">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AS56">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="AT56">
-        <v>2.84</v>
+        <v>2.12</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12942,25 +12942,25 @@
         <v>1.63</v>
       </c>
       <c r="AN57">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="AO57">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR57">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AS57">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AT57">
-        <v>2.38</v>
+        <v>2.53</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13148,25 +13148,25 @@
         <v>1.8</v>
       </c>
       <c r="AN58">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AO58">
-        <v>2.11</v>
+        <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR58">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AS58">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="AT58">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13354,25 +13354,25 @@
         <v>2.4</v>
       </c>
       <c r="AN59">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AO59">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ59">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AS59">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT59">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13560,25 +13560,25 @@
         <v>1.42</v>
       </c>
       <c r="AN60">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AO60">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR60">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AS60">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AT60">
-        <v>3.04</v>
+        <v>3.22</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -13766,25 +13766,25 @@
         <v>1.8</v>
       </c>
       <c r="AN61">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AO61">
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ61">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR61">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="AS61">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AT61">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="AU61">
         <v>5</v>
@@ -13972,25 +13972,25 @@
         <v>1.42</v>
       </c>
       <c r="AN62">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO62">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR62">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AS62">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AT62">
-        <v>2.61</v>
+        <v>2.33</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -14178,25 +14178,25 @@
         <v>1.38</v>
       </c>
       <c r="AN63">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AO63">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AP63">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
-        <v>1.68</v>
+        <v>2.28</v>
       </c>
       <c r="AS63">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AT63">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="AU63">
         <v>15</v>
@@ -14384,25 +14384,25 @@
         <v>2.5</v>
       </c>
       <c r="AN64">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR64">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="AS64">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT64">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14590,25 +14590,25 @@
         <v>2.3</v>
       </c>
       <c r="AN65">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="AO65">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>2.07</v>
+        <v>2.21</v>
       </c>
       <c r="AS65">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="AT65">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="AU65">
         <v>8</v>
@@ -14796,25 +14796,25 @@
         <v>1.5</v>
       </c>
       <c r="AN66">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO66">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ66">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR66">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AS66">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="AT66">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="AU66">
         <v>2</v>
@@ -15002,22 +15002,22 @@
         <v>1.95</v>
       </c>
       <c r="AN67">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AO67">
-        <v>1.64</v>
+        <v>2.17</v>
       </c>
       <c r="AP67">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR67">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="AS67">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT67">
         <v>3.44</v>
@@ -15208,25 +15208,25 @@
         <v>3.1</v>
       </c>
       <c r="AN68">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AO68">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR68">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AS68">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AT68">
-        <v>2.57</v>
+        <v>2.84</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15414,25 +15414,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AS69">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AT69">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15620,25 +15620,25 @@
         <v>1.47</v>
       </c>
       <c r="AN70">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="AO70">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ70">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR70">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AS70">
-        <v>1.79</v>
+        <v>1.07</v>
       </c>
       <c r="AT70">
-        <v>3.05</v>
+        <v>2.39</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15826,25 +15826,25 @@
         <v>1.43</v>
       </c>
       <c r="AN71">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="AO71">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="AP71">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ71">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="AS71">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AT71">
-        <v>3.32</v>
+        <v>3.7</v>
       </c>
       <c r="AU71">
         <v>9</v>
@@ -16032,25 +16032,25 @@
         <v>3.6</v>
       </c>
       <c r="AN72">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AO72">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR72">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AS72">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AT72">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU72">
         <v>9</v>
@@ -16238,25 +16238,25 @@
         <v>3.5</v>
       </c>
       <c r="AN73">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="AO73">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ73">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR73">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AS73">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AT73">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16444,25 +16444,25 @@
         <v>1.2</v>
       </c>
       <c r="AN74">
-        <v>0.58</v>
+        <v>0.8</v>
       </c>
       <c r="AO74">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="AS74">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AT74">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16653,22 +16653,22 @@
         <v>0.33</v>
       </c>
       <c r="AO75">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ75">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AS75">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="AT75">
-        <v>2.91</v>
+        <v>2.67</v>
       </c>
       <c r="AU75">
         <v>2</v>
@@ -16856,25 +16856,25 @@
         <v>1.2</v>
       </c>
       <c r="AN76">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>2.42</v>
+        <v>2.17</v>
       </c>
       <c r="AP76">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR76">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AT76">
-        <v>2.97</v>
+        <v>3.17</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17062,25 +17062,25 @@
         <v>1.45</v>
       </c>
       <c r="AN77">
+        <v>1.67</v>
+      </c>
+      <c r="AO77">
+        <v>0.4</v>
+      </c>
+      <c r="AP77">
+        <v>1.56</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.14</v>
+      </c>
+      <c r="AS77">
         <v>1.17</v>
       </c>
-      <c r="AO77">
-        <v>1.08</v>
-      </c>
-      <c r="AP77">
-        <v>1.25</v>
-      </c>
-      <c r="AQ77">
-        <v>1.47</v>
-      </c>
-      <c r="AR77">
-        <v>1.11</v>
-      </c>
-      <c r="AS77">
-        <v>1.27</v>
-      </c>
       <c r="AT77">
-        <v>2.38</v>
+        <v>2.31</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17268,25 +17268,25 @@
         <v>3.1</v>
       </c>
       <c r="AN78">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AO78">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AP78">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ78">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR78">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AS78">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AT78">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="AU78">
         <v>5</v>
@@ -17474,25 +17474,25 @@
         <v>1.55</v>
       </c>
       <c r="AN79">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="AO79">
+        <v>1.2</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR79">
+        <v>2.38</v>
+      </c>
+      <c r="AS79">
         <v>1.92</v>
       </c>
-      <c r="AP79">
-        <v>1.72</v>
-      </c>
-      <c r="AQ79">
-        <v>1.16</v>
-      </c>
-      <c r="AR79">
-        <v>1.75</v>
-      </c>
-      <c r="AS79">
-        <v>2.01</v>
-      </c>
       <c r="AT79">
-        <v>3.76</v>
+        <v>4.3</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17680,25 +17680,25 @@
         <v>1.68</v>
       </c>
       <c r="AN80">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="AO80">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ80">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="AS80">
-        <v>1.75</v>
+        <v>1.12</v>
       </c>
       <c r="AT80">
-        <v>3.46</v>
+        <v>3.07</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17886,25 +17886,25 @@
         <v>1.2</v>
       </c>
       <c r="AN81">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="AO81">
-        <v>1.77</v>
+        <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ81">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR81">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AS81">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AT81">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -18092,25 +18092,25 @@
         <v>2.42</v>
       </c>
       <c r="AN82">
-        <v>1.46</v>
+        <v>0.83</v>
       </c>
       <c r="AO82">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR82">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AS82">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT82">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18298,25 +18298,25 @@
         <v>2.84</v>
       </c>
       <c r="AN83">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ83">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR83">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AS83">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT83">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AU83">
         <v>9</v>
@@ -18504,25 +18504,25 @@
         <v>3.25</v>
       </c>
       <c r="AN84">
-        <v>2.46</v>
+        <v>2.67</v>
       </c>
       <c r="AO84">
-        <v>1.31</v>
+        <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ84">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AS84">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AT84">
-        <v>2.79</v>
+        <v>2.65</v>
       </c>
       <c r="AU84">
         <v>5</v>
@@ -18710,25 +18710,25 @@
         <v>1.22</v>
       </c>
       <c r="AN85">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="AO85">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="AP85">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR85">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AS85">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AT85">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="AU85">
         <v>3</v>
@@ -18916,25 +18916,25 @@
         <v>1.2</v>
       </c>
       <c r="AN86">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AO86">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AP86">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ86">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS86">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="AT86">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -19122,25 +19122,25 @@
         <v>3.4</v>
       </c>
       <c r="AN87">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AO87">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="AP87">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ87">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR87">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="AS87">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AT87">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19328,25 +19328,25 @@
         <v>1.44</v>
       </c>
       <c r="AN88">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AO88">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AP88">
+        <v>1.56</v>
+      </c>
+      <c r="AQ88">
+        <v>1.81</v>
+      </c>
+      <c r="AR88">
+        <v>1.18</v>
+      </c>
+      <c r="AS88">
         <v>1.25</v>
       </c>
-      <c r="AQ88">
-        <v>1.59</v>
-      </c>
-      <c r="AR88">
-        <v>1.16</v>
-      </c>
-      <c r="AS88">
-        <v>1.34</v>
-      </c>
       <c r="AT88">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19534,25 +19534,25 @@
         <v>1.08</v>
       </c>
       <c r="AN89">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="AO89">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AP89">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ89">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR89">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AS89">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="AT89">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19740,25 +19740,25 @@
         <v>3.2</v>
       </c>
       <c r="AN90">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="AO90">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR90">
-        <v>1.68</v>
+        <v>2.29</v>
       </c>
       <c r="AS90">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>2.79</v>
+        <v>3.51</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -19946,25 +19946,25 @@
         <v>1.83</v>
       </c>
       <c r="AN91">
-        <v>1.86</v>
+        <v>2.43</v>
       </c>
       <c r="AO91">
-        <v>1.93</v>
+        <v>2.43</v>
       </c>
       <c r="AP91">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AS91">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AT91">
-        <v>3.59</v>
+        <v>3.72</v>
       </c>
       <c r="AU91">
         <v>7</v>
@@ -20152,25 +20152,25 @@
         <v>1.75</v>
       </c>
       <c r="AN92">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="AO92">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AP92">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR92">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT92">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20358,25 +20358,25 @@
         <v>1.55</v>
       </c>
       <c r="AN93">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO93">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="AP93">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ93">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR93">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AS93">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AT93">
-        <v>3.65</v>
+        <v>3.78</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20564,25 +20564,25 @@
         <v>1.3</v>
       </c>
       <c r="AN94">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="AO94">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AP94">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AS94">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="AT94">
-        <v>2.86</v>
+        <v>2.69</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20770,25 +20770,25 @@
         <v>1.22</v>
       </c>
       <c r="AN95">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="AO95">
-        <v>2.13</v>
+        <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ95">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AS95">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="AT95">
-        <v>3.03</v>
+        <v>2.54</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -20976,25 +20976,25 @@
         <v>2.75</v>
       </c>
       <c r="AN96">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AO96">
+        <v>0.57</v>
+      </c>
+      <c r="AP96">
+        <v>1.94</v>
+      </c>
+      <c r="AQ96">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR96">
+        <v>1.53</v>
+      </c>
+      <c r="AS96">
         <v>1.13</v>
       </c>
-      <c r="AP96">
-        <v>1.78</v>
-      </c>
-      <c r="AQ96">
-        <v>1.25</v>
-      </c>
-      <c r="AR96">
-        <v>1.56</v>
-      </c>
-      <c r="AS96">
-        <v>1.21</v>
-      </c>
       <c r="AT96">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21182,25 +21182,25 @@
         <v>3.4</v>
       </c>
       <c r="AN97">
-        <v>2.53</v>
+        <v>2.71</v>
       </c>
       <c r="AO97">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ97">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AS97">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT97">
-        <v>2.93</v>
+        <v>2.81</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21388,25 +21388,25 @@
         <v>1.45</v>
       </c>
       <c r="AN98">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="AO98">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR98">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="AS98">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AT98">
-        <v>3.33</v>
+        <v>3.89</v>
       </c>
       <c r="AU98">
         <v>10</v>
@@ -21594,25 +21594,25 @@
         <v>1.44</v>
       </c>
       <c r="AN99">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AO99">
+        <v>0.5</v>
+      </c>
+      <c r="AP99">
         <v>1.06</v>
       </c>
-      <c r="AP99">
-        <v>0.84</v>
-      </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR99">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AS99">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT99">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="AU99">
         <v>5</v>
@@ -21800,25 +21800,25 @@
         <v>1.28</v>
       </c>
       <c r="AN100">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AO100">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AP100">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR100">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="AS100">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AT100">
-        <v>3.68</v>
+        <v>3.76</v>
       </c>
       <c r="AU100">
         <v>2</v>
@@ -22006,25 +22006,25 @@
         <v>1.56</v>
       </c>
       <c r="AN101">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="AO101">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AP101">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ101">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AS101">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AT101">
-        <v>2.38</v>
+        <v>2.53</v>
       </c>
       <c r="AU101">
         <v>4</v>
@@ -22212,25 +22212,25 @@
         <v>1.47</v>
       </c>
       <c r="AN102">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AO102">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="AP102">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ102">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR102">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AS102">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AT102">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -22418,25 +22418,25 @@
         <v>2.1</v>
       </c>
       <c r="AN103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO103">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AP103">
+        <v>2.13</v>
+      </c>
+      <c r="AQ103">
+        <v>1.25</v>
+      </c>
+      <c r="AR103">
         <v>1.81</v>
       </c>
-      <c r="AQ103">
-        <v>1.53</v>
-      </c>
-      <c r="AR103">
-        <v>1.51</v>
-      </c>
       <c r="AS103">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="AT103">
-        <v>3.17</v>
+        <v>3.36</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -22624,25 +22624,25 @@
         <v>1.29</v>
       </c>
       <c r="AN104">
-        <v>1.06</v>
+        <v>1.63</v>
       </c>
       <c r="AO104">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR104">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AS104">
         <v>1.89</v>
       </c>
       <c r="AT104">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22830,25 +22830,25 @@
         <v>1.47</v>
       </c>
       <c r="AN105">
-        <v>0.65</v>
+        <v>0.88</v>
       </c>
       <c r="AO105">
-        <v>1.24</v>
+        <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR105">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AS105">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AT105">
-        <v>2.35</v>
+        <v>2.24</v>
       </c>
       <c r="AU105">
         <v>5</v>
@@ -23036,25 +23036,25 @@
         <v>1.53</v>
       </c>
       <c r="AN106">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="AO106">
-        <v>2.24</v>
+        <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR106">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AS106">
-        <v>1.74</v>
+        <v>1.14</v>
       </c>
       <c r="AT106">
-        <v>3.12</v>
+        <v>2.59</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -23242,25 +23242,25 @@
         <v>2.75</v>
       </c>
       <c r="AN107">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AO107">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="AP107">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ107">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR107">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AS107">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT107">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="AU107">
         <v>10</v>
@@ -23448,25 +23448,25 @@
         <v>3.2</v>
       </c>
       <c r="AN108">
+        <v>1.63</v>
+      </c>
+      <c r="AO108">
+        <v>0.25</v>
+      </c>
+      <c r="AP108">
         <v>1.94</v>
       </c>
-      <c r="AO108">
-        <v>0.35</v>
-      </c>
-      <c r="AP108">
-        <v>1.78</v>
-      </c>
       <c r="AQ108">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR108">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AS108">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AT108">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="AU108">
         <v>6</v>
@@ -23654,25 +23654,25 @@
         <v>2.38</v>
       </c>
       <c r="AN109">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AO109">
+        <v>1.5</v>
+      </c>
+      <c r="AP109">
+        <v>2.25</v>
+      </c>
+      <c r="AQ109">
+        <v>1.5</v>
+      </c>
+      <c r="AR109">
         <v>1.71</v>
       </c>
-      <c r="AP109">
-        <v>2.28</v>
-      </c>
-      <c r="AQ109">
-        <v>1.81</v>
-      </c>
-      <c r="AR109">
-        <v>1.75</v>
-      </c>
       <c r="AS109">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="AT109">
-        <v>3.22</v>
+        <v>2.92</v>
       </c>
       <c r="AU109">
         <v>8</v>
@@ -23860,25 +23860,25 @@
         <v>1.3</v>
       </c>
       <c r="AN110">
-        <v>2.11</v>
+        <v>2.67</v>
       </c>
       <c r="AO110">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR110">
-        <v>1.67</v>
+        <v>2.27</v>
       </c>
       <c r="AS110">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AT110">
-        <v>3.45</v>
+        <v>4.06</v>
       </c>
       <c r="AU110">
         <v>2</v>
@@ -24066,25 +24066,25 @@
         <v>1.27</v>
       </c>
       <c r="AN111">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="AO111">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AP111">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ111">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR111">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AS111">
         <v>1.32</v>
       </c>
       <c r="AT111">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24272,25 +24272,25 @@
         <v>2.5</v>
       </c>
       <c r="AN112">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AO112">
-        <v>1.17</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP112">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR112">
-        <v>1.44</v>
+        <v>1.69</v>
       </c>
       <c r="AS112">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AT112">
-        <v>2.73</v>
+        <v>2.9</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24478,25 +24478,25 @@
         <v>2.65</v>
       </c>
       <c r="AN113">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AO113">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="AP113">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR113">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AS113">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AT113">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="AU113">
         <v>7</v>
@@ -24684,25 +24684,25 @@
         <v>1.25</v>
       </c>
       <c r="AN114">
-        <v>1.22</v>
+        <v>1.89</v>
       </c>
       <c r="AO114">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AP114">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ114">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR114">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AS114">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AT114">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -24890,25 +24890,25 @@
         <v>2.58</v>
       </c>
       <c r="AN115">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AO115">
-        <v>0.67</v>
+        <v>0.44</v>
       </c>
       <c r="AP115">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ115">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR115">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="AS115">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT115">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="AU115">
         <v>12</v>
@@ -25096,25 +25096,25 @@
         <v>1.5</v>
       </c>
       <c r="AN116">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AO116">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS116">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT116">
-        <v>3.17</v>
+        <v>2.97</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25302,25 +25302,25 @@
         <v>1.3</v>
       </c>
       <c r="AN117">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AO117">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ117">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR117">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AS117">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AT117">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25508,25 +25508,25 @@
         <v>1.35</v>
       </c>
       <c r="AN118">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AO118">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ118">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR118">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AS118">
-        <v>1.63</v>
+        <v>1.07</v>
       </c>
       <c r="AT118">
-        <v>2.91</v>
+        <v>2.45</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -25714,25 +25714,25 @@
         <v>1.57</v>
       </c>
       <c r="AN119">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="AO119">
-        <v>1.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP119">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ119">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR119">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AS119">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AT119">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25920,25 +25920,25 @@
         <v>4.75</v>
       </c>
       <c r="AN120">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AO120">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="AP120">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ120">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR120">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AS120">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AT120">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="AU120">
         <v>8</v>
@@ -26126,25 +26126,25 @@
         <v>1.83</v>
       </c>
       <c r="AN121">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="AO121">
+        <v>1.33</v>
+      </c>
+      <c r="AP121">
+        <v>1.94</v>
+      </c>
+      <c r="AQ121">
+        <v>1.5</v>
+      </c>
+      <c r="AR121">
         <v>1.68</v>
       </c>
-      <c r="AP121">
-        <v>1.78</v>
-      </c>
-      <c r="AQ121">
-        <v>1.81</v>
-      </c>
-      <c r="AR121">
-        <v>1.58</v>
-      </c>
       <c r="AS121">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="AT121">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26332,25 +26332,25 @@
         <v>1.55</v>
       </c>
       <c r="AN122">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AO122">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR122">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AS122">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT122">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26538,25 +26538,25 @@
         <v>2.46</v>
       </c>
       <c r="AN123">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="AO123">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AP123">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR123">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="AS123">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AT123">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="AU123">
         <v>4</v>
@@ -26744,25 +26744,25 @@
         <v>2.15</v>
       </c>
       <c r="AN124">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AO124">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AP124">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR124">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AS124">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="AU124">
         <v>7</v>
@@ -26950,25 +26950,25 @@
         <v>1.4</v>
       </c>
       <c r="AN125">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AO125">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ125">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR125">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AS125">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AT125">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -27156,25 +27156,25 @@
         <v>1.22</v>
       </c>
       <c r="AN126">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AO126">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ126">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR126">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="AS126">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="AT126">
-        <v>3.66</v>
+        <v>3.81</v>
       </c>
       <c r="AU126">
         <v>6</v>
@@ -27362,25 +27362,25 @@
         <v>1.57</v>
       </c>
       <c r="AN127">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AO127">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AS127">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AT127">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="AU127">
         <v>2</v>
@@ -27568,25 +27568,25 @@
         <v>2.05</v>
       </c>
       <c r="AN128">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO128">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ128">
+        <v>1.44</v>
+      </c>
+      <c r="AR128">
         <v>1.72</v>
       </c>
-      <c r="AR128">
-        <v>1.44</v>
-      </c>
       <c r="AS128">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="AT128">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27774,25 +27774,25 @@
         <v>1.85</v>
       </c>
       <c r="AN129">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AO129">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="AP129">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ129">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR129">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AS129">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="AT129">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="AU129">
         <v>9</v>
@@ -27980,25 +27980,25 @@
         <v>1.16</v>
       </c>
       <c r="AN130">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="AO130">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AP130">
+        <v>1.56</v>
+      </c>
+      <c r="AQ130">
         <v>1.25</v>
       </c>
-      <c r="AQ130">
-        <v>1.53</v>
-      </c>
       <c r="AR130">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AS130">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AT130">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="AU130">
         <v>2</v>
@@ -28186,25 +28186,25 @@
         <v>2.34</v>
       </c>
       <c r="AN131">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AO131">
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
       <c r="AP131">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR131">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS131">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AT131">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28392,25 +28392,25 @@
         <v>1.38</v>
       </c>
       <c r="AN132">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AO132">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AP132">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ132">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR132">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AS132">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AT132">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28598,25 +28598,25 @@
         <v>2.44</v>
       </c>
       <c r="AN133">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AO133">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP133">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ133">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR133">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AS133">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AT133">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="AU133">
         <v>6</v>
@@ -28804,25 +28804,25 @@
         <v>1.14</v>
       </c>
       <c r="AN134">
-        <v>1.55</v>
+        <v>2.09</v>
       </c>
       <c r="AO134">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="AP134">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR134">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AS134">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AT134">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29010,25 +29010,25 @@
         <v>1.5</v>
       </c>
       <c r="AN135">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="AO135">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="AP135">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ135">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR135">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AS135">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AT135">
-        <v>2.59</v>
+        <v>2.78</v>
       </c>
       <c r="AU135">
         <v>3</v>
@@ -29216,25 +29216,25 @@
         <v>1.42</v>
       </c>
       <c r="AN136">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="AO136">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AP136">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR136">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AS136">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AT136">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="AU136">
         <v>9</v>
@@ -29422,25 +29422,25 @@
         <v>1.18</v>
       </c>
       <c r="AN137">
-        <v>0.77</v>
+        <v>1.09</v>
       </c>
       <c r="AO137">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AP137">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR137">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AS137">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT137">
-        <v>3.03</v>
+        <v>2.85</v>
       </c>
       <c r="AU137">
         <v>3</v>
@@ -29628,25 +29628,25 @@
         <v>1.63</v>
       </c>
       <c r="AN138">
-        <v>1.86</v>
+        <v>2.27</v>
       </c>
       <c r="AO138">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AP138">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR138">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="AS138">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AT138">
-        <v>3.45</v>
+        <v>3.88</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29834,25 +29834,25 @@
         <v>1.76</v>
       </c>
       <c r="AN139">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AO139">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AP139">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ139">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AS139">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="AT139">
-        <v>3.02</v>
+        <v>2.92</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -30040,25 +30040,25 @@
         <v>1.7</v>
       </c>
       <c r="AN140">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="AO140">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="AP140">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ140">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR140">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AS140">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AT140">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU140">
         <v>4</v>
@@ -30246,25 +30246,25 @@
         <v>2.45</v>
       </c>
       <c r="AN141">
-        <v>1.61</v>
+        <v>1.27</v>
       </c>
       <c r="AO141">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="AP141">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ141">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR141">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AS141">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AT141">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30452,25 +30452,25 @@
         <v>1.91</v>
       </c>
       <c r="AN142">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="AO142">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR142">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS142">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AT142">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="AU142">
         <v>7</v>
@@ -30658,25 +30658,25 @@
         <v>2.65</v>
       </c>
       <c r="AN143">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AP143">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ143">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR143">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="AS143">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT143">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30864,25 +30864,25 @@
         <v>1.91</v>
       </c>
       <c r="AN144">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="AO144">
-        <v>1.91</v>
+        <v>1.45</v>
       </c>
       <c r="AP144">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ144">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR144">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AS144">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="AT144">
-        <v>3.06</v>
+        <v>2.89</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31070,25 +31070,25 @@
         <v>2.4</v>
       </c>
       <c r="AN145">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="AO145">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AP145">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ145">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR145">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AS145">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AT145">
-        <v>3.39</v>
+        <v>3.24</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31276,25 +31276,25 @@
         <v>1.3</v>
       </c>
       <c r="AN146">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="AO146">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ146">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR146">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AS146">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AT146">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="AU146">
         <v>5</v>
@@ -31482,25 +31482,25 @@
         <v>1.42</v>
       </c>
       <c r="AN147">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="AO147">
-        <v>0.75</v>
+        <v>0.42</v>
       </c>
       <c r="AP147">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ147">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR147">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AS147">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AT147">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31688,25 +31688,25 @@
         <v>1.38</v>
       </c>
       <c r="AN148">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="AO148">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR148">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AS148">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AT148">
-        <v>3.21</v>
+        <v>3.02</v>
       </c>
       <c r="AU148">
         <v>9</v>
@@ -31894,25 +31894,25 @@
         <v>1.57</v>
       </c>
       <c r="AN149">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AO149">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP149">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ149">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AS149">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT149">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="AU149">
         <v>3</v>
@@ -32100,25 +32100,25 @@
         <v>3</v>
       </c>
       <c r="AN150">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AO150">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AP150">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ150">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR150">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AS150">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AT150">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="AU150">
         <v>6</v>
@@ -32306,25 +32306,25 @@
         <v>2.35</v>
       </c>
       <c r="AN151">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AO151">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
+        <v>1.44</v>
+      </c>
+      <c r="AR151">
         <v>1.72</v>
       </c>
-      <c r="AR151">
-        <v>1.55</v>
-      </c>
       <c r="AS151">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="AT151">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="AU151">
         <v>4</v>
@@ -32512,25 +32512,25 @@
         <v>1.11</v>
       </c>
       <c r="AN152">
-        <v>1.76</v>
+        <v>2.33</v>
       </c>
       <c r="AO152">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="AP152">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ152">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR152">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="AS152">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AT152">
-        <v>3.42</v>
+        <v>3.84</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32718,25 +32718,25 @@
         <v>1.21</v>
       </c>
       <c r="AN153">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="AO153">
         <v>1.92</v>
       </c>
       <c r="AP153">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ153">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR153">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS153">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="AT153">
-        <v>2.76</v>
+        <v>2.57</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -32924,25 +32924,25 @@
         <v>1.86</v>
       </c>
       <c r="AN154">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="AO154">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AP154">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ154">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR154">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AS154">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT154">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="AU154">
         <v>7</v>
@@ -33130,25 +33130,25 @@
         <v>1.4</v>
       </c>
       <c r="AN155">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="AO155">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AP155">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ155">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR155">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS155">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AT155">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33336,25 +33336,25 @@
         <v>1.31</v>
       </c>
       <c r="AN156">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="AO156">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="AP156">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR156">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AS156">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT156">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33542,25 +33542,25 @@
         <v>1.89</v>
       </c>
       <c r="AN157">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AO157">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ157">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR157">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AS157">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AT157">
-        <v>3.22</v>
+        <v>3.41</v>
       </c>
       <c r="AU157">
         <v>7</v>
@@ -33748,25 +33748,25 @@
         <v>1.9</v>
       </c>
       <c r="AN158">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="AO158">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR158">
-        <v>1.62</v>
+        <v>1.99</v>
       </c>
       <c r="AS158">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT158">
-        <v>2.85</v>
+        <v>3.26</v>
       </c>
       <c r="AU158">
         <v>11</v>
@@ -33954,25 +33954,25 @@
         <v>2.38</v>
       </c>
       <c r="AN159">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="AO159">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="AP159">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ159">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR159">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AS159">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AT159">
-        <v>3.23</v>
+        <v>3</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34160,25 +34160,25 @@
         <v>2.03</v>
       </c>
       <c r="AN160">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="AO160">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AP160">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ160">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR160">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AS160">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AT160">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU160">
         <v>3</v>
@@ -34366,25 +34366,25 @@
         <v>1.58</v>
       </c>
       <c r="AN161">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO161">
-        <v>1.15</v>
+        <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ161">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
       </c>
       <c r="AS161">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT161">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="AU161">
         <v>9</v>
@@ -34572,25 +34572,25 @@
         <v>3.05</v>
       </c>
       <c r="AN162">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AO162">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="AP162">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ162">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR162">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="AS162">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AT162">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="AU162">
         <v>11</v>
@@ -34778,25 +34778,25 @@
         <v>1.32</v>
       </c>
       <c r="AN163">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="AO163">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AP163">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR163">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="AS163">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AT163">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -34984,25 +34984,25 @@
         <v>2.79</v>
       </c>
       <c r="AN164">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="AO164">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="AP164">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ164">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR164">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="AS164">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AT164">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35190,25 +35190,25 @@
         <v>1.51</v>
       </c>
       <c r="AN165">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="AO165">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="AP165">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR165">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AS165">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="AT165">
-        <v>3.45</v>
+        <v>3.08</v>
       </c>
       <c r="AU165">
         <v>12</v>
@@ -35396,25 +35396,25 @@
         <v>1.95</v>
       </c>
       <c r="AN166">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="AO166">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="AP166">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ166">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR166">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AS166">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AT166">
-        <v>2.62</v>
+        <v>2.86</v>
       </c>
       <c r="AU166">
         <v>10</v>
@@ -35602,25 +35602,25 @@
         <v>1.25</v>
       </c>
       <c r="AN167">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="AO167">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AP167">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ167">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR167">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AS167">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT167">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="AU167">
         <v>4</v>
@@ -35808,25 +35808,25 @@
         <v>1.76</v>
       </c>
       <c r="AN168">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="AO168">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AP168">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ168">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR168">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AS168">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT168">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36014,25 +36014,25 @@
         <v>1.33</v>
       </c>
       <c r="AN169">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AO169">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="AP169">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ169">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR169">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AS169">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AT169">
-        <v>3.27</v>
+        <v>3.48</v>
       </c>
       <c r="AU169">
         <v>2</v>
@@ -36220,25 +36220,25 @@
         <v>1.59</v>
       </c>
       <c r="AN170">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="AO170">
-        <v>1.68</v>
+        <v>2.07</v>
       </c>
       <c r="AP170">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ170">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR170">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AS170">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT170">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU170">
         <v>5</v>
@@ -36426,25 +36426,25 @@
         <v>1.39</v>
       </c>
       <c r="AN171">
-        <v>1.71</v>
+        <v>2.07</v>
       </c>
       <c r="AO171">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AP171">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR171">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
       <c r="AS171">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AT171">
-        <v>3.16</v>
+        <v>3.41</v>
       </c>
       <c r="AU171">
         <v>3</v>
@@ -36632,25 +36632,25 @@
         <v>1.4</v>
       </c>
       <c r="AN172">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AO172">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AP172">
+        <v>1.56</v>
+      </c>
+      <c r="AQ172">
         <v>1.25</v>
       </c>
-      <c r="AQ172">
-        <v>1.53</v>
-      </c>
       <c r="AR172">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AS172">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="AT172">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU172">
         <v>0</v>
@@ -36838,25 +36838,25 @@
         <v>2</v>
       </c>
       <c r="AN173">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AO173">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="AP173">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR173">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AS173">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AT173">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AU173">
         <v>3</v>
@@ -37044,25 +37044,25 @@
         <v>1.59</v>
       </c>
       <c r="AN174">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="AO174">
-        <v>1.21</v>
+        <v>0.93</v>
       </c>
       <c r="AP174">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR174">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AS174">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AT174">
-        <v>2.99</v>
+        <v>2.91</v>
       </c>
       <c r="AU174">
         <v>-1</v>
@@ -37250,25 +37250,25 @@
         <v>1.42</v>
       </c>
       <c r="AN175">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AO175">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="AP175">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ175">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR175">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="AS175">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AT175">
-        <v>3.22</v>
+        <v>3.51</v>
       </c>
       <c r="AU175">
         <v>8</v>
@@ -37456,25 +37456,25 @@
         <v>1.94</v>
       </c>
       <c r="AN176">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="AO176">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AP176">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ176">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR176">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS176">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT176">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AU176">
         <v>7</v>
@@ -37662,25 +37662,25 @@
         <v>2.46</v>
       </c>
       <c r="AN177">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AO177">
-        <v>1.59</v>
+        <v>1.14</v>
       </c>
       <c r="AP177">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ177">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR177">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AS177">
         <v>1.19</v>
       </c>
       <c r="AT177">
-        <v>2.69</v>
+        <v>2.84</v>
       </c>
       <c r="AU177">
         <v>5</v>
@@ -37868,25 +37868,25 @@
         <v>2.04</v>
       </c>
       <c r="AN178">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AO178">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="AP178">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ178">
+        <v>1.44</v>
+      </c>
+      <c r="AR178">
         <v>1.72</v>
       </c>
-      <c r="AR178">
-        <v>1.75</v>
-      </c>
       <c r="AS178">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="AT178">
-        <v>3.39</v>
+        <v>2.97</v>
       </c>
       <c r="AU178">
         <v>3</v>
@@ -38074,25 +38074,25 @@
         <v>1.39</v>
       </c>
       <c r="AN179">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="AO179">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AP179">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ179">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR179">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AS179">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT179">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="AU179">
         <v>2</v>
@@ -38280,25 +38280,25 @@
         <v>2.52</v>
       </c>
       <c r="AN180">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AO180">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AP180">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ180">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR180">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="AS180">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT180">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AU180">
         <v>11</v>
@@ -38486,25 +38486,25 @@
         <v>1.33</v>
       </c>
       <c r="AN181">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO181">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AP181">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ181">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR181">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS181">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="AT181">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -38692,25 +38692,25 @@
         <v>1.25</v>
       </c>
       <c r="AN182">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="AO182">
-        <v>2.33</v>
+        <v>2.47</v>
       </c>
       <c r="AP182">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR182">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AS182">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AT182">
-        <v>3.55</v>
+        <v>3.69</v>
       </c>
       <c r="AU182">
         <v>3</v>
@@ -38898,25 +38898,25 @@
         <v>1.27</v>
       </c>
       <c r="AN183">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AO183">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="AP183">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ183">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR183">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AS183">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="AT183">
-        <v>2.83</v>
+        <v>2.49</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39104,25 +39104,25 @@
         <v>2.39</v>
       </c>
       <c r="AN184">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AO184">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="AP184">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ184">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR184">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="AS184">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AT184">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="AU184">
         <v>5</v>
@@ -39310,25 +39310,25 @@
         <v>2.55</v>
       </c>
       <c r="AN185">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AO185">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="AP185">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ185">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR185">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS185">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AT185">
-        <v>2.59</v>
+        <v>2.45</v>
       </c>
       <c r="AU185">
         <v>6</v>
@@ -39516,25 +39516,25 @@
         <v>1.45</v>
       </c>
       <c r="AN186">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AO186">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AP186">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ186">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR186">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS186">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AT186">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AU186">
         <v>6</v>
@@ -39722,25 +39722,25 @@
         <v>1.61</v>
       </c>
       <c r="AN187">
+        <v>2.07</v>
+      </c>
+      <c r="AO187">
         <v>1.73</v>
       </c>
-      <c r="AO187">
-        <v>1.8</v>
-      </c>
       <c r="AP187">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ187">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR187">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="AS187">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT187">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="AU187">
         <v>3</v>
@@ -39928,25 +39928,25 @@
         <v>2.45</v>
       </c>
       <c r="AN188">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="AO188">
-        <v>1.19</v>
+        <v>0.87</v>
       </c>
       <c r="AP188">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ188">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR188">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AS188">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AT188">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="AU188">
         <v>7</v>
@@ -40134,25 +40134,25 @@
         <v>1.64</v>
       </c>
       <c r="AN189">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="AO189">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ189">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR189">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AS189">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AT189">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="AU189">
         <v>4</v>
@@ -40340,25 +40340,25 @@
         <v>3.34</v>
       </c>
       <c r="AN190">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AO190">
-        <v>1.52</v>
+        <v>1.07</v>
       </c>
       <c r="AP190">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ190">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR190">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AS190">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AT190">
-        <v>2.91</v>
+        <v>2.85</v>
       </c>
       <c r="AU190">
         <v>13</v>
@@ -40546,25 +40546,25 @@
         <v>1.15</v>
       </c>
       <c r="AN191">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="AO191">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AP191">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ191">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR191">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AS191">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AT191">
-        <v>3.11</v>
+        <v>3.06</v>
       </c>
       <c r="AU191">
         <v>8</v>
@@ -40752,25 +40752,25 @@
         <v>1.87</v>
       </c>
       <c r="AN192">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="AO192">
+        <v>0.93</v>
+      </c>
+      <c r="AP192">
+        <v>1.38</v>
+      </c>
+      <c r="AQ192">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR192">
+        <v>1.38</v>
+      </c>
+      <c r="AS192">
         <v>1.26</v>
       </c>
-      <c r="AP192">
-        <v>1.59</v>
-      </c>
-      <c r="AQ192">
-        <v>1.25</v>
-      </c>
-      <c r="AR192">
-        <v>1.39</v>
-      </c>
-      <c r="AS192">
-        <v>1.29</v>
-      </c>
       <c r="AT192">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AU192">
         <v>8</v>
@@ -40958,25 +40958,25 @@
         <v>1.51</v>
       </c>
       <c r="AN193">
-        <v>1.77</v>
+        <v>2.13</v>
       </c>
       <c r="AO193">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="AP193">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ193">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR193">
-        <v>1.65</v>
+        <v>2.01</v>
       </c>
       <c r="AS193">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AT193">
-        <v>3.11</v>
+        <v>3.24</v>
       </c>
       <c r="AU193">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -28804,25 +28804,25 @@
         <v>1.14</v>
       </c>
       <c r="AN134">
-        <v>2.09</v>
+        <v>1.55</v>
       </c>
       <c r="AO134">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="AP134">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ134">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR134">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AS134">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AT134">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29010,25 +29010,25 @@
         <v>1.5</v>
       </c>
       <c r="AN135">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="AO135">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
       <c r="AP135">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ135">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR135">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AS135">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AT135">
-        <v>2.78</v>
+        <v>2.59</v>
       </c>
       <c r="AU135">
         <v>3</v>
@@ -29216,25 +29216,25 @@
         <v>1.42</v>
       </c>
       <c r="AN136">
-        <v>1.64</v>
+        <v>1.05</v>
       </c>
       <c r="AO136">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="AP136">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ136">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR136">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AS136">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT136">
-        <v>2.67</v>
+        <v>2.61</v>
       </c>
       <c r="AU136">
         <v>9</v>
@@ -29422,25 +29422,25 @@
         <v>1.18</v>
       </c>
       <c r="AN137">
-        <v>1.09</v>
+        <v>0.77</v>
       </c>
       <c r="AO137">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR137">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AS137">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AT137">
-        <v>2.85</v>
+        <v>3.03</v>
       </c>
       <c r="AU137">
         <v>3</v>
@@ -29628,25 +29628,25 @@
         <v>1.63</v>
       </c>
       <c r="AN138">
-        <v>2.27</v>
+        <v>1.86</v>
       </c>
       <c r="AO138">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ138">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR138">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="AS138">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AT138">
-        <v>3.88</v>
+        <v>3.45</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29834,25 +29834,25 @@
         <v>1.76</v>
       </c>
       <c r="AN139">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AO139">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AP139">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR139">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="AS139">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="AT139">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -30040,25 +30040,25 @@
         <v>1.7</v>
       </c>
       <c r="AN140">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="AO140">
-        <v>0.45</v>
+        <v>0.78</v>
       </c>
       <c r="AP140">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ140">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR140">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AS140">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AT140">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU140">
         <v>4</v>
@@ -30246,25 +30246,25 @@
         <v>2.45</v>
       </c>
       <c r="AN141">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="AO141">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AP141">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ141">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR141">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS141">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="AT141">
-        <v>2.47</v>
+        <v>2.67</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30452,25 +30452,25 @@
         <v>1.91</v>
       </c>
       <c r="AN142">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="AO142">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AP142">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR142">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS142">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AT142">
-        <v>3.08</v>
+        <v>3.01</v>
       </c>
       <c r="AU142">
         <v>7</v>
@@ -30658,25 +30658,25 @@
         <v>2.65</v>
       </c>
       <c r="AN143">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="AO143">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="AP143">
+        <v>1.53</v>
+      </c>
+      <c r="AQ143">
+        <v>1.25</v>
+      </c>
+      <c r="AR143">
         <v>1.81</v>
       </c>
-      <c r="AQ143">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR143">
-        <v>1.96</v>
-      </c>
       <c r="AS143">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT143">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30864,25 +30864,25 @@
         <v>1.91</v>
       </c>
       <c r="AN144">
+        <v>1.61</v>
+      </c>
+      <c r="AO144">
         <v>1.91</v>
       </c>
-      <c r="AO144">
-        <v>1.45</v>
-      </c>
       <c r="AP144">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ144">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR144">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="AS144">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="AT144">
-        <v>2.89</v>
+        <v>3.06</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31070,25 +31070,25 @@
         <v>2.4</v>
       </c>
       <c r="AN145">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="AO145">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AP145">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ145">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR145">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AS145">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AT145">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31276,25 +31276,25 @@
         <v>1.3</v>
       </c>
       <c r="AN146">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="AO146">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP146">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ146">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR146">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AS146">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="AT146">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="AU146">
         <v>5</v>
@@ -31482,25 +31482,25 @@
         <v>1.42</v>
       </c>
       <c r="AN147">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="AO147">
-        <v>0.42</v>
+        <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ147">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR147">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AS147">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AT147">
-        <v>2.59</v>
+        <v>2.44</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31688,25 +31688,25 @@
         <v>1.38</v>
       </c>
       <c r="AN148">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="AO148">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ148">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR148">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="AS148">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AT148">
-        <v>3.02</v>
+        <v>3.21</v>
       </c>
       <c r="AU148">
         <v>9</v>
@@ -31894,25 +31894,25 @@
         <v>1.57</v>
       </c>
       <c r="AN149">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AO149">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP149">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ149">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR149">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AS149">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT149">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="AU149">
         <v>3</v>
@@ -32100,25 +32100,25 @@
         <v>3</v>
       </c>
       <c r="AN150">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AO150">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AP150">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ150">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR150">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AS150">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AT150">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AU150">
         <v>6</v>
@@ -32306,25 +32306,25 @@
         <v>2.35</v>
       </c>
       <c r="AN151">
+        <v>1.88</v>
+      </c>
+      <c r="AO151">
         <v>1.83</v>
       </c>
-      <c r="AO151">
-        <v>1.33</v>
-      </c>
       <c r="AP151">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ151">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR151">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="AS151">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="AT151">
-        <v>2.97</v>
+        <v>3.2</v>
       </c>
       <c r="AU151">
         <v>4</v>
@@ -32512,25 +32512,25 @@
         <v>1.11</v>
       </c>
       <c r="AN152">
-        <v>2.33</v>
+        <v>1.76</v>
       </c>
       <c r="AO152">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ152">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR152">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="AS152">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AT152">
-        <v>3.84</v>
+        <v>3.42</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32718,25 +32718,25 @@
         <v>1.21</v>
       </c>
       <c r="AN153">
-        <v>1.85</v>
+        <v>1.52</v>
       </c>
       <c r="AO153">
         <v>1.92</v>
       </c>
       <c r="AP153">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ153">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR153">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS153">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="AT153">
-        <v>2.57</v>
+        <v>2.76</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -32924,25 +32924,25 @@
         <v>1.86</v>
       </c>
       <c r="AN154">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="AO154">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AP154">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ154">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR154">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AS154">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AT154">
-        <v>2.51</v>
+        <v>2.57</v>
       </c>
       <c r="AU154">
         <v>7</v>
@@ -33130,25 +33130,25 @@
         <v>1.4</v>
       </c>
       <c r="AN155">
-        <v>0.83</v>
+        <v>0.68</v>
       </c>
       <c r="AO155">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="AP155">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ155">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR155">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS155">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AT155">
-        <v>3.01</v>
+        <v>3.15</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33336,25 +33336,25 @@
         <v>1.31</v>
       </c>
       <c r="AN156">
-        <v>1.08</v>
+        <v>0.84</v>
       </c>
       <c r="AO156">
-        <v>1.92</v>
+        <v>1.64</v>
       </c>
       <c r="AP156">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ156">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR156">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AS156">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT156">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33542,25 +33542,25 @@
         <v>1.89</v>
       </c>
       <c r="AN157">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AO157">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AP157">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ157">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR157">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="AS157">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AT157">
-        <v>3.41</v>
+        <v>3.22</v>
       </c>
       <c r="AU157">
         <v>7</v>
@@ -33748,25 +33748,25 @@
         <v>1.9</v>
       </c>
       <c r="AN158">
-        <v>2.15</v>
+        <v>1.69</v>
       </c>
       <c r="AO158">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="AP158">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR158">
-        <v>1.99</v>
+        <v>1.62</v>
       </c>
       <c r="AS158">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT158">
-        <v>3.26</v>
+        <v>2.85</v>
       </c>
       <c r="AU158">
         <v>11</v>
@@ -33954,25 +33954,25 @@
         <v>2.38</v>
       </c>
       <c r="AN159">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="AO159">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="AP159">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR159">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="AS159">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AT159">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34160,25 +34160,25 @@
         <v>2.03</v>
       </c>
       <c r="AN160">
+        <v>1.69</v>
+      </c>
+      <c r="AO160">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP160">
+        <v>1.59</v>
+      </c>
+      <c r="AQ160">
+        <v>0.84</v>
+      </c>
+      <c r="AR160">
         <v>1.38</v>
       </c>
-      <c r="AO160">
-        <v>0.54</v>
-      </c>
-      <c r="AP160">
-        <v>1.38</v>
-      </c>
-      <c r="AQ160">
-        <v>0.63</v>
-      </c>
-      <c r="AR160">
-        <v>1.36</v>
-      </c>
       <c r="AS160">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AT160">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="AU160">
         <v>3</v>
@@ -34366,25 +34366,25 @@
         <v>1.58</v>
       </c>
       <c r="AN161">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AO161">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ161">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
       </c>
       <c r="AS161">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT161">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="AU161">
         <v>9</v>
@@ -34572,25 +34572,25 @@
         <v>3.05</v>
       </c>
       <c r="AN162">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AO162">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AP162">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ162">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR162">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="AS162">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AT162">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="AU162">
         <v>11</v>
@@ -34778,25 +34778,25 @@
         <v>1.32</v>
       </c>
       <c r="AN163">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="AO163">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ163">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR163">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AS163">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AT163">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -34984,25 +34984,25 @@
         <v>2.79</v>
       </c>
       <c r="AN164">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="AO164">
-        <v>0.62</v>
+        <v>0.78</v>
       </c>
       <c r="AP164">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ164">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR164">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="AS164">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AT164">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35190,25 +35190,25 @@
         <v>1.51</v>
       </c>
       <c r="AN165">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="AO165">
-        <v>1.23</v>
+        <v>1.67</v>
       </c>
       <c r="AP165">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ165">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR165">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AS165">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="AT165">
-        <v>3.08</v>
+        <v>3.45</v>
       </c>
       <c r="AU165">
         <v>12</v>
@@ -35396,25 +35396,25 @@
         <v>1.95</v>
       </c>
       <c r="AN166">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="AO166">
-        <v>1.15</v>
+        <v>1.56</v>
       </c>
       <c r="AP166">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR166">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AS166">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT166">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="AU166">
         <v>10</v>
@@ -35602,25 +35602,25 @@
         <v>1.25</v>
       </c>
       <c r="AN167">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="AO167">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP167">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ167">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR167">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="AS167">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT167">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="AU167">
         <v>4</v>
@@ -35808,25 +35808,25 @@
         <v>1.76</v>
       </c>
       <c r="AN168">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="AO168">
-        <v>0.85</v>
+        <v>1.22</v>
       </c>
       <c r="AP168">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ168">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR168">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AS168">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AT168">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36014,25 +36014,25 @@
         <v>1.33</v>
       </c>
       <c r="AN169">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="AO169">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="AP169">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ169">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR169">
-        <v>1.68</v>
+        <v>1.51</v>
       </c>
       <c r="AS169">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AT169">
-        <v>3.48</v>
+        <v>3.27</v>
       </c>
       <c r="AU169">
         <v>2</v>
@@ -36220,25 +36220,25 @@
         <v>1.59</v>
       </c>
       <c r="AN170">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="AO170">
-        <v>2.07</v>
+        <v>1.68</v>
       </c>
       <c r="AP170">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ170">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR170">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AS170">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT170">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU170">
         <v>5</v>
@@ -36426,25 +36426,25 @@
         <v>1.39</v>
       </c>
       <c r="AN171">
-        <v>2.07</v>
+        <v>1.71</v>
       </c>
       <c r="AO171">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ171">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR171">
-        <v>2.07</v>
+        <v>1.66</v>
       </c>
       <c r="AS171">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="AT171">
-        <v>3.41</v>
+        <v>3.16</v>
       </c>
       <c r="AU171">
         <v>3</v>
@@ -36632,25 +36632,25 @@
         <v>1.4</v>
       </c>
       <c r="AN172">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AO172">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AP172">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ172">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR172">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AS172">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="AT172">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AU172">
         <v>0</v>
@@ -36838,25 +36838,25 @@
         <v>2</v>
       </c>
       <c r="AN173">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AO173">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="AP173">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ173">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR173">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AS173">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AT173">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AU173">
         <v>3</v>
@@ -37044,25 +37044,25 @@
         <v>1.59</v>
       </c>
       <c r="AN174">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="AO174">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
       <c r="AP174">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="AQ174">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR174">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AS174">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AT174">
-        <v>2.91</v>
+        <v>2.99</v>
       </c>
       <c r="AU174">
         <v>-1</v>
@@ -37250,25 +37250,25 @@
         <v>1.42</v>
       </c>
       <c r="AN175">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AO175">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AP175">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ175">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR175">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="AS175">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AT175">
-        <v>3.51</v>
+        <v>3.22</v>
       </c>
       <c r="AU175">
         <v>8</v>
@@ -37456,25 +37456,25 @@
         <v>1.94</v>
       </c>
       <c r="AN176">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="AO176">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="AP176">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ176">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR176">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS176">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AT176">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AU176">
         <v>7</v>
@@ -37662,25 +37662,25 @@
         <v>2.46</v>
       </c>
       <c r="AN177">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="AO177">
-        <v>1.14</v>
+        <v>1.59</v>
       </c>
       <c r="AP177">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ177">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR177">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AS177">
         <v>1.19</v>
       </c>
       <c r="AT177">
-        <v>2.84</v>
+        <v>2.69</v>
       </c>
       <c r="AU177">
         <v>5</v>
@@ -37868,25 +37868,25 @@
         <v>2.04</v>
       </c>
       <c r="AN178">
-        <v>2.36</v>
+        <v>2.41</v>
       </c>
       <c r="AO178">
-        <v>1.36</v>
+        <v>1.76</v>
       </c>
       <c r="AP178">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ178">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR178">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AS178">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="AT178">
-        <v>2.97</v>
+        <v>3.39</v>
       </c>
       <c r="AU178">
         <v>3</v>
@@ -38074,25 +38074,25 @@
         <v>1.39</v>
       </c>
       <c r="AN179">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="AO179">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="AP179">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ179">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR179">
-        <v>1.42</v>
+        <v>1.27</v>
       </c>
       <c r="AS179">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT179">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="AU179">
         <v>2</v>
@@ -38280,25 +38280,25 @@
         <v>2.52</v>
       </c>
       <c r="AN180">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AO180">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AP180">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ180">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR180">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="AS180">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AT180">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AU180">
         <v>11</v>
@@ -38486,25 +38486,25 @@
         <v>1.33</v>
       </c>
       <c r="AN181">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO181">
-        <v>1.29</v>
+        <v>1.69</v>
       </c>
       <c r="AP181">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ181">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR181">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS181">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="AT181">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -38692,25 +38692,25 @@
         <v>1.25</v>
       </c>
       <c r="AN182">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AO182">
-        <v>2.47</v>
+        <v>2.33</v>
       </c>
       <c r="AP182">
-        <v>1.5</v>
+        <v>1.16</v>
       </c>
       <c r="AQ182">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="AR182">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AS182">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AT182">
-        <v>3.69</v>
+        <v>3.55</v>
       </c>
       <c r="AU182">
         <v>3</v>
@@ -38898,25 +38898,25 @@
         <v>1.27</v>
       </c>
       <c r="AN183">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AO183">
+        <v>1.8</v>
+      </c>
+      <c r="AP183">
         <v>1.47</v>
       </c>
-      <c r="AP183">
-        <v>1.94</v>
-      </c>
       <c r="AQ183">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="AR183">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AS183">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="AT183">
-        <v>2.49</v>
+        <v>2.83</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39104,25 +39104,25 @@
         <v>2.39</v>
       </c>
       <c r="AN184">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AO184">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AP184">
-        <v>1.81</v>
+        <v>1.53</v>
       </c>
       <c r="AQ184">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="AR184">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AS184">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AT184">
-        <v>3.5</v>
+        <v>3.28</v>
       </c>
       <c r="AU184">
         <v>5</v>
@@ -39310,25 +39310,25 @@
         <v>2.55</v>
       </c>
       <c r="AN185">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="AO185">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AP185">
-        <v>1.06</v>
+        <v>0.84</v>
       </c>
       <c r="AQ185">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AR185">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AS185">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT185">
-        <v>2.45</v>
+        <v>2.59</v>
       </c>
       <c r="AU185">
         <v>6</v>
@@ -39516,25 +39516,25 @@
         <v>1.45</v>
       </c>
       <c r="AN186">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AO186">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AP186">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AQ186">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AR186">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AS186">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AT186">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU186">
         <v>6</v>
@@ -39722,25 +39722,25 @@
         <v>1.61</v>
       </c>
       <c r="AN187">
-        <v>2.07</v>
+        <v>1.73</v>
       </c>
       <c r="AO187">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AP187">
-        <v>2.13</v>
+        <v>1.81</v>
       </c>
       <c r="AQ187">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AR187">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="AS187">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT187">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="AU187">
         <v>3</v>
@@ -39928,25 +39928,25 @@
         <v>2.45</v>
       </c>
       <c r="AN188">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="AO188">
-        <v>0.87</v>
+        <v>1.19</v>
       </c>
       <c r="AP188">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AQ188">
-        <v>0.8100000000000001</v>
+        <v>1.16</v>
       </c>
       <c r="AR188">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AS188">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AT188">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="AU188">
         <v>7</v>
@@ -40134,25 +40134,25 @@
         <v>1.64</v>
       </c>
       <c r="AN189">
+        <v>0.77</v>
+      </c>
+      <c r="AO189">
         <v>0.87</v>
       </c>
-      <c r="AO189">
-        <v>0.67</v>
-      </c>
       <c r="AP189">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="AQ189">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
       <c r="AR189">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AS189">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AT189">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="AU189">
         <v>4</v>
@@ -40340,25 +40340,25 @@
         <v>3.34</v>
       </c>
       <c r="AN190">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="AO190">
-        <v>1.07</v>
+        <v>1.52</v>
       </c>
       <c r="AP190">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="AQ190">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="AR190">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AS190">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AT190">
-        <v>2.85</v>
+        <v>2.91</v>
       </c>
       <c r="AU190">
         <v>13</v>
@@ -40546,25 +40546,25 @@
         <v>1.15</v>
       </c>
       <c r="AN191">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AO191">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AP191">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AQ191">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="AR191">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AS191">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AT191">
-        <v>3.06</v>
+        <v>3.11</v>
       </c>
       <c r="AU191">
         <v>8</v>
@@ -40752,25 +40752,25 @@
         <v>1.87</v>
       </c>
       <c r="AN192">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="AO192">
-        <v>0.93</v>
+        <v>1.26</v>
       </c>
       <c r="AP192">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AQ192">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR192">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AS192">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AT192">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="AU192">
         <v>8</v>
@@ -40958,25 +40958,25 @@
         <v>1.51</v>
       </c>
       <c r="AN193">
-        <v>2.13</v>
+        <v>1.77</v>
       </c>
       <c r="AO193">
-        <v>1.4</v>
+        <v>1.77</v>
       </c>
       <c r="AP193">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ193">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AR193">
-        <v>2.01</v>
+        <v>1.65</v>
       </c>
       <c r="AS193">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="AT193">
-        <v>3.24</v>
+        <v>3.11</v>
       </c>
       <c r="AU193">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -28804,25 +28804,25 @@
         <v>1.14</v>
       </c>
       <c r="AN134">
-        <v>1.55</v>
+        <v>2.09</v>
       </c>
       <c r="AO134">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="AP134">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ134">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR134">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AS134">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AT134">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29010,25 +29010,25 @@
         <v>1.5</v>
       </c>
       <c r="AN135">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="AO135">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="AP135">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ135">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR135">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AS135">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AT135">
-        <v>2.59</v>
+        <v>2.78</v>
       </c>
       <c r="AU135">
         <v>3</v>
@@ -29216,25 +29216,25 @@
         <v>1.42</v>
       </c>
       <c r="AN136">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="AO136">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AP136">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR136">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AS136">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AT136">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="AU136">
         <v>9</v>
@@ -29422,25 +29422,25 @@
         <v>1.18</v>
       </c>
       <c r="AN137">
-        <v>0.77</v>
+        <v>1.09</v>
       </c>
       <c r="AO137">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AP137">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR137">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AS137">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT137">
-        <v>3.03</v>
+        <v>2.85</v>
       </c>
       <c r="AU137">
         <v>3</v>
@@ -29628,25 +29628,25 @@
         <v>1.63</v>
       </c>
       <c r="AN138">
-        <v>1.86</v>
+        <v>2.27</v>
       </c>
       <c r="AO138">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="AP138">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR138">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="AS138">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="AT138">
-        <v>3.45</v>
+        <v>3.88</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -29834,25 +29834,25 @@
         <v>1.76</v>
       </c>
       <c r="AN139">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AO139">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="AP139">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ139">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AS139">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="AT139">
-        <v>3.02</v>
+        <v>2.92</v>
       </c>
       <c r="AU139">
         <v>8</v>
@@ -30040,25 +30040,25 @@
         <v>1.7</v>
       </c>
       <c r="AN140">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="AO140">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="AP140">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ140">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR140">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AS140">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AT140">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU140">
         <v>4</v>
@@ -30246,25 +30246,25 @@
         <v>2.45</v>
       </c>
       <c r="AN141">
-        <v>1.61</v>
+        <v>1.27</v>
       </c>
       <c r="AO141">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="AP141">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ141">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR141">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AS141">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AT141">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="AU141">
         <v>4</v>
@@ -30452,25 +30452,25 @@
         <v>1.91</v>
       </c>
       <c r="AN142">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="AO142">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR142">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS142">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AT142">
-        <v>3.01</v>
+        <v>3.08</v>
       </c>
       <c r="AU142">
         <v>7</v>
@@ -30658,25 +30658,25 @@
         <v>2.65</v>
       </c>
       <c r="AN143">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AP143">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ143">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR143">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="AS143">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT143">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="AU143">
         <v>6</v>
@@ -30864,25 +30864,25 @@
         <v>1.91</v>
       </c>
       <c r="AN144">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="AO144">
-        <v>1.91</v>
+        <v>1.45</v>
       </c>
       <c r="AP144">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ144">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR144">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AS144">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="AT144">
-        <v>3.06</v>
+        <v>2.89</v>
       </c>
       <c r="AU144">
         <v>6</v>
@@ -31070,25 +31070,25 @@
         <v>2.4</v>
       </c>
       <c r="AN145">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="AO145">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AP145">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ145">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR145">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AS145">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AT145">
-        <v>3.39</v>
+        <v>3.24</v>
       </c>
       <c r="AU145">
         <v>5</v>
@@ -31276,25 +31276,25 @@
         <v>1.3</v>
       </c>
       <c r="AN146">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="AO146">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ146">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR146">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AS146">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="AT146">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="AU146">
         <v>5</v>
@@ -31482,25 +31482,25 @@
         <v>1.42</v>
       </c>
       <c r="AN147">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="AO147">
-        <v>0.75</v>
+        <v>0.42</v>
       </c>
       <c r="AP147">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ147">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR147">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AS147">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AT147">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
       <c r="AU147">
         <v>4</v>
@@ -31688,25 +31688,25 @@
         <v>1.38</v>
       </c>
       <c r="AN148">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="AO148">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ148">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR148">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="AS148">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AT148">
-        <v>3.21</v>
+        <v>3.02</v>
       </c>
       <c r="AU148">
         <v>9</v>
@@ -31894,25 +31894,25 @@
         <v>1.57</v>
       </c>
       <c r="AN149">
-        <v>1.08</v>
+        <v>1.5</v>
       </c>
       <c r="AO149">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP149">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ149">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AS149">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT149">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="AU149">
         <v>3</v>
@@ -32100,25 +32100,25 @@
         <v>3</v>
       </c>
       <c r="AN150">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AO150">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AP150">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ150">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR150">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AS150">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AT150">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="AU150">
         <v>6</v>
@@ -32306,25 +32306,25 @@
         <v>2.35</v>
       </c>
       <c r="AN151">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AO151">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ151">
+        <v>1.44</v>
+      </c>
+      <c r="AR151">
         <v>1.72</v>
       </c>
-      <c r="AR151">
-        <v>1.55</v>
-      </c>
       <c r="AS151">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="AT151">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="AU151">
         <v>4</v>
@@ -32512,25 +32512,25 @@
         <v>1.11</v>
       </c>
       <c r="AN152">
-        <v>1.76</v>
+        <v>2.33</v>
       </c>
       <c r="AO152">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="AP152">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ152">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR152">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="AS152">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AT152">
-        <v>3.42</v>
+        <v>3.84</v>
       </c>
       <c r="AU152">
         <v>2</v>
@@ -32718,25 +32718,25 @@
         <v>1.21</v>
       </c>
       <c r="AN153">
-        <v>1.52</v>
+        <v>1.85</v>
       </c>
       <c r="AO153">
         <v>1.92</v>
       </c>
       <c r="AP153">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ153">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR153">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS153">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="AT153">
-        <v>2.76</v>
+        <v>2.57</v>
       </c>
       <c r="AU153">
         <v>5</v>
@@ -32924,25 +32924,25 @@
         <v>1.86</v>
       </c>
       <c r="AN154">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="AO154">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AP154">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ154">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR154">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AS154">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT154">
-        <v>2.57</v>
+        <v>2.51</v>
       </c>
       <c r="AU154">
         <v>7</v>
@@ -33130,25 +33130,25 @@
         <v>1.4</v>
       </c>
       <c r="AN155">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="AO155">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="AP155">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ155">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR155">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS155">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AT155">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="AU155">
         <v>4</v>
@@ -33336,25 +33336,25 @@
         <v>1.31</v>
       </c>
       <c r="AN156">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="AO156">
-        <v>1.64</v>
+        <v>1.92</v>
       </c>
       <c r="AP156">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ156">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR156">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AS156">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT156">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU156">
         <v>4</v>
@@ -33542,25 +33542,25 @@
         <v>1.89</v>
       </c>
       <c r="AN157">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AO157">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AP157">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ157">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR157">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AS157">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AT157">
-        <v>3.22</v>
+        <v>3.41</v>
       </c>
       <c r="AU157">
         <v>7</v>
@@ -33748,25 +33748,25 @@
         <v>1.9</v>
       </c>
       <c r="AN158">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="AO158">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ158">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR158">
-        <v>1.62</v>
+        <v>1.99</v>
       </c>
       <c r="AS158">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AT158">
-        <v>2.85</v>
+        <v>3.26</v>
       </c>
       <c r="AU158">
         <v>11</v>
@@ -33954,25 +33954,25 @@
         <v>2.38</v>
       </c>
       <c r="AN159">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="AO159">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="AP159">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ159">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR159">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="AS159">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AT159">
-        <v>3.23</v>
+        <v>3</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34160,25 +34160,25 @@
         <v>2.03</v>
       </c>
       <c r="AN160">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="AO160">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AP160">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ160">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR160">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AS160">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AT160">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU160">
         <v>3</v>
@@ -34366,25 +34366,25 @@
         <v>1.58</v>
       </c>
       <c r="AN161">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO161">
-        <v>1.15</v>
+        <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ161">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
       </c>
       <c r="AS161">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AT161">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="AU161">
         <v>9</v>
@@ -34572,25 +34572,25 @@
         <v>3.05</v>
       </c>
       <c r="AN162">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AO162">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="AP162">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ162">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR162">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="AS162">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AT162">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="AU162">
         <v>11</v>
@@ -34778,25 +34778,25 @@
         <v>1.32</v>
       </c>
       <c r="AN163">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="AO163">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="AP163">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR163">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="AS163">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AT163">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AU163">
         <v>9</v>
@@ -34984,25 +34984,25 @@
         <v>2.79</v>
       </c>
       <c r="AN164">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="AO164">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="AP164">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ164">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR164">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="AS164">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AT164">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="AU164">
         <v>7</v>
@@ -35190,25 +35190,25 @@
         <v>1.51</v>
       </c>
       <c r="AN165">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="AO165">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="AP165">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR165">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AS165">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="AT165">
-        <v>3.45</v>
+        <v>3.08</v>
       </c>
       <c r="AU165">
         <v>12</v>
@@ -35396,25 +35396,25 @@
         <v>1.95</v>
       </c>
       <c r="AN166">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="AO166">
-        <v>1.56</v>
+        <v>1.15</v>
       </c>
       <c r="AP166">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ166">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR166">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AS166">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AT166">
-        <v>2.62</v>
+        <v>2.86</v>
       </c>
       <c r="AU166">
         <v>10</v>
@@ -35602,25 +35602,25 @@
         <v>1.25</v>
       </c>
       <c r="AN167">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="AO167">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AP167">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ167">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR167">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="AS167">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT167">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="AU167">
         <v>4</v>
@@ -35808,25 +35808,25 @@
         <v>1.76</v>
       </c>
       <c r="AN168">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="AO168">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="AP168">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ168">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR168">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AS168">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT168">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AU168">
         <v>6</v>
@@ -36014,25 +36014,25 @@
         <v>1.33</v>
       </c>
       <c r="AN169">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="AO169">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="AP169">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ169">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR169">
-        <v>1.51</v>
+        <v>1.68</v>
       </c>
       <c r="AS169">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AT169">
-        <v>3.27</v>
+        <v>3.48</v>
       </c>
       <c r="AU169">
         <v>2</v>
@@ -36220,25 +36220,25 @@
         <v>1.59</v>
       </c>
       <c r="AN170">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="AO170">
-        <v>1.68</v>
+        <v>2.07</v>
       </c>
       <c r="AP170">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ170">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR170">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AS170">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AT170">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU170">
         <v>5</v>
@@ -36426,25 +36426,25 @@
         <v>1.39</v>
       </c>
       <c r="AN171">
-        <v>1.71</v>
+        <v>2.07</v>
       </c>
       <c r="AO171">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="AP171">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR171">
-        <v>1.66</v>
+        <v>2.07</v>
       </c>
       <c r="AS171">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="AT171">
-        <v>3.16</v>
+        <v>3.41</v>
       </c>
       <c r="AU171">
         <v>3</v>
@@ -36632,25 +36632,25 @@
         <v>1.4</v>
       </c>
       <c r="AN172">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AO172">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AP172">
+        <v>1.56</v>
+      </c>
+      <c r="AQ172">
         <v>1.25</v>
       </c>
-      <c r="AQ172">
-        <v>1.53</v>
-      </c>
       <c r="AR172">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AS172">
-        <v>1.86</v>
+        <v>1.7</v>
       </c>
       <c r="AT172">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU172">
         <v>0</v>
@@ -36838,25 +36838,25 @@
         <v>2</v>
       </c>
       <c r="AN173">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AO173">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="AP173">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ173">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR173">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AS173">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AT173">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AU173">
         <v>3</v>
@@ -37044,25 +37044,25 @@
         <v>1.59</v>
       </c>
       <c r="AN174">
-        <v>1.54</v>
+        <v>1.93</v>
       </c>
       <c r="AO174">
-        <v>1.21</v>
+        <v>0.93</v>
       </c>
       <c r="AP174">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR174">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AS174">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AT174">
-        <v>2.99</v>
+        <v>2.91</v>
       </c>
       <c r="AU174">
         <v>-1</v>
@@ -37250,25 +37250,25 @@
         <v>1.42</v>
       </c>
       <c r="AN175">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AO175">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="AP175">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ175">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR175">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="AS175">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AT175">
-        <v>3.22</v>
+        <v>3.51</v>
       </c>
       <c r="AU175">
         <v>8</v>
@@ -37456,25 +37456,25 @@
         <v>1.94</v>
       </c>
       <c r="AN176">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="AO176">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AP176">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ176">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR176">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS176">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AT176">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AU176">
         <v>7</v>
@@ -37662,25 +37662,25 @@
         <v>2.46</v>
       </c>
       <c r="AN177">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AO177">
-        <v>1.59</v>
+        <v>1.14</v>
       </c>
       <c r="AP177">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ177">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR177">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AS177">
         <v>1.19</v>
       </c>
       <c r="AT177">
-        <v>2.69</v>
+        <v>2.84</v>
       </c>
       <c r="AU177">
         <v>5</v>
@@ -37868,25 +37868,25 @@
         <v>2.04</v>
       </c>
       <c r="AN178">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="AO178">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="AP178">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ178">
+        <v>1.44</v>
+      </c>
+      <c r="AR178">
         <v>1.72</v>
       </c>
-      <c r="AR178">
-        <v>1.75</v>
-      </c>
       <c r="AS178">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="AT178">
-        <v>3.39</v>
+        <v>2.97</v>
       </c>
       <c r="AU178">
         <v>3</v>
@@ -38074,25 +38074,25 @@
         <v>1.39</v>
       </c>
       <c r="AN179">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="AO179">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="AP179">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ179">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR179">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AS179">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AT179">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="AU179">
         <v>2</v>
@@ -38280,25 +38280,25 @@
         <v>2.52</v>
       </c>
       <c r="AN180">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="AO180">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AP180">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ180">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR180">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="AS180">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT180">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AU180">
         <v>11</v>
@@ -38486,25 +38486,25 @@
         <v>1.33</v>
       </c>
       <c r="AN181">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO181">
-        <v>1.69</v>
+        <v>1.29</v>
       </c>
       <c r="AP181">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ181">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR181">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS181">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="AT181">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -38692,25 +38692,25 @@
         <v>1.25</v>
       </c>
       <c r="AN182">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="AO182">
-        <v>2.33</v>
+        <v>2.47</v>
       </c>
       <c r="AP182">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR182">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AS182">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AT182">
-        <v>3.55</v>
+        <v>3.69</v>
       </c>
       <c r="AU182">
         <v>3</v>
@@ -38898,25 +38898,25 @@
         <v>1.27</v>
       </c>
       <c r="AN183">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AO183">
-        <v>1.8</v>
+        <v>1.47</v>
       </c>
       <c r="AP183">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ183">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR183">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AS183">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="AT183">
-        <v>2.83</v>
+        <v>2.49</v>
       </c>
       <c r="AU183">
         <v>6</v>
@@ -39104,25 +39104,25 @@
         <v>2.39</v>
       </c>
       <c r="AN184">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AO184">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="AP184">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ184">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR184">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="AS184">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AT184">
-        <v>3.28</v>
+        <v>3.5</v>
       </c>
       <c r="AU184">
         <v>5</v>
@@ -39310,25 +39310,25 @@
         <v>2.55</v>
       </c>
       <c r="AN185">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="AO185">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="AP185">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ185">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR185">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS185">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AT185">
-        <v>2.59</v>
+        <v>2.45</v>
       </c>
       <c r="AU185">
         <v>6</v>
@@ -39516,25 +39516,25 @@
         <v>1.45</v>
       </c>
       <c r="AN186">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AO186">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AP186">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ186">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR186">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS186">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AT186">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AU186">
         <v>6</v>
@@ -39722,25 +39722,25 @@
         <v>1.61</v>
       </c>
       <c r="AN187">
+        <v>2.07</v>
+      </c>
+      <c r="AO187">
         <v>1.73</v>
       </c>
-      <c r="AO187">
-        <v>1.8</v>
-      </c>
       <c r="AP187">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ187">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR187">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="AS187">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT187">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="AU187">
         <v>3</v>
@@ -39928,25 +39928,25 @@
         <v>2.45</v>
       </c>
       <c r="AN188">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="AO188">
-        <v>1.19</v>
+        <v>0.87</v>
       </c>
       <c r="AP188">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ188">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR188">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AS188">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AT188">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="AU188">
         <v>7</v>
@@ -40134,25 +40134,25 @@
         <v>1.64</v>
       </c>
       <c r="AN189">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="AO189">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="AP189">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ189">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR189">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AS189">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AT189">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="AU189">
         <v>4</v>
@@ -40340,25 +40340,25 @@
         <v>3.34</v>
       </c>
       <c r="AN190">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="AO190">
-        <v>1.52</v>
+        <v>1.07</v>
       </c>
       <c r="AP190">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ190">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR190">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AS190">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AT190">
-        <v>2.91</v>
+        <v>2.85</v>
       </c>
       <c r="AU190">
         <v>13</v>
@@ -40546,25 +40546,25 @@
         <v>1.15</v>
       </c>
       <c r="AN191">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="AO191">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AP191">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ191">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR191">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AS191">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AT191">
-        <v>3.11</v>
+        <v>3.06</v>
       </c>
       <c r="AU191">
         <v>8</v>
@@ -40752,25 +40752,25 @@
         <v>1.87</v>
       </c>
       <c r="AN192">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="AO192">
+        <v>0.93</v>
+      </c>
+      <c r="AP192">
+        <v>1.38</v>
+      </c>
+      <c r="AQ192">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR192">
+        <v>1.38</v>
+      </c>
+      <c r="AS192">
         <v>1.26</v>
       </c>
-      <c r="AP192">
-        <v>1.59</v>
-      </c>
-      <c r="AQ192">
-        <v>1.25</v>
-      </c>
-      <c r="AR192">
-        <v>1.39</v>
-      </c>
-      <c r="AS192">
-        <v>1.29</v>
-      </c>
       <c r="AT192">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="AU192">
         <v>8</v>
@@ -40958,25 +40958,25 @@
         <v>1.51</v>
       </c>
       <c r="AN193">
-        <v>1.77</v>
+        <v>2.13</v>
       </c>
       <c r="AO193">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="AP193">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ193">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR193">
-        <v>1.65</v>
+        <v>2.01</v>
       </c>
       <c r="AS193">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AT193">
-        <v>3.11</v>
+        <v>3.24</v>
       </c>
       <c r="AU193">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2030,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ4">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ7">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2851,22 +2851,22 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR8">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.53</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>8</v>
@@ -3054,25 +3054,25 @@
         <v>2</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ9">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR9">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -3260,25 +3260,25 @@
         <v>2.7</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR10">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>10</v>
@@ -3466,25 +3466,25 @@
         <v>3.68</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR11">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>3.23</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>7</v>
@@ -3678,19 +3678,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ12">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR12">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>8</v>
@@ -3878,25 +3878,25 @@
         <v>1.65</v>
       </c>
       <c r="AN13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
-        <v>2.11</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -4084,25 +4084,25 @@
         <v>1.47</v>
       </c>
       <c r="AN14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ14">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR14">
-        <v>0.79</v>
+        <v>0.55</v>
       </c>
       <c r="AS14">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT14">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="AU14">
         <v>3</v>
@@ -4293,22 +4293,22 @@
         <v>3</v>
       </c>
       <c r="AO15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR15">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AS15">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
       <c r="AT15">
-        <v>3.84</v>
+        <v>3.46</v>
       </c>
       <c r="AU15">
         <v>9</v>
@@ -4496,25 +4496,25 @@
         <v>1.18</v>
       </c>
       <c r="AN16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR16">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AS16">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="AT16">
-        <v>3.06</v>
+        <v>3.34</v>
       </c>
       <c r="AU16">
         <v>3</v>
@@ -4702,25 +4702,25 @@
         <v>1.7</v>
       </c>
       <c r="AN17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO17">
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
-        <v>1.74</v>
+        <v>2.42</v>
       </c>
       <c r="AS17">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT17">
-        <v>3.29</v>
+        <v>3.9</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4908,25 +4908,25 @@
         <v>1.28</v>
       </c>
       <c r="AN18">
+        <v>3</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1.94</v>
+      </c>
+      <c r="AQ18">
         <v>1.5</v>
       </c>
-      <c r="AO18">
-        <v>2</v>
-      </c>
-      <c r="AP18">
-        <v>1.47</v>
-      </c>
-      <c r="AQ18">
-        <v>1.81</v>
-      </c>
       <c r="AR18">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="AS18">
-        <v>1.72</v>
+        <v>1.23</v>
       </c>
       <c r="AT18">
-        <v>3.12</v>
+        <v>2.89</v>
       </c>
       <c r="AU18">
         <v>4</v>
@@ -5114,25 +5114,25 @@
         <v>1.57</v>
       </c>
       <c r="AN19">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AS19">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT19">
-        <v>2.53</v>
+        <v>2.33</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -5320,25 +5320,25 @@
         <v>1.7</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ20">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR20">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AS20">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="AT20">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
       <c r="AU20">
         <v>5</v>
@@ -5526,25 +5526,25 @@
         <v>1.47</v>
       </c>
       <c r="AN21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR21">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AS21">
-        <v>1.65</v>
+        <v>1.06</v>
       </c>
       <c r="AT21">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="AU21">
         <v>5</v>
@@ -5732,25 +5732,25 @@
         <v>1.78</v>
       </c>
       <c r="AN22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO22">
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ22">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR22">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="AS22">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="AT22">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="AU22">
         <v>9</v>
@@ -5938,25 +5938,25 @@
         <v>1.15</v>
       </c>
       <c r="AN23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ23">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
-        <v>1.45</v>
+        <v>2.11</v>
       </c>
       <c r="AS23">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AT23">
-        <v>3.25</v>
+        <v>3.71</v>
       </c>
       <c r="AU23">
         <v>5</v>
@@ -6144,25 +6144,25 @@
         <v>1.44</v>
       </c>
       <c r="AN24">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO24">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ24">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR24">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="AS24">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AT24">
-        <v>2.09</v>
+        <v>2.44</v>
       </c>
       <c r="AU24">
         <v>3</v>
@@ -6350,25 +6350,25 @@
         <v>2.65</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP25">
+        <v>2.13</v>
+      </c>
+      <c r="AQ25">
         <v>1.81</v>
       </c>
-      <c r="AQ25">
-        <v>1.59</v>
-      </c>
       <c r="AR25">
-        <v>1.71</v>
+        <v>2.22</v>
       </c>
       <c r="AS25">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>3.12</v>
+        <v>3.69</v>
       </c>
       <c r="AU25">
         <v>3</v>
@@ -6556,25 +6556,25 @@
         <v>1.95</v>
       </c>
       <c r="AN26">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR26">
-        <v>1.97</v>
+        <v>2.17</v>
       </c>
       <c r="AS26">
         <v>1.6</v>
       </c>
       <c r="AT26">
-        <v>3.57</v>
+        <v>3.77</v>
       </c>
       <c r="AU26">
         <v>9</v>
@@ -6762,25 +6762,25 @@
         <v>2.25</v>
       </c>
       <c r="AN27">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AO27">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR27">
-        <v>1.39</v>
+        <v>1.94</v>
       </c>
       <c r="AS27">
-        <v>1.52</v>
+        <v>1.13</v>
       </c>
       <c r="AT27">
-        <v>2.91</v>
+        <v>3.07</v>
       </c>
       <c r="AU27">
         <v>8</v>
@@ -6968,25 +6968,25 @@
         <v>1.37</v>
       </c>
       <c r="AN28">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO28">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR28">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AS28">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="AT28">
-        <v>2.92</v>
+        <v>3.16</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7174,25 +7174,25 @@
         <v>1.83</v>
       </c>
       <c r="AN29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR29">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AS29">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="AT29">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AU29">
         <v>3</v>
@@ -7380,25 +7380,25 @@
         <v>1.83</v>
       </c>
       <c r="AN30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO30">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR30">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="AT30">
-        <v>2.89</v>
+        <v>2.26</v>
       </c>
       <c r="AU30">
         <v>5</v>
@@ -7586,25 +7586,25 @@
         <v>2</v>
       </c>
       <c r="AN31">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AS31">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="AT31">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7792,25 +7792,25 @@
         <v>1.3</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO32">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ32">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
       </c>
       <c r="AS32">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="AT32">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="AU32">
         <v>7</v>
@@ -7998,25 +7998,25 @@
         <v>1.96</v>
       </c>
       <c r="AN33">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ33">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AS33">
-        <v>1.5</v>
+        <v>0.84</v>
       </c>
       <c r="AT33">
-        <v>3.25</v>
+        <v>2.54</v>
       </c>
       <c r="AU33">
         <v>4</v>
@@ -8204,25 +8204,25 @@
         <v>2.43</v>
       </c>
       <c r="AN34">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO34">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ34">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR34">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="AS34">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT34">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="AU34">
         <v>9</v>
@@ -8410,25 +8410,25 @@
         <v>2.05</v>
       </c>
       <c r="AN35">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AO35">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR35">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="AS35">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT35">
-        <v>3.08</v>
+        <v>3.1</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8616,25 +8616,25 @@
         <v>1.2</v>
       </c>
       <c r="AN36">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AO36">
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ36">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR36">
-        <v>1.03</v>
+        <v>0.82</v>
       </c>
       <c r="AS36">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AT36">
-        <v>2.74</v>
+        <v>2.61</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -8822,25 +8822,25 @@
         <v>1.61</v>
       </c>
       <c r="AN37">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR37">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="AS37">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT37">
-        <v>2.85</v>
+        <v>3.38</v>
       </c>
       <c r="AU37">
         <v>13</v>
@@ -9028,25 +9028,25 @@
         <v>1.7</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO38">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ38">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR38">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AS38">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="AT38">
-        <v>2.65</v>
+        <v>3.12</v>
       </c>
       <c r="AU38">
         <v>4</v>
@@ -9234,25 +9234,25 @@
         <v>1.45</v>
       </c>
       <c r="AN39">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO39">
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR39">
-        <v>1.42</v>
+        <v>1.78</v>
       </c>
       <c r="AS39">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="AT39">
-        <v>3.23</v>
+        <v>3.51</v>
       </c>
       <c r="AU39">
         <v>7</v>
@@ -9440,25 +9440,25 @@
         <v>1.33</v>
       </c>
       <c r="AN40">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AO40">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ40">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
-        <v>1.51</v>
+        <v>1.92</v>
       </c>
       <c r="AS40">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="AT40">
-        <v>3.25</v>
+        <v>3.54</v>
       </c>
       <c r="AU40">
         <v>2</v>
@@ -9646,25 +9646,25 @@
         <v>1.47</v>
       </c>
       <c r="AN41">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO41">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="AP41">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR41">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AS41">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>2.95</v>
+        <v>2.64</v>
       </c>
       <c r="AU41">
         <v>2</v>
@@ -9852,25 +9852,25 @@
         <v>2.05</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR42">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AS42">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AT42">
-        <v>2.83</v>
+        <v>2.57</v>
       </c>
       <c r="AU42">
         <v>9</v>
@@ -10058,25 +10058,25 @@
         <v>1.28</v>
       </c>
       <c r="AN43">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AO43">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ43">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR43">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="AS43">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="AT43">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -10264,25 +10264,25 @@
         <v>1.2</v>
       </c>
       <c r="AN44">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO44">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ44">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="AS44">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AT44">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU44">
         <v>2</v>
@@ -10470,25 +10470,25 @@
         <v>2.7</v>
       </c>
       <c r="AN45">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO45">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ45">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="AS45">
-        <v>1.66</v>
+        <v>1.07</v>
       </c>
       <c r="AT45">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="AU45">
         <v>4</v>
@@ -10676,25 +10676,25 @@
         <v>2.05</v>
       </c>
       <c r="AN46">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ46">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR46">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AS46">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AT46">
-        <v>2.97</v>
+        <v>2.81</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10882,25 +10882,25 @@
         <v>1.25</v>
       </c>
       <c r="AN47">
-        <v>1.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO47">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ47">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR47">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AS47">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT47">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11088,25 +11088,25 @@
         <v>2.05</v>
       </c>
       <c r="AN48">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AO48">
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ48">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR48">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="AS48">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="AT48">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="AU48">
         <v>6</v>
@@ -11294,25 +11294,25 @@
         <v>2.1</v>
       </c>
       <c r="AN49">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AO49">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR49">
-        <v>1.56</v>
+        <v>2.11</v>
       </c>
       <c r="AS49">
-        <v>1.08</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT49">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="AU49">
         <v>16</v>
@@ -11500,25 +11500,25 @@
         <v>1.66</v>
       </c>
       <c r="AN50">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="AO50">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ50">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR50">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="AS50">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT50">
-        <v>3.11</v>
+        <v>3.37</v>
       </c>
       <c r="AU50">
         <v>6</v>
@@ -11706,25 +11706,25 @@
         <v>2.2</v>
       </c>
       <c r="AN51">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AO51">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ51">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR51">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AS51">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="AT51">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="AU51">
         <v>4</v>
@@ -11912,25 +11912,25 @@
         <v>2.2</v>
       </c>
       <c r="AN52">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO52">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR52">
-        <v>2.03</v>
+        <v>2.16</v>
       </c>
       <c r="AS52">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AT52">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="AU52">
         <v>12</v>
@@ -12118,25 +12118,25 @@
         <v>1.12</v>
       </c>
       <c r="AN53">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ53">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR53">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="AS53">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="AT53">
-        <v>3.09</v>
+        <v>3.41</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12324,25 +12324,25 @@
         <v>1.75</v>
       </c>
       <c r="AN54">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR54">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="AS54">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="AT54">
-        <v>3.16</v>
+        <v>3.61</v>
       </c>
       <c r="AU54">
         <v>4</v>
@@ -12530,25 +12530,25 @@
         <v>1.94</v>
       </c>
       <c r="AN55">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="AO55">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ55">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR55">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AS55">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AT55">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="AU55">
         <v>5</v>
@@ -12736,25 +12736,25 @@
         <v>1.25</v>
       </c>
       <c r="AN56">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AO56">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ56">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR56">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AS56">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="AT56">
-        <v>2.84</v>
+        <v>2.12</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12942,25 +12942,25 @@
         <v>1.63</v>
       </c>
       <c r="AN57">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="AO57">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ57">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR57">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AS57">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="AT57">
-        <v>2.38</v>
+        <v>2.53</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13148,25 +13148,25 @@
         <v>1.8</v>
       </c>
       <c r="AN58">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AO58">
-        <v>2.11</v>
+        <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ58">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR58">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AS58">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="AT58">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13354,25 +13354,25 @@
         <v>2.4</v>
       </c>
       <c r="AN59">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AO59">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ59">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AS59">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT59">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13560,25 +13560,25 @@
         <v>1.42</v>
       </c>
       <c r="AN60">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AO60">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR60">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AS60">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="AT60">
-        <v>3.04</v>
+        <v>3.22</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -13766,25 +13766,25 @@
         <v>1.8</v>
       </c>
       <c r="AN61">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AO61">
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ61">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR61">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="AS61">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AT61">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="AU61">
         <v>5</v>
@@ -13972,25 +13972,25 @@
         <v>1.42</v>
       </c>
       <c r="AN62">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AO62">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR62">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AS62">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="AT62">
-        <v>2.61</v>
+        <v>2.33</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -14178,25 +14178,25 @@
         <v>1.38</v>
       </c>
       <c r="AN63">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="AO63">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AP63">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
-        <v>1.68</v>
+        <v>2.28</v>
       </c>
       <c r="AS63">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AT63">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="AU63">
         <v>15</v>
@@ -14384,25 +14384,25 @@
         <v>2.5</v>
       </c>
       <c r="AN64">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR64">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="AS64">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT64">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14590,25 +14590,25 @@
         <v>2.3</v>
       </c>
       <c r="AN65">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="AO65">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>2.07</v>
+        <v>2.21</v>
       </c>
       <c r="AS65">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="AT65">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="AU65">
         <v>8</v>
@@ -14796,25 +14796,25 @@
         <v>1.5</v>
       </c>
       <c r="AN66">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO66">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ66">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR66">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AS66">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="AT66">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="AU66">
         <v>2</v>
@@ -15002,22 +15002,22 @@
         <v>1.95</v>
       </c>
       <c r="AN67">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AO67">
-        <v>1.64</v>
+        <v>2.17</v>
       </c>
       <c r="AP67">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR67">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="AS67">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AT67">
         <v>3.44</v>
@@ -15208,25 +15208,25 @@
         <v>3.1</v>
       </c>
       <c r="AN68">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AO68">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ68">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR68">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="AS68">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AT68">
-        <v>2.57</v>
+        <v>2.84</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15414,25 +15414,25 @@
         <v>1.5</v>
       </c>
       <c r="AN69">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="AS69">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AT69">
-        <v>2.46</v>
+        <v>2.53</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15620,25 +15620,25 @@
         <v>1.47</v>
       </c>
       <c r="AN70">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="AO70">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ70">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR70">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AS70">
-        <v>1.79</v>
+        <v>1.07</v>
       </c>
       <c r="AT70">
-        <v>3.05</v>
+        <v>2.39</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15826,25 +15826,25 @@
         <v>1.43</v>
       </c>
       <c r="AN71">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="AO71">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="AP71">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ71">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="AS71">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AT71">
-        <v>3.32</v>
+        <v>3.7</v>
       </c>
       <c r="AU71">
         <v>9</v>
@@ -16032,25 +16032,25 @@
         <v>3.6</v>
       </c>
       <c r="AN72">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AO72">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR72">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AS72">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AT72">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU72">
         <v>9</v>
@@ -16238,25 +16238,25 @@
         <v>3.5</v>
       </c>
       <c r="AN73">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="AO73">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ73">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR73">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AS73">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AT73">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16444,25 +16444,25 @@
         <v>1.2</v>
       </c>
       <c r="AN74">
-        <v>0.58</v>
+        <v>0.8</v>
       </c>
       <c r="AO74">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR74">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="AS74">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AT74">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16653,22 +16653,22 @@
         <v>0.33</v>
       </c>
       <c r="AO75">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ75">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="AS75">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="AT75">
-        <v>2.91</v>
+        <v>2.67</v>
       </c>
       <c r="AU75">
         <v>2</v>
@@ -16856,25 +16856,25 @@
         <v>1.2</v>
       </c>
       <c r="AN76">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>2.42</v>
+        <v>2.17</v>
       </c>
       <c r="AP76">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR76">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AT76">
-        <v>2.97</v>
+        <v>3.17</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17062,25 +17062,25 @@
         <v>1.45</v>
       </c>
       <c r="AN77">
+        <v>1.67</v>
+      </c>
+      <c r="AO77">
+        <v>0.4</v>
+      </c>
+      <c r="AP77">
+        <v>1.56</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.14</v>
+      </c>
+      <c r="AS77">
         <v>1.17</v>
       </c>
-      <c r="AO77">
-        <v>1.08</v>
-      </c>
-      <c r="AP77">
-        <v>1.25</v>
-      </c>
-      <c r="AQ77">
-        <v>1.47</v>
-      </c>
-      <c r="AR77">
-        <v>1.11</v>
-      </c>
-      <c r="AS77">
-        <v>1.27</v>
-      </c>
       <c r="AT77">
-        <v>2.38</v>
+        <v>2.31</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17268,25 +17268,25 @@
         <v>3.1</v>
       </c>
       <c r="AN78">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AO78">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AP78">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ78">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR78">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AS78">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AT78">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="AU78">
         <v>5</v>
@@ -17474,25 +17474,25 @@
         <v>1.55</v>
       </c>
       <c r="AN79">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="AO79">
+        <v>1.2</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR79">
+        <v>2.38</v>
+      </c>
+      <c r="AS79">
         <v>1.92</v>
       </c>
-      <c r="AP79">
-        <v>1.72</v>
-      </c>
-      <c r="AQ79">
-        <v>1.16</v>
-      </c>
-      <c r="AR79">
-        <v>1.75</v>
-      </c>
-      <c r="AS79">
-        <v>2.01</v>
-      </c>
       <c r="AT79">
-        <v>3.76</v>
+        <v>4.3</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17680,25 +17680,25 @@
         <v>1.68</v>
       </c>
       <c r="AN80">
-        <v>1.85</v>
+        <v>2.17</v>
       </c>
       <c r="AO80">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ80">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
       <c r="AS80">
-        <v>1.75</v>
+        <v>1.12</v>
       </c>
       <c r="AT80">
-        <v>3.46</v>
+        <v>3.07</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17886,25 +17886,25 @@
         <v>1.2</v>
       </c>
       <c r="AN81">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="AO81">
-        <v>1.77</v>
+        <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ81">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR81">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AS81">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AT81">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -18092,25 +18092,25 @@
         <v>2.42</v>
       </c>
       <c r="AN82">
-        <v>1.46</v>
+        <v>0.83</v>
       </c>
       <c r="AO82">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR82">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AS82">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT82">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18298,25 +18298,25 @@
         <v>2.84</v>
       </c>
       <c r="AN83">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ83">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR83">
-        <v>1.45</v>
+        <v>1.68</v>
       </c>
       <c r="AS83">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT83">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AU83">
         <v>9</v>
@@ -18504,25 +18504,25 @@
         <v>3.25</v>
       </c>
       <c r="AN84">
-        <v>2.46</v>
+        <v>2.67</v>
       </c>
       <c r="AO84">
-        <v>1.31</v>
+        <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ84">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR84">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AS84">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="AT84">
-        <v>2.79</v>
+        <v>2.65</v>
       </c>
       <c r="AU84">
         <v>5</v>
@@ -18710,25 +18710,25 @@
         <v>1.22</v>
       </c>
       <c r="AN85">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="AO85">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="AP85">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR85">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AS85">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AT85">
-        <v>2.73</v>
+        <v>2.71</v>
       </c>
       <c r="AU85">
         <v>3</v>
@@ -18916,25 +18916,25 @@
         <v>1.2</v>
       </c>
       <c r="AN86">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AO86">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AP86">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ86">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS86">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="AT86">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -19122,25 +19122,25 @@
         <v>3.4</v>
       </c>
       <c r="AN87">
-        <v>1.71</v>
+        <v>1.86</v>
       </c>
       <c r="AO87">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="AP87">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ87">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR87">
-        <v>1.54</v>
+        <v>1.82</v>
       </c>
       <c r="AS87">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AT87">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19328,25 +19328,25 @@
         <v>1.44</v>
       </c>
       <c r="AN88">
-        <v>1.21</v>
+        <v>1.86</v>
       </c>
       <c r="AO88">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AP88">
+        <v>1.56</v>
+      </c>
+      <c r="AQ88">
+        <v>1.81</v>
+      </c>
+      <c r="AR88">
+        <v>1.18</v>
+      </c>
+      <c r="AS88">
         <v>1.25</v>
       </c>
-      <c r="AQ88">
-        <v>1.59</v>
-      </c>
-      <c r="AR88">
-        <v>1.16</v>
-      </c>
-      <c r="AS88">
-        <v>1.34</v>
-      </c>
       <c r="AT88">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19534,25 +19534,25 @@
         <v>1.08</v>
       </c>
       <c r="AN89">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="AO89">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AP89">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ89">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR89">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AS89">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="AT89">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19740,25 +19740,25 @@
         <v>3.2</v>
       </c>
       <c r="AN90">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="AO90">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR90">
-        <v>1.68</v>
+        <v>2.29</v>
       </c>
       <c r="AS90">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="AT90">
-        <v>2.79</v>
+        <v>3.51</v>
       </c>
       <c r="AU90">
         <v>10</v>
@@ -19946,25 +19946,25 @@
         <v>1.83</v>
       </c>
       <c r="AN91">
-        <v>1.86</v>
+        <v>2.43</v>
       </c>
       <c r="AO91">
-        <v>1.93</v>
+        <v>2.43</v>
       </c>
       <c r="AP91">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AS91">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AT91">
-        <v>3.59</v>
+        <v>3.72</v>
       </c>
       <c r="AU91">
         <v>7</v>
@@ -20152,25 +20152,25 @@
         <v>1.75</v>
       </c>
       <c r="AN92">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="AO92">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AP92">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR92">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AT92">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20358,25 +20358,25 @@
         <v>1.55</v>
       </c>
       <c r="AN93">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO93">
-        <v>1.73</v>
+        <v>1.29</v>
       </c>
       <c r="AP93">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ93">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR93">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AS93">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AT93">
-        <v>3.65</v>
+        <v>3.78</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20564,25 +20564,25 @@
         <v>1.3</v>
       </c>
       <c r="AN94">
-        <v>1.67</v>
+        <v>1.14</v>
       </c>
       <c r="AO94">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AP94">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AS94">
-        <v>1.55</v>
+        <v>1.26</v>
       </c>
       <c r="AT94">
-        <v>2.86</v>
+        <v>2.69</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20770,25 +20770,25 @@
         <v>1.22</v>
       </c>
       <c r="AN95">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="AO95">
-        <v>2.13</v>
+        <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ95">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AS95">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="AT95">
-        <v>3.03</v>
+        <v>2.54</v>
       </c>
       <c r="AU95">
         <v>3</v>
@@ -20976,25 +20976,25 @@
         <v>2.75</v>
       </c>
       <c r="AN96">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="AO96">
+        <v>0.57</v>
+      </c>
+      <c r="AP96">
+        <v>1.94</v>
+      </c>
+      <c r="AQ96">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR96">
+        <v>1.53</v>
+      </c>
+      <c r="AS96">
         <v>1.13</v>
       </c>
-      <c r="AP96">
-        <v>1.78</v>
-      </c>
-      <c r="AQ96">
-        <v>1.25</v>
-      </c>
-      <c r="AR96">
-        <v>1.56</v>
-      </c>
-      <c r="AS96">
-        <v>1.21</v>
-      </c>
       <c r="AT96">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21182,25 +21182,25 @@
         <v>3.4</v>
       </c>
       <c r="AN97">
-        <v>2.53</v>
+        <v>2.71</v>
       </c>
       <c r="AO97">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ97">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AS97">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT97">
-        <v>2.93</v>
+        <v>2.81</v>
       </c>
       <c r="AU97">
         <v>10</v>
@@ -21388,25 +21388,25 @@
         <v>1.45</v>
       </c>
       <c r="AN98">
-        <v>2.19</v>
+        <v>2.63</v>
       </c>
       <c r="AO98">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR98">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="AS98">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AT98">
-        <v>3.33</v>
+        <v>3.89</v>
       </c>
       <c r="AU98">
         <v>10</v>
@@ -21594,25 +21594,25 @@
         <v>1.44</v>
       </c>
       <c r="AN99">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AO99">
+        <v>0.5</v>
+      </c>
+      <c r="AP99">
         <v>1.06</v>
       </c>
-      <c r="AP99">
-        <v>0.84</v>
-      </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR99">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AS99">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT99">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="AU99">
         <v>5</v>
@@ -21800,25 +21800,25 @@
         <v>1.28</v>
       </c>
       <c r="AN100">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AO100">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="AP100">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR100">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="AS100">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AT100">
-        <v>3.68</v>
+        <v>3.76</v>
       </c>
       <c r="AU100">
         <v>2</v>
@@ -22006,25 +22006,25 @@
         <v>1.56</v>
       </c>
       <c r="AN101">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="AO101">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AP101">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ101">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AS101">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AT101">
-        <v>2.38</v>
+        <v>2.53</v>
       </c>
       <c r="AU101">
         <v>4</v>
@@ -22212,25 +22212,25 @@
         <v>1.47</v>
       </c>
       <c r="AN102">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AO102">
-        <v>1.63</v>
+        <v>2.13</v>
       </c>
       <c r="AP102">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ102">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR102">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AS102">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AT102">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -22418,25 +22418,25 @@
         <v>2.1</v>
       </c>
       <c r="AN103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO103">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AP103">
+        <v>2.13</v>
+      </c>
+      <c r="AQ103">
+        <v>1.25</v>
+      </c>
+      <c r="AR103">
         <v>1.81</v>
       </c>
-      <c r="AQ103">
-        <v>1.53</v>
-      </c>
-      <c r="AR103">
-        <v>1.51</v>
-      </c>
       <c r="AS103">
-        <v>1.66</v>
+        <v>1.55</v>
       </c>
       <c r="AT103">
-        <v>3.17</v>
+        <v>3.36</v>
       </c>
       <c r="AU103">
         <v>2</v>
@@ -22624,25 +22624,25 @@
         <v>1.29</v>
       </c>
       <c r="AN104">
-        <v>1.06</v>
+        <v>1.63</v>
       </c>
       <c r="AO104">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR104">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AS104">
         <v>1.89</v>
       </c>
       <c r="AT104">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="AU104">
         <v>9</v>
@@ -22830,25 +22830,25 @@
         <v>1.47</v>
       </c>
       <c r="AN105">
-        <v>0.65</v>
+        <v>0.88</v>
       </c>
       <c r="AO105">
-        <v>1.24</v>
+        <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR105">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AS105">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AT105">
-        <v>2.35</v>
+        <v>2.24</v>
       </c>
       <c r="AU105">
         <v>5</v>
@@ -23036,25 +23036,25 @@
         <v>1.53</v>
       </c>
       <c r="AN106">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="AO106">
-        <v>2.24</v>
+        <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR106">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AS106">
-        <v>1.74</v>
+        <v>1.14</v>
       </c>
       <c r="AT106">
-        <v>3.12</v>
+        <v>2.59</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -23242,25 +23242,25 @@
         <v>2.75</v>
       </c>
       <c r="AN107">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AO107">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="AP107">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ107">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR107">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AS107">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AT107">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="AU107">
         <v>10</v>
@@ -23448,25 +23448,25 @@
         <v>3.2</v>
       </c>
       <c r="AN108">
+        <v>1.63</v>
+      </c>
+      <c r="AO108">
+        <v>0.25</v>
+      </c>
+      <c r="AP108">
         <v>1.94</v>
       </c>
-      <c r="AO108">
-        <v>0.35</v>
-      </c>
-      <c r="AP108">
-        <v>1.78</v>
-      </c>
       <c r="AQ108">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR108">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AS108">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AT108">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="AU108">
         <v>6</v>
@@ -23654,25 +23654,25 @@
         <v>2.38</v>
       </c>
       <c r="AN109">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AO109">
+        <v>1.5</v>
+      </c>
+      <c r="AP109">
+        <v>2.25</v>
+      </c>
+      <c r="AQ109">
+        <v>1.5</v>
+      </c>
+      <c r="AR109">
         <v>1.71</v>
       </c>
-      <c r="AP109">
-        <v>2.28</v>
-      </c>
-      <c r="AQ109">
-        <v>1.81</v>
-      </c>
-      <c r="AR109">
-        <v>1.75</v>
-      </c>
       <c r="AS109">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="AT109">
-        <v>3.22</v>
+        <v>2.92</v>
       </c>
       <c r="AU109">
         <v>8</v>
@@ -23860,25 +23860,25 @@
         <v>1.3</v>
       </c>
       <c r="AN110">
-        <v>2.11</v>
+        <v>2.67</v>
       </c>
       <c r="AO110">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR110">
-        <v>1.67</v>
+        <v>2.27</v>
       </c>
       <c r="AS110">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AT110">
-        <v>3.45</v>
+        <v>4.06</v>
       </c>
       <c r="AU110">
         <v>2</v>
@@ -24066,25 +24066,25 @@
         <v>1.27</v>
       </c>
       <c r="AN111">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="AO111">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AP111">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ111">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR111">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AS111">
         <v>1.32</v>
       </c>
       <c r="AT111">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="AU111">
         <v>6</v>
@@ -24272,25 +24272,25 @@
         <v>2.5</v>
       </c>
       <c r="AN112">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AO112">
-        <v>1.17</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP112">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR112">
-        <v>1.44</v>
+        <v>1.69</v>
       </c>
       <c r="AS112">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AT112">
-        <v>2.73</v>
+        <v>2.9</v>
       </c>
       <c r="AU112">
         <v>7</v>
@@ -24478,25 +24478,25 @@
         <v>2.65</v>
       </c>
       <c r="AN113">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AO113">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="AP113">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR113">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AS113">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AT113">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="AU113">
         <v>7</v>
@@ -24684,25 +24684,25 @@
         <v>1.25</v>
       </c>
       <c r="AN114">
-        <v>1.22</v>
+        <v>1.89</v>
       </c>
       <c r="AO114">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AP114">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ114">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR114">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AS114">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AT114">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="AU114">
         <v>3</v>
@@ -24890,25 +24890,25 @@
         <v>2.58</v>
       </c>
       <c r="AN115">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="AO115">
-        <v>0.67</v>
+        <v>0.44</v>
       </c>
       <c r="AP115">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ115">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR115">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="AS115">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AT115">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="AU115">
         <v>12</v>
@@ -25096,25 +25096,25 @@
         <v>1.5</v>
       </c>
       <c r="AN116">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AO116">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AS116">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT116">
-        <v>3.17</v>
+        <v>2.97</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25302,25 +25302,25 @@
         <v>1.3</v>
       </c>
       <c r="AN117">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AO117">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ117">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR117">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AS117">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AT117">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25508,25 +25508,25 @@
         <v>1.35</v>
       </c>
       <c r="AN118">
-        <v>1.11</v>
+        <v>1.78</v>
       </c>
       <c r="AO118">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AQ118">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AR118">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AS118">
-        <v>1.63</v>
+        <v>1.07</v>
       </c>
       <c r="AT118">
-        <v>2.91</v>
+        <v>2.45</v>
       </c>
       <c r="AU118">
         <v>4</v>
@@ -25714,25 +25714,25 @@
         <v>1.57</v>
       </c>
       <c r="AN119">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
       <c r="AO119">
-        <v>1.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP119">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ119">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR119">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AS119">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AT119">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -25920,25 +25920,25 @@
         <v>4.75</v>
       </c>
       <c r="AN120">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AO120">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="AP120">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ120">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR120">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AS120">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="AT120">
-        <v>3.12</v>
+        <v>2.94</v>
       </c>
       <c r="AU120">
         <v>8</v>
@@ -26126,25 +26126,25 @@
         <v>1.83</v>
       </c>
       <c r="AN121">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="AO121">
+        <v>1.33</v>
+      </c>
+      <c r="AP121">
+        <v>1.94</v>
+      </c>
+      <c r="AQ121">
+        <v>1.5</v>
+      </c>
+      <c r="AR121">
         <v>1.68</v>
       </c>
-      <c r="AP121">
-        <v>1.78</v>
-      </c>
-      <c r="AQ121">
-        <v>1.81</v>
-      </c>
-      <c r="AR121">
-        <v>1.58</v>
-      </c>
       <c r="AS121">
-        <v>1.47</v>
+        <v>1.19</v>
       </c>
       <c r="AT121">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="AU121">
         <v>6</v>
@@ -26332,25 +26332,25 @@
         <v>1.55</v>
       </c>
       <c r="AN122">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="AO122">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR122">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AS122">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AT122">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26538,25 +26538,25 @@
         <v>2.46</v>
       </c>
       <c r="AN123">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="AO123">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AP123">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="AR123">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="AS123">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AT123">
-        <v>2.9</v>
+        <v>3.49</v>
       </c>
       <c r="AU123">
         <v>4</v>
@@ -26744,25 +26744,25 @@
         <v>2.15</v>
       </c>
       <c r="AN124">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AO124">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AP124">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="AR124">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="AS124">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="AU124">
         <v>7</v>
@@ -26950,25 +26950,25 @@
         <v>1.4</v>
       </c>
       <c r="AN125">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AO125">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ125">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AR125">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AS125">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="AT125">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -27156,25 +27156,25 @@
         <v>1.22</v>
       </c>
       <c r="AN126">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AO126">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="AQ126">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="AR126">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="AS126">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="AT126">
-        <v>3.66</v>
+        <v>3.81</v>
       </c>
       <c r="AU126">
         <v>6</v>
@@ -27362,25 +27362,25 @@
         <v>1.57</v>
       </c>
       <c r="AN127">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AO127">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AS127">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AT127">
-        <v>3.27</v>
+        <v>3.04</v>
       </c>
       <c r="AU127">
         <v>2</v>
@@ -27568,25 +27568,25 @@
         <v>2.05</v>
       </c>
       <c r="AN128">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO128">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="AQ128">
+        <v>1.44</v>
+      </c>
+      <c r="AR128">
         <v>1.72</v>
       </c>
-      <c r="AR128">
-        <v>1.44</v>
-      </c>
       <c r="AS128">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="AT128">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="AU128">
         <v>4</v>
@@ -27774,25 +27774,25 @@
         <v>1.85</v>
       </c>
       <c r="AN129">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AO129">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="AP129">
-        <v>0.84</v>
+        <v>1.06</v>
       </c>
       <c r="AQ129">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AR129">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AS129">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="AT129">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="AU129">
         <v>9</v>
@@ -27980,25 +27980,25 @@
         <v>1.16</v>
       </c>
       <c r="AN130">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="AO130">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AP130">
+        <v>1.56</v>
+      </c>
+      <c r="AQ130">
         <v>1.25</v>
       </c>
-      <c r="AQ130">
-        <v>1.53</v>
-      </c>
       <c r="AR130">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AS130">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AT130">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="AU130">
         <v>2</v>
@@ -28186,25 +28186,25 @@
         <v>2.34</v>
       </c>
       <c r="AN131">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AO131">
-        <v>0.76</v>
+        <v>0.4</v>
       </c>
       <c r="AP131">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR131">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AS131">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AT131">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28392,25 +28392,25 @@
         <v>1.38</v>
       </c>
       <c r="AN132">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AO132">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="AP132">
-        <v>1.47</v>
+        <v>1.94</v>
       </c>
       <c r="AQ132">
-        <v>1.16</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR132">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AS132">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AT132">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28598,25 +28598,25 @@
         <v>2.44</v>
       </c>
       <c r="AN133">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AO133">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AP133">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="AQ133">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AR133">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AS133">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AT133">
-        <v>3.43</v>
+        <v>3.31</v>
       </c>
       <c r="AU133">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -1645,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="AY2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA2">
         <v>6</v>
@@ -1851,10 +1851,10 @@
         <v>5</v>
       </c>
       <c r="AY3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA3">
         <v>4</v>
@@ -2057,10 +2057,10 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA4">
         <v>2</v>
@@ -2263,10 +2263,10 @@
         <v>10</v>
       </c>
       <c r="AY5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA5">
         <v>5</v>
@@ -2881,10 +2881,10 @@
         <v>3</v>
       </c>
       <c r="AY8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA8">
         <v>2</v>
@@ -3087,10 +3087,10 @@
         <v>7</v>
       </c>
       <c r="AY9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA9">
         <v>8</v>
@@ -3293,10 +3293,10 @@
         <v>5</v>
       </c>
       <c r="AY10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ10">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA10">
         <v>6</v>
@@ -3499,10 +3499,10 @@
         <v>2</v>
       </c>
       <c r="AY11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA11">
         <v>8</v>
@@ -3705,10 +3705,10 @@
         <v>12</v>
       </c>
       <c r="AY12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA12">
         <v>6</v>
@@ -3911,10 +3911,10 @@
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA13">
         <v>9</v>
@@ -4117,10 +4117,10 @@
         <v>8</v>
       </c>
       <c r="AY14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA14">
         <v>4</v>
@@ -4323,10 +4323,10 @@
         <v>3</v>
       </c>
       <c r="AY15">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA15">
         <v>9</v>
@@ -4529,10 +4529,10 @@
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA16">
         <v>3</v>
@@ -4735,10 +4735,10 @@
         <v>8</v>
       </c>
       <c r="AY17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA17">
         <v>0</v>
@@ -4941,10 +4941,10 @@
         <v>11</v>
       </c>
       <c r="AY18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA18">
         <v>6</v>
@@ -5147,10 +5147,10 @@
         <v>4</v>
       </c>
       <c r="AY19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ19">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA19">
         <v>5</v>
@@ -5765,10 +5765,10 @@
         <v>8</v>
       </c>
       <c r="AY22">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA22">
         <v>8</v>
@@ -5971,10 +5971,10 @@
         <v>7</v>
       </c>
       <c r="AY23">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA23">
         <v>8</v>
@@ -6177,10 +6177,10 @@
         <v>9</v>
       </c>
       <c r="AY24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ24">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA24">
         <v>6</v>
@@ -6383,10 +6383,10 @@
         <v>4</v>
       </c>
       <c r="AY25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA25">
         <v>4</v>
@@ -6589,10 +6589,10 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA26">
         <v>4</v>
@@ -6795,10 +6795,10 @@
         <v>4</v>
       </c>
       <c r="AY27">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA27">
         <v>8</v>
@@ -7001,10 +7001,10 @@
         <v>7</v>
       </c>
       <c r="AY28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ28">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA28">
         <v>6</v>
@@ -7207,10 +7207,10 @@
         <v>8</v>
       </c>
       <c r="AY29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -7413,10 +7413,10 @@
         <v>9</v>
       </c>
       <c r="AY30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA30">
         <v>6</v>
@@ -7619,10 +7619,10 @@
         <v>6</v>
       </c>
       <c r="AY31">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA31">
         <v>2</v>
@@ -8031,10 +8031,10 @@
         <v>5</v>
       </c>
       <c r="AY33">
+        <v>13</v>
+      </c>
+      <c r="AZ33">
         <v>12</v>
-      </c>
-      <c r="AZ33">
-        <v>11</v>
       </c>
       <c r="BA33">
         <v>4</v>
@@ -8237,10 +8237,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
+        <v>19</v>
+      </c>
+      <c r="AZ34">
         <v>16</v>
-      </c>
-      <c r="AZ34">
-        <v>14</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8443,10 +8443,10 @@
         <v>1</v>
       </c>
       <c r="AY35">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA35">
         <v>9</v>
@@ -8855,10 +8855,10 @@
         <v>1</v>
       </c>
       <c r="AY37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA37">
         <v>8</v>
@@ -9267,10 +9267,10 @@
         <v>7</v>
       </c>
       <c r="AY39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA39">
         <v>4</v>
@@ -9473,10 +9473,10 @@
         <v>5</v>
       </c>
       <c r="AY40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA40">
         <v>5</v>
@@ -9679,10 +9679,10 @@
         <v>6</v>
       </c>
       <c r="AY41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ41">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9885,10 +9885,10 @@
         <v>2</v>
       </c>
       <c r="AY42">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ42">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA42">
         <v>7</v>
@@ -10091,10 +10091,10 @@
         <v>9</v>
       </c>
       <c r="AY43">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ43">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA43">
         <v>11</v>
@@ -10297,10 +10297,10 @@
         <v>2</v>
       </c>
       <c r="AY44">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ44">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA44">
         <v>2</v>
@@ -10709,7 +10709,7 @@
         <v>2</v>
       </c>
       <c r="AY46">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ46">
         <v>6</v>
@@ -10915,10 +10915,10 @@
         <v>6</v>
       </c>
       <c r="AY47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ47">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA47">
         <v>0</v>
@@ -11121,10 +11121,10 @@
         <v>2</v>
       </c>
       <c r="AY48">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA48">
         <v>10</v>
@@ -11327,10 +11327,10 @@
         <v>4</v>
       </c>
       <c r="AY49">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA49">
         <v>6</v>
@@ -11533,7 +11533,7 @@
         <v>1</v>
       </c>
       <c r="AY50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ50">
         <v>3</v>
@@ -11739,10 +11739,10 @@
         <v>1</v>
       </c>
       <c r="AY51">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA51">
         <v>11</v>
@@ -12357,10 +12357,10 @@
         <v>7</v>
       </c>
       <c r="AY54">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA54">
         <v>4</v>
@@ -12769,10 +12769,10 @@
         <v>6</v>
       </c>
       <c r="AY56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA56">
         <v>5</v>
@@ -12975,10 +12975,10 @@
         <v>3</v>
       </c>
       <c r="AY57">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ57">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA57">
         <v>3</v>
@@ -13181,10 +13181,10 @@
         <v>5</v>
       </c>
       <c r="AY58">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ58">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA58">
         <v>7</v>
@@ -13387,10 +13387,10 @@
         <v>8</v>
       </c>
       <c r="AY59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA59">
         <v>1</v>
@@ -13593,10 +13593,10 @@
         <v>5</v>
       </c>
       <c r="AY60">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ60">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA60">
         <v>6</v>
@@ -13799,10 +13799,10 @@
         <v>5</v>
       </c>
       <c r="AY61">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA61">
         <v>4</v>
@@ -14005,7 +14005,7 @@
         <v>4</v>
       </c>
       <c r="AY62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ62">
         <v>11</v>
@@ -14211,10 +14211,10 @@
         <v>3</v>
       </c>
       <c r="AY63">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ63">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA63">
         <v>4</v>
@@ -14417,10 +14417,10 @@
         <v>1</v>
       </c>
       <c r="AY64">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA64">
         <v>13</v>
@@ -14623,10 +14623,10 @@
         <v>7</v>
       </c>
       <c r="AY65">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA65">
         <v>9</v>
@@ -14832,7 +14832,7 @@
         <v>6</v>
       </c>
       <c r="AZ66">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA66">
         <v>1</v>
@@ -15035,10 +15035,10 @@
         <v>2</v>
       </c>
       <c r="AY67">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA67">
         <v>6</v>
@@ -15241,10 +15241,10 @@
         <v>4</v>
       </c>
       <c r="AY68">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ68">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA68">
         <v>7</v>
@@ -15447,10 +15447,10 @@
         <v>4</v>
       </c>
       <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
         <v>12</v>
-      </c>
-      <c r="AZ69">
-        <v>8</v>
       </c>
       <c r="BA69">
         <v>6</v>
@@ -15653,10 +15653,10 @@
         <v>6</v>
       </c>
       <c r="AY70">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ70">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA70">
         <v>9</v>
@@ -15859,10 +15859,10 @@
         <v>4</v>
       </c>
       <c r="AY71">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA71">
         <v>7</v>
@@ -16065,10 +16065,10 @@
         <v>2</v>
       </c>
       <c r="AY72">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA72">
         <v>6</v>
@@ -16271,10 +16271,10 @@
         <v>4</v>
       </c>
       <c r="AY73">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA73">
         <v>3</v>
@@ -16477,10 +16477,10 @@
         <v>4</v>
       </c>
       <c r="AY74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ74">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA74">
         <v>2</v>
@@ -16683,10 +16683,10 @@
         <v>7</v>
       </c>
       <c r="AY75">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ75">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="BA75">
         <v>3</v>
@@ -16889,10 +16889,10 @@
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ76">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA76">
         <v>5</v>
@@ -17095,10 +17095,10 @@
         <v>5</v>
       </c>
       <c r="AY77">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ77">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA77">
         <v>6</v>
@@ -17301,10 +17301,10 @@
         <v>2</v>
       </c>
       <c r="AY78">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA78">
         <v>3</v>
@@ -17507,10 +17507,10 @@
         <v>4</v>
       </c>
       <c r="AY79">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ79">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA79">
         <v>2</v>
@@ -17713,10 +17713,10 @@
         <v>2</v>
       </c>
       <c r="AY80">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA80">
         <v>6</v>
@@ -17919,10 +17919,10 @@
         <v>9</v>
       </c>
       <c r="AY81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ81">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA81">
         <v>7</v>
@@ -18125,10 +18125,10 @@
         <v>5</v>
       </c>
       <c r="AY82">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ82">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA82">
         <v>5</v>
@@ -18331,10 +18331,10 @@
         <v>2</v>
       </c>
       <c r="AY83">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA83">
         <v>7</v>
@@ -18537,10 +18537,10 @@
         <v>6</v>
       </c>
       <c r="AY84">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ84">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA84">
         <v>2</v>
@@ -18743,10 +18743,10 @@
         <v>3</v>
       </c>
       <c r="AY85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ85">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA85">
         <v>4</v>
@@ -18952,7 +18952,7 @@
         <v>8</v>
       </c>
       <c r="AZ86">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA86">
         <v>4</v>
@@ -19155,10 +19155,10 @@
         <v>6</v>
       </c>
       <c r="AY87">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ87">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA87">
         <v>3</v>
@@ -19361,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="AY88">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ88">
         <v>5</v>
@@ -19567,10 +19567,10 @@
         <v>5</v>
       </c>
       <c r="AY89">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ89">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA89">
         <v>4</v>
@@ -19773,10 +19773,10 @@
         <v>1</v>
       </c>
       <c r="AY90">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA90">
         <v>5</v>
@@ -19979,7 +19979,7 @@
         <v>1</v>
       </c>
       <c r="AY91">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ91">
         <v>6</v>
@@ -20185,10 +20185,10 @@
         <v>5</v>
       </c>
       <c r="AY92">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ92">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA92">
         <v>4</v>
@@ -20391,10 +20391,10 @@
         <v>5</v>
       </c>
       <c r="AY93">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ93">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA93">
         <v>5</v>
@@ -20597,10 +20597,10 @@
         <v>1</v>
       </c>
       <c r="AY94">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ94">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA94">
         <v>9</v>
@@ -20803,10 +20803,10 @@
         <v>7</v>
       </c>
       <c r="AY95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ95">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA95">
         <v>1</v>
@@ -21009,10 +21009,10 @@
         <v>3</v>
       </c>
       <c r="AY96">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AZ96">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA96">
         <v>6</v>
@@ -21215,10 +21215,10 @@
         <v>1</v>
       </c>
       <c r="AY97">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AZ97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA97">
         <v>10</v>
@@ -21421,10 +21421,10 @@
         <v>3</v>
       </c>
       <c r="AY98">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ98">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA98">
         <v>2</v>
@@ -21627,10 +21627,10 @@
         <v>7</v>
       </c>
       <c r="AY99">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ99">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA99">
         <v>2</v>
@@ -21833,10 +21833,10 @@
         <v>3</v>
       </c>
       <c r="AY100">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ100">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA100">
         <v>5</v>
@@ -22039,10 +22039,10 @@
         <v>7</v>
       </c>
       <c r="AY101">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ101">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA101">
         <v>2</v>
@@ -22245,10 +22245,10 @@
         <v>8</v>
       </c>
       <c r="AY102">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ102">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BA102">
         <v>1</v>
@@ -22454,7 +22454,7 @@
         <v>5</v>
       </c>
       <c r="AZ103">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA103">
         <v>0</v>
@@ -22657,10 +22657,10 @@
         <v>1</v>
       </c>
       <c r="AY104">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA104">
         <v>5</v>
@@ -22863,10 +22863,10 @@
         <v>3</v>
       </c>
       <c r="AY105">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA105">
         <v>2</v>
@@ -23072,7 +23072,7 @@
         <v>2</v>
       </c>
       <c r="AZ106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA106">
         <v>6</v>
@@ -23275,10 +23275,10 @@
         <v>4</v>
       </c>
       <c r="AY107">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ107">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA107">
         <v>5</v>
@@ -23481,10 +23481,10 @@
         <v>2</v>
       </c>
       <c r="AY108">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AZ108">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA108">
         <v>9</v>
@@ -23687,10 +23687,10 @@
         <v>3</v>
       </c>
       <c r="AY109">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA109">
         <v>8</v>
@@ -23893,10 +23893,10 @@
         <v>3</v>
       </c>
       <c r="AY110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ110">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA110">
         <v>2</v>
@@ -24099,10 +24099,10 @@
         <v>6</v>
       </c>
       <c r="AY111">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ111">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA111">
         <v>4</v>
@@ -24305,7 +24305,7 @@
         <v>5</v>
       </c>
       <c r="AY112">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ112">
         <v>8</v>
@@ -24511,10 +24511,10 @@
         <v>7</v>
       </c>
       <c r="AY113">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ113">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA113">
         <v>7</v>
@@ -24717,10 +24717,10 @@
         <v>8</v>
       </c>
       <c r="AY114">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ114">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA114">
         <v>2</v>
@@ -24923,10 +24923,10 @@
         <v>4</v>
       </c>
       <c r="AY115">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AZ115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA115">
         <v>5</v>
@@ -25129,10 +25129,10 @@
         <v>14</v>
       </c>
       <c r="AY116">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ116">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA116">
         <v>6</v>
@@ -25335,10 +25335,10 @@
         <v>7</v>
       </c>
       <c r="AY117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ117">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="BA117">
         <v>3</v>
@@ -25541,10 +25541,10 @@
         <v>4</v>
       </c>
       <c r="AY118">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ118">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA118">
         <v>4</v>
@@ -25747,10 +25747,10 @@
         <v>5</v>
       </c>
       <c r="AY119">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ119">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="BA119">
         <v>4</v>
@@ -25953,10 +25953,10 @@
         <v>3</v>
       </c>
       <c r="AY120">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AZ120">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA120">
         <v>11</v>
@@ -26159,10 +26159,10 @@
         <v>5</v>
       </c>
       <c r="AY121">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ121">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA121">
         <v>7</v>
@@ -26365,10 +26365,10 @@
         <v>6</v>
       </c>
       <c r="AY122">
+        <v>14</v>
+      </c>
+      <c r="AZ122">
         <v>11</v>
-      </c>
-      <c r="AZ122">
-        <v>10</v>
       </c>
       <c r="BA122">
         <v>3</v>
@@ -26571,10 +26571,10 @@
         <v>4</v>
       </c>
       <c r="AY123">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ123">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA123">
         <v>6</v>
@@ -26777,10 +26777,10 @@
         <v>11</v>
       </c>
       <c r="AY124">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ124">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA124">
         <v>6</v>
@@ -26983,10 +26983,10 @@
         <v>2</v>
       </c>
       <c r="AY125">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ125">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA125">
         <v>4</v>
@@ -27189,10 +27189,10 @@
         <v>1</v>
       </c>
       <c r="AY126">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ126">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA126">
         <v>3</v>
@@ -27395,10 +27395,10 @@
         <v>5</v>
       </c>
       <c r="AY127">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ127">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA127">
         <v>8</v>
@@ -27601,10 +27601,10 @@
         <v>6</v>
       </c>
       <c r="AY128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ128">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA128">
         <v>3</v>
@@ -27807,10 +27807,10 @@
         <v>4</v>
       </c>
       <c r="AY129">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ129">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA129">
         <v>6</v>
@@ -28013,10 +28013,10 @@
         <v>14</v>
       </c>
       <c r="AY130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ130">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA130">
         <v>1</v>
@@ -28219,10 +28219,10 @@
         <v>7</v>
       </c>
       <c r="AY131">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ131">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA131">
         <v>8</v>
@@ -28425,10 +28425,10 @@
         <v>6</v>
       </c>
       <c r="AY132">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ132">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA132">
         <v>3</v>
@@ -28631,10 +28631,10 @@
         <v>5</v>
       </c>
       <c r="AY133">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ133">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA133">
         <v>5</v>
@@ -28837,10 +28837,10 @@
         <v>4</v>
       </c>
       <c r="AY134">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ134">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA134">
         <v>3</v>
@@ -29043,10 +29043,10 @@
         <v>4</v>
       </c>
       <c r="AY135">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ135">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA135">
         <v>4</v>
@@ -29249,10 +29249,10 @@
         <v>6</v>
       </c>
       <c r="AY136">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ136">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA136">
         <v>7</v>
@@ -29455,10 +29455,10 @@
         <v>10</v>
       </c>
       <c r="AY137">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ137">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA137">
         <v>2</v>
@@ -29661,10 +29661,10 @@
         <v>7</v>
       </c>
       <c r="AY138">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ138">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA138">
         <v>2</v>
@@ -29867,10 +29867,10 @@
         <v>5</v>
       </c>
       <c r="AY139">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ139">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA139">
         <v>6</v>
@@ -30073,10 +30073,10 @@
         <v>3</v>
       </c>
       <c r="AY140">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA140">
         <v>5</v>
@@ -30279,10 +30279,10 @@
         <v>7</v>
       </c>
       <c r="AY141">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ141">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA141">
         <v>1</v>
@@ -30485,10 +30485,10 @@
         <v>7</v>
       </c>
       <c r="AY142">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ142">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA142">
         <v>10</v>
@@ -30691,10 +30691,10 @@
         <v>4</v>
       </c>
       <c r="AY143">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ143">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA143">
         <v>3</v>
@@ -30897,10 +30897,10 @@
         <v>9</v>
       </c>
       <c r="AY144">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ144">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BA144">
         <v>5</v>
@@ -31103,7 +31103,7 @@
         <v>0</v>
       </c>
       <c r="AY145">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ145">
         <v>3</v>
@@ -31309,10 +31309,10 @@
         <v>6</v>
       </c>
       <c r="AY146">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ146">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA146">
         <v>3</v>
@@ -31515,10 +31515,10 @@
         <v>1</v>
       </c>
       <c r="AY147">
+        <v>12</v>
+      </c>
+      <c r="AZ147">
         <v>9</v>
-      </c>
-      <c r="AZ147">
-        <v>7</v>
       </c>
       <c r="BA147">
         <v>5</v>
@@ -31721,10 +31721,10 @@
         <v>7</v>
       </c>
       <c r="AY148">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ148">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -31927,10 +31927,10 @@
         <v>7</v>
       </c>
       <c r="AY149">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ149">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA149">
         <v>6</v>
@@ -32133,10 +32133,10 @@
         <v>5</v>
       </c>
       <c r="AY150">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ150">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA150">
         <v>4</v>
@@ -32339,10 +32339,10 @@
         <v>5</v>
       </c>
       <c r="AY151">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ151">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA151">
         <v>3</v>
@@ -32545,10 +32545,10 @@
         <v>3</v>
       </c>
       <c r="AY152">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ152">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA152">
         <v>10</v>
@@ -32751,10 +32751,10 @@
         <v>2</v>
       </c>
       <c r="AY153">
+        <v>13</v>
+      </c>
+      <c r="AZ153">
         <v>11</v>
-      </c>
-      <c r="AZ153">
-        <v>6</v>
       </c>
       <c r="BA153">
         <v>4</v>
@@ -32957,10 +32957,10 @@
         <v>1</v>
       </c>
       <c r="AY154">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ154">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA154">
         <v>2</v>
@@ -33163,10 +33163,10 @@
         <v>3</v>
       </c>
       <c r="AY155">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ155">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA155">
         <v>8</v>
@@ -33369,7 +33369,7 @@
         <v>4</v>
       </c>
       <c r="AY156">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ156">
         <v>8</v>
@@ -33575,10 +33575,10 @@
         <v>4</v>
       </c>
       <c r="AY157">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ157">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA157">
         <v>1</v>
@@ -33781,7 +33781,7 @@
         <v>1</v>
       </c>
       <c r="AY158">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AZ158">
         <v>3</v>
@@ -33987,10 +33987,10 @@
         <v>2</v>
       </c>
       <c r="AY159">
+        <v>13</v>
+      </c>
+      <c r="AZ159">
         <v>8</v>
-      </c>
-      <c r="AZ159">
-        <v>6</v>
       </c>
       <c r="BA159">
         <v>6</v>
@@ -34193,10 +34193,10 @@
         <v>12</v>
       </c>
       <c r="AY160">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ160">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA160">
         <v>6</v>
@@ -34399,10 +34399,10 @@
         <v>3</v>
       </c>
       <c r="AY161">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ161">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA161">
         <v>3</v>
@@ -34605,10 +34605,10 @@
         <v>3</v>
       </c>
       <c r="AY162">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ162">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA162">
         <v>7</v>
@@ -34811,10 +34811,10 @@
         <v>4</v>
       </c>
       <c r="AY163">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ163">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA163">
         <v>1</v>
@@ -35017,7 +35017,7 @@
         <v>1</v>
       </c>
       <c r="AY164">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ164">
         <v>4</v>
@@ -35223,7 +35223,7 @@
         <v>2</v>
       </c>
       <c r="AY165">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AZ165">
         <v>7</v>
@@ -35429,7 +35429,7 @@
         <v>5</v>
       </c>
       <c r="AY166">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AZ166">
         <v>8</v>
@@ -35635,10 +35635,10 @@
         <v>9</v>
       </c>
       <c r="AY167">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ167">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA167">
         <v>9</v>
@@ -35841,10 +35841,10 @@
         <v>5</v>
       </c>
       <c r="AY168">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ168">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA168">
         <v>5</v>
@@ -36047,10 +36047,10 @@
         <v>4</v>
       </c>
       <c r="AY169">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ169">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA169">
         <v>5</v>
@@ -36253,10 +36253,10 @@
         <v>4</v>
       </c>
       <c r="AY170">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ170">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA170">
         <v>8</v>
@@ -36459,10 +36459,10 @@
         <v>6</v>
       </c>
       <c r="AY171">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ171">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA171">
         <v>4</v>
@@ -36665,10 +36665,10 @@
         <v>8</v>
       </c>
       <c r="AY172">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ172">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA172">
         <v>3</v>
@@ -36871,10 +36871,10 @@
         <v>4</v>
       </c>
       <c r="AY173">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ173">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA173">
         <v>3</v>
@@ -37283,10 +37283,10 @@
         <v>4</v>
       </c>
       <c r="AY175">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ175">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA175">
         <v>5</v>
@@ -37489,10 +37489,10 @@
         <v>4</v>
       </c>
       <c r="AY176">
+        <v>14</v>
+      </c>
+      <c r="AZ176">
         <v>12</v>
-      </c>
-      <c r="AZ176">
-        <v>9</v>
       </c>
       <c r="BA176">
         <v>2</v>
@@ -37695,10 +37695,10 @@
         <v>1</v>
       </c>
       <c r="AY177">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ177">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA177">
         <v>7</v>
@@ -37901,10 +37901,10 @@
         <v>7</v>
       </c>
       <c r="AY178">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ178">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA178">
         <v>2</v>
@@ -38107,10 +38107,10 @@
         <v>9</v>
       </c>
       <c r="AY179">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ179">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA179">
         <v>1</v>
@@ -38313,10 +38313,10 @@
         <v>2</v>
       </c>
       <c r="AY180">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AZ180">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA180">
         <v>9</v>
@@ -38519,10 +38519,10 @@
         <v>5</v>
       </c>
       <c r="AY181">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ181">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA181">
         <v>9</v>
@@ -38725,10 +38725,10 @@
         <v>4</v>
       </c>
       <c r="AY182">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ182">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA182">
         <v>3</v>
@@ -38931,10 +38931,10 @@
         <v>7</v>
       </c>
       <c r="AY183">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ183">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA183">
         <v>7</v>
@@ -39137,10 +39137,10 @@
         <v>2</v>
       </c>
       <c r="AY184">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ184">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA184">
         <v>2</v>
@@ -39549,10 +39549,10 @@
         <v>4</v>
       </c>
       <c r="AY186">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ186">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA186">
         <v>8</v>
@@ -39755,10 +39755,10 @@
         <v>7</v>
       </c>
       <c r="AY187">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ187">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA187">
         <v>3</v>
@@ -39961,7 +39961,7 @@
         <v>4</v>
       </c>
       <c r="AY188">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ188">
         <v>8</v>
@@ -40167,10 +40167,10 @@
         <v>13</v>
       </c>
       <c r="AY189">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ189">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA189">
         <v>2</v>
@@ -40373,10 +40373,10 @@
         <v>6</v>
       </c>
       <c r="AY190">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ190">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA190">
         <v>4</v>
@@ -40579,10 +40579,10 @@
         <v>8</v>
       </c>
       <c r="AY191">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ191">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA191">
         <v>1</v>
@@ -40785,7 +40785,7 @@
         <v>6</v>
       </c>
       <c r="AY192">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ192">
         <v>13</v>
@@ -40991,10 +40991,10 @@
         <v>7</v>
       </c>
       <c r="AY193">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ193">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA193">
         <v>2</v>
